--- a/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>7.910992689807666e-07</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>2.894267133845759e-06</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>1.958502793677175e-06</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>4.093774919463844e-06</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>4.70570335364163e-06</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>5.027059558203776e-06</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>4.732777489950338e-06</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>4.957340086228568e-06</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>3.848364074860513e-06</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>4.825573287463224e-06</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>3.990690918134195e-06</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>3.556738676324073e-06</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>6.699334686072512e-06</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>5.401249625867006e-06</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>5.302061488983794e-06</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>4.830171866650248e-06</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>5.144222633274117e-06</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>6.087782718292073e-06</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>5.470031171147112e-06</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>6.551676029712382e-06</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>9.968905565148687e-06</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>1.313558768073449e-05</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>1.799782675025531e-05</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>1.903417180370353e-05</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>1.533106319418355e-05</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>2.054862290924855e-05</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>1.895177269779686e-05</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>1.973120663600069e-05</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>1.91463927059541e-05</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>1.606516628987352e-05</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>1.87862977721209e-05</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>1.778330486952327e-05</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>1.887049629109149e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>1.857233448170614e-05</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>1.76498610519683e-05</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>1.143060474368656e-05</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>1.199179368452637e-05</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>1.017255981631709e-05</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>1.204895039113532e-05</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>1.75651672271995e-05</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>1.810081457895677e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>1.684794007213958e-05</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>1.515515953717117e-05</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>1.600418761051873e-05</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.535217807072023e-05</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>1.04764184219264e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>1.410955664952654e-05</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>2.090106431047802e-05</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>3.074888707087491e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>4.093841472068449e-05</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>8.809954858524358e-05</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001468798063037029</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004101652312256703</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006610259365144183</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007248671022647572</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005910582835855155</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.000304143856616902</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002336760143756314</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002975112589454445</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001316088256500288</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>9.415331321987566e-05</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>5.439528471537797e-05</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.885496712189719e-05</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>2.224040346289247e-05</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>2.281737715681579e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>2.693718265754337e-05</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>3.595209495029354e-05</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>3.386620052838281e-05</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>7.101258103677862e-05</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001097935052612522</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002598525738366205</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.0006605207066002613</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006521101761697013</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.0003513522575672329</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.000186639760270205</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>9.39023672258663e-05</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>9.237175580215795e-05</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>6.204220351563292e-05</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>5.934355746234037e-05</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>3.983521961917508e-05</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>4.390789491898238e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>9.421827891193799e-05</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>6.337665950422711e-05</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>2.889724872824482e-05</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>2.40336020557038e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>2.307047552497661e-05</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>2.914188043080519e-05</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>5.250331501509304e-05</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001221406700568182</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001358598958155998</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001609909872319234</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001661351518366454</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001464728599654084</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001309096557059105</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>9.738381409938351e-05</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>8.921432190621442e-05</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.481837188599574e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>8.376556989939498e-05</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>8.334277262857511e-05</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>8.305318510806175e-05</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>9.761669998372832e-05</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001313474846102803</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002145611539367258</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003267467117402817</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004334961299964236</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005730856085460401</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007193183855285412</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007795055218072065</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009685938529186576</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>0.001183718323141245</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>0.001199355519945456</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>0.001339731767012305</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>0.001369376700124861</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>0.001362065432666695</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>0.001339605983342915</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>0.001346498679751748</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>0.001276182253490821</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>0.001239864919257698</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>0.001018298745421628</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009528469706902689</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>0.0008001747480146834</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006188890456955307</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005670215063389438</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004899483287565591</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004627383902563766</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004637723229311081</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004580353867218255</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004436511873697488</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004478949415782672</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.000455545354241708</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005072906847570648</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005480722515059265</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005761016986044226</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005868351066836464</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704589393557321</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005504199286285392</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004677115054330061</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002926345983482916</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002488112429563156</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>0.0001979415439938498</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001546949892883554</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>0.000144645131971141</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001392571270358684</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001457154774744081</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001395737087467395</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001407524731797555</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001387210449694926</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001389296362559365</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001338045264346363</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001338946606370092</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001312029131989369</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001230424577653518</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001226601512347455</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001209613377040096</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001201624040376291</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001095089283519964</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>9.395880651405812e-05</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>8.820054437064507e-05</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>8.803333877743249e-05</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001060891807216356</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001865425867868951</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002283160598212632</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002444421558951467</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002481152400241816</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002568563126154655</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002557178167124469</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002475730890477171</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002286132053720387</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001440545010588612</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>9.423476240069038e-05</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>8.603205887944252e-05</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>0.000100048039269025</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001382464604933825</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001548884555887016</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002346898536630946</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.000319077508954753</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230369158008763</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003156279507894393</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002838629684103659</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002846228350135692</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002499982202053713</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002162021995418048</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001965429319242366</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001987478680075949</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001949709667369168</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.000190118226093836</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001816181398844768</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.0002014171403997828</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002350516577321926</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002632567749698063</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0003009723852373856</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003518488126886776</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003962389850830664</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003805084089770041</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003811873738020873</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003426179699497599</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003389567380135783</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.000298636268294626</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002880442415355157</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002790882562200937</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.000356691192996385</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003131956230025046</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003283663343211574</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002999712761930992</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002825750427136101</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.000268456935077739</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002512275743703077</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002319452019909959</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342485024836828</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.000121564152076514</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>5.058910986160602e-05</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.132353922773319e-05</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>4.481962795615723e-05</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>2.755842315424001e-05</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.25599693830289e-05</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>1.925231853475562e-05</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>1.971234340046478e-05</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.840308486195423e-05</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>5.259250788714568e-05</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>5.896725114961255e-05</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>5.178614798490522e-05</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>4.621126194306409e-05</v>

--- a/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>7.910992689807666e-07</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>2.894267133845759e-06</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>1.958502793677175e-06</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>4.093774919463844e-06</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>4.70570335364163e-06</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>5.027059558203776e-06</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>4.732777489950338e-06</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>4.957340086228568e-06</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>3.848364074860513e-06</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>4.825573287463224e-06</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>3.990690918134195e-06</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>3.556738676324073e-06</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>6.699334686072512e-06</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>5.401249625867006e-06</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>5.302061488983794e-06</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>4.830171866650248e-06</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>5.144222633274117e-06</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>6.087782718292073e-06</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>5.470031171147112e-06</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>6.551676029712382e-06</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>9.968905565148687e-06</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>1.313558768073449e-05</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>1.799782675025531e-05</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>1.903417180370353e-05</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>1.533106319418355e-05</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>2.054862290924855e-05</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>1.895177269779686e-05</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>1.973120663600069e-05</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>1.91463927059541e-05</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>1.606516628987352e-05</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>1.87862977721209e-05</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>1.778330486952327e-05</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>1.887049629109149e-05</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>1.857233448170614e-05</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>1.76498610519683e-05</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>1.143060474368656e-05</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>1.199179368452637e-05</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>1.017255981631709e-05</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>1.204895039113532e-05</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>1.75651672271995e-05</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>1.810081457895677e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>1.684794007213958e-05</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>1.515515953717117e-05</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>1.600418761051873e-05</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.535217807072023e-05</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>1.04764184219264e-05</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>1.410955664952654e-05</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>2.090106431047802e-05</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>3.074888707087491e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>4.093841472068449e-05</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>8.809954858524358e-05</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001468798063037029</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004101652312256703</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006610259365144183</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007248671022647572</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005910582835855155</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.000304143856616902</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002336760143756314</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002975112589454445</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001316088256500288</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>9.415331321987566e-05</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>5.439528471537797e-05</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.885496712189719e-05</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>2.224040346289247e-05</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>2.281737715681579e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>2.693718265754337e-05</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>3.595209495029354e-05</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>3.386620052838281e-05</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>7.101258103677862e-05</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001097935052612522</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002598525738366205</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.0006605207066002613</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006521101761697013</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.0003513522575672329</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.000186639760270205</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>9.39023672258663e-05</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>9.237175580215795e-05</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>6.204220351563292e-05</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>5.934355746234037e-05</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>3.983521961917508e-05</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>4.390789491898238e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>9.421827891193799e-05</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>6.337665950422711e-05</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>2.889724872824482e-05</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>2.40336020557038e-05</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>2.307047552497661e-05</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>2.914188043080519e-05</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>5.250331501509304e-05</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001221406700568182</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001358598958155998</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001609909872319234</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001661351518366454</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001464728599654084</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001309096557059105</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>9.738381409938351e-05</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>8.921432190621442e-05</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.481837188599574e-05</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>8.376556989939498e-05</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>8.334277262857511e-05</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>8.305318510806175e-05</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>9.761669998372832e-05</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001313474846102803</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002145611539367258</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003267467117402817</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004334961299964236</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005730856085460401</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007193183855285412</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007795055218072065</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009685938529186576</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>0.001183718323141245</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>0.001199355519945456</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>0.001339731767012305</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>0.001369376700124861</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>0.001362065432666695</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>0.001339605983342915</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>0.001346498679751748</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>0.001276182253490821</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>0.001239864919257698</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>0.001018298745421628</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009528469706902689</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>0.0008001747480146834</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006188890456955307</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005670215063389438</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004899483287565591</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004627383902563766</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004637723229311081</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004580353867218255</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004436511873697488</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004478949415782672</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.000455545354241708</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005072906847570648</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005480722515059265</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005761016986044226</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005868351066836464</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704589393557321</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005504199286285392</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004677115054330061</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002926345983482916</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002488112429563156</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>0.0001979415439938498</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001546949892883554</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>0.000144645131971141</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001392571270358684</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001457154774744081</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001395737087467395</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001407524731797555</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001387210449694926</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001389296362559365</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001338045264346363</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001338946606370092</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001312029131989369</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001230424577653518</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001226601512347455</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001209613377040096</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001201624040376291</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001095089283519964</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>9.395880651405812e-05</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>8.820054437064507e-05</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>8.803333877743249e-05</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001060891807216356</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001865425867868951</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002283160598212632</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.0002444421558951467</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002481152400241816</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002568563126154655</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002557178167124469</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002475730890477171</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002286132053720387</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001440545010588612</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>9.423476240069038e-05</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>8.603205887944252e-05</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>0.000100048039269025</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001382464604933825</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001548884555887016</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002346898536630946</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.000319077508954753</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230369158008763</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003156279507894393</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002838629684103659</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002846228350135692</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002499982202053713</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002162021995418048</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001965429319242366</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001987478680075949</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001949709667369168</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.000190118226093836</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001816181398844768</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.0002014171403997828</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002350516577321926</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002632567749698063</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0003009723852373856</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003518488126886776</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003962389850830664</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003805084089770041</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003811873738020873</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003426179699497599</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003389567380135783</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.000298636268294626</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002880442415355157</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002790882562200937</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.000356691192996385</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003131956230025046</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003283663343211574</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002999712761930992</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002825750427136101</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.000268456935077739</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002512275743703077</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.0002319452019909959</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.0002342485024836828</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.000121564152076514</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>5.058910986160602e-05</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.132353922773319e-05</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>4.481962795615723e-05</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>2.755842315424001e-05</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.25599693830289e-05</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>1.925231853475562e-05</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>1.971234340046478e-05</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.840308486195423e-05</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>5.259250788714568e-05</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>5.896725114961255e-05</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>5.178614798490522e-05</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>4.621126194306409e-05</v>

--- a/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -395,4442 +395,4442 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>7.910992689807666e-07</v>
+        <v>690783162998.2206</v>
       </c>
       <c r="C2" t="n">
-        <v>4.181391086919127e-08</v>
+        <v>37774757952.43887</v>
       </c>
       <c r="D2" t="n">
-        <v>664.5675873876213</v>
+        <v>667.3727515121202</v>
       </c>
       <c r="E2" t="n">
-        <v>2.726366766693314e-140</v>
+        <v>6.762359759430063e-141</v>
       </c>
       <c r="F2" t="n">
-        <v>110.7612645646036</v>
+        <v>111.2287919186867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.894267133845759e-06</v>
+        <v>2675321822556.048</v>
       </c>
       <c r="C3" t="n">
-        <v>1.008444308704929e-07</v>
+        <v>93575872846.91978</v>
       </c>
       <c r="D3" t="n">
-        <v>137.281362435774</v>
+        <v>139.1822433407859</v>
       </c>
       <c r="E3" t="n">
-        <v>3.754191983302965e-27</v>
+        <v>1.491135753427835e-27</v>
       </c>
       <c r="F3" t="n">
-        <v>22.88022707262901</v>
+        <v>23.19704055679766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.958502793677175e-06</v>
+        <v>1885857516766.744</v>
       </c>
       <c r="C4" t="n">
-        <v>8.097603232440027e-08</v>
+        <v>77592300118.28271</v>
       </c>
       <c r="D4" t="n">
-        <v>366.2757008481103</v>
+        <v>356.5653173964084</v>
       </c>
       <c r="E4" t="n">
-        <v>4.937545194704861e-76</v>
+        <v>6.010148352294658e-74</v>
       </c>
       <c r="F4" t="n">
-        <v>61.04595014135171</v>
+        <v>59.42755289940141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>4.093774919463844e-06</v>
+        <v>3782804093981.58</v>
       </c>
       <c r="C5" t="n">
-        <v>1.358106487725722e-07</v>
+        <v>126195373471.5011</v>
       </c>
       <c r="D5" t="n">
-        <v>132.7265487671415</v>
+        <v>134.0665388222423</v>
       </c>
       <c r="E5" t="n">
-        <v>3.425375695927741e-26</v>
+        <v>1.787835262597343e-26</v>
       </c>
       <c r="F5" t="n">
-        <v>22.12109146119025</v>
+        <v>22.34442313704038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>4.70570335364163e-06</v>
+        <v>4378273348541.188</v>
       </c>
       <c r="C6" t="n">
-        <v>1.601214919901962e-07</v>
+        <v>148952567381.4945</v>
       </c>
       <c r="D6" t="n">
-        <v>96.41067804661778</v>
+        <v>96.29838430366891</v>
       </c>
       <c r="E6" t="n">
-        <v>1.405597778863963e-18</v>
+        <v>1.483385602351002e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>16.06844634110296</v>
+        <v>16.04973071727815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>5.027059558203776e-06</v>
+        <v>4660974769356.615</v>
       </c>
       <c r="C7" t="n">
-        <v>1.680250266741295e-07</v>
+        <v>155702909252.4734</v>
       </c>
       <c r="D7" t="n">
-        <v>43.23081055547611</v>
+        <v>43.36226331201278</v>
       </c>
       <c r="E7" t="n">
-        <v>1.049967415738609e-07</v>
+        <v>9.888877631233991e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>7.205135092579352</v>
+        <v>7.227043885335463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>4.732777489950338e-06</v>
+        <v>4403828360215.529</v>
       </c>
       <c r="C8" t="n">
-        <v>1.472645649876346e-07</v>
+        <v>137095237160.7264</v>
       </c>
       <c r="D8" t="n">
-        <v>79.61651653740161</v>
+        <v>78.57093975405458</v>
       </c>
       <c r="E8" t="n">
-        <v>4.287655978928633e-15</v>
+        <v>7.048092629385835e-15</v>
       </c>
       <c r="F8" t="n">
-        <v>13.26941942290027</v>
+        <v>13.09515662567576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>4.957340086228568e-06</v>
+        <v>4607443298342.656</v>
       </c>
       <c r="C9" t="n">
-        <v>1.431364440855085e-07</v>
+        <v>132762685897.8509</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5431086434608</v>
+        <v>44.20628775862421</v>
       </c>
       <c r="E9" t="n">
-        <v>5.767781852253545e-08</v>
+        <v>6.727468107285109e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>7.4238514405768</v>
+        <v>7.367714626437369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>3.848364074860513e-06</v>
+        <v>3556709222824.505</v>
       </c>
       <c r="C10" t="n">
-        <v>1.401916604698137e-07</v>
+        <v>129838854008.9915</v>
       </c>
       <c r="D10" t="n">
-        <v>143.1475027686716</v>
+        <v>144.2210902846486</v>
       </c>
       <c r="E10" t="n">
-        <v>2.170332745402201e-28</v>
+        <v>1.287654793597109e-28</v>
       </c>
       <c r="F10" t="n">
-        <v>23.85791712811193</v>
+        <v>24.03684838077476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>4.825573287463224e-06</v>
+        <v>4481172904650.408</v>
       </c>
       <c r="C11" t="n">
-        <v>1.605841841425611e-07</v>
+        <v>149316765005.8797</v>
       </c>
       <c r="D11" t="n">
-        <v>52.66634785972775</v>
+        <v>52.58536428239388</v>
       </c>
       <c r="E11" t="n">
-        <v>1.369553247056946e-09</v>
+        <v>1.421930307116945e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>8.777724643287959</v>
+        <v>8.76422738039898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>3.990690918134195e-06</v>
+        <v>3695815688530.741</v>
       </c>
       <c r="C12" t="n">
-        <v>1.370903325289169e-07</v>
+        <v>126934976764.5821</v>
       </c>
       <c r="D12" t="n">
-        <v>299.2926707808267</v>
+        <v>302.7674088350605</v>
       </c>
       <c r="E12" t="n">
-        <v>1.15965441717523e-61</v>
+        <v>2.088133602294818e-62</v>
       </c>
       <c r="F12" t="n">
-        <v>49.88211179680445</v>
+        <v>50.46123480584342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>3.556738676324073e-06</v>
+        <v>3301862837416.561</v>
       </c>
       <c r="C13" t="n">
-        <v>1.187981762434365e-07</v>
+        <v>110348967606.3978</v>
       </c>
       <c r="D13" t="n">
-        <v>57.52196164838408</v>
+        <v>57.16429293664366</v>
       </c>
       <c r="E13" t="n">
-        <v>1.432251458823973e-10</v>
+        <v>1.692220191896905e-10</v>
       </c>
       <c r="F13" t="n">
-        <v>9.586993608064013</v>
+        <v>9.527382156107278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>6.699334686072512e-06</v>
+        <v>6221193743888.578</v>
       </c>
       <c r="C14" t="n">
-        <v>1.697653010987317e-07</v>
+        <v>157472393128.4981</v>
       </c>
       <c r="D14" t="n">
-        <v>10.28157581143259</v>
+        <v>10.47006836812536</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1132841718006691</v>
+        <v>0.1062016672972828</v>
       </c>
       <c r="F14" t="n">
-        <v>1.713595968572099</v>
+        <v>1.74501139468756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>5.401249625867006e-06</v>
+        <v>5019749187573.375</v>
       </c>
       <c r="C15" t="n">
-        <v>1.483129441646199e-07</v>
+        <v>137515834881.0435</v>
       </c>
       <c r="D15" t="n">
-        <v>14.92751169285795</v>
+        <v>14.7938042360114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02082806582693629</v>
+        <v>0.02192252890155762</v>
       </c>
       <c r="F15" t="n">
-        <v>2.487918615476326</v>
+        <v>2.465634039335233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>5.302061488983794e-06</v>
+        <v>4920501794593.707</v>
       </c>
       <c r="C16" t="n">
-        <v>1.598436932638494e-07</v>
+        <v>148687603854.6237</v>
       </c>
       <c r="D16" t="n">
-        <v>33.8214740503973</v>
+        <v>33.71413565027601</v>
       </c>
       <c r="E16" t="n">
-        <v>7.282975474269552e-06</v>
+        <v>7.638684820434142e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>5.636912341732883</v>
+        <v>5.619022608379335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.830171866650248e-06</v>
+        <v>4494576903037.208</v>
       </c>
       <c r="C17" t="n">
-        <v>1.510007870497769e-07</v>
+        <v>140204735366.2489</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1788337543969</v>
+        <v>25.20695047720233</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003163754143509768</v>
+        <v>0.0003126011158753246</v>
       </c>
       <c r="F17" t="n">
-        <v>4.196472292399483</v>
+        <v>4.201158412867055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>5.144222633274117e-06</v>
+        <v>4781851393611.2</v>
       </c>
       <c r="C18" t="n">
-        <v>1.667013268105926e-07</v>
+        <v>155135266554.5032</v>
       </c>
       <c r="D18" t="n">
-        <v>40.08603070753543</v>
+        <v>40.49346267243773</v>
       </c>
       <c r="E18" t="n">
-        <v>4.381215813473961e-07</v>
+        <v>3.643103858393948e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>6.681005117922571</v>
+        <v>6.748910445406288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>6.087782718292073e-06</v>
+        <v>5657031598184.594</v>
       </c>
       <c r="C19" t="n">
-        <v>1.904342002376691e-07</v>
+        <v>176834599465.4852</v>
       </c>
       <c r="D19" t="n">
-        <v>16.18040862221285</v>
+        <v>16.26364972756952</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01281770976744928</v>
+        <v>0.01240667725592199</v>
       </c>
       <c r="F19" t="n">
-        <v>2.696734770368808</v>
+        <v>2.710608287928253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.470031171147112e-06</v>
+        <v>5090281469044.49</v>
       </c>
       <c r="C20" t="n">
-        <v>1.910749191800933e-07</v>
+        <v>177701622347.9222</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81745548808116</v>
+        <v>48.48602100613395</v>
       </c>
       <c r="E20" t="n">
-        <v>8.110212794977187e-09</v>
+        <v>9.447733550897939e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>8.13624258134686</v>
+        <v>8.081003501022325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>6.551676029712382e-06</v>
+        <v>6096683063000.579</v>
       </c>
       <c r="C21" t="n">
-        <v>2.353693848655246e-07</v>
+        <v>218010795708.453</v>
       </c>
       <c r="D21" t="n">
-        <v>62.97439147565186</v>
+        <v>62.69054995200251</v>
       </c>
       <c r="E21" t="n">
-        <v>1.11709572730136e-11</v>
+        <v>1.276223257481151e-11</v>
       </c>
       <c r="F21" t="n">
-        <v>10.49573191260864</v>
+        <v>10.44842499200042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>9.968905565148687e-06</v>
+        <v>9258381439218.238</v>
       </c>
       <c r="C22" t="n">
-        <v>4.348820735351584e-07</v>
+        <v>403106468384.1516</v>
       </c>
       <c r="D22" t="n">
-        <v>27.77990680240309</v>
+        <v>27.9164477367458</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001033667817920472</v>
+        <v>9.742874945818383e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>4.629984467067183</v>
+        <v>4.652741289457634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>1.313558768073449e-05</v>
+        <v>12206098789820.17</v>
       </c>
       <c r="C23" t="n">
-        <v>6.04176842706494e-07</v>
+        <v>560806278493.824</v>
       </c>
       <c r="D23" t="n">
-        <v>22.89484326217434</v>
+        <v>22.92298503185743</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008324741715888696</v>
+        <v>0.0008226874931915089</v>
       </c>
       <c r="F23" t="n">
-        <v>3.815807210362391</v>
+        <v>3.820497505309572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.799782675025531e-05</v>
+        <v>16722665475600.87</v>
       </c>
       <c r="C24" t="n">
-        <v>8.272800549407533e-07</v>
+        <v>768476509408.9746</v>
       </c>
       <c r="D24" t="n">
-        <v>31.27389828552273</v>
+        <v>31.24827901860439</v>
       </c>
       <c r="E24" t="n">
-        <v>2.247205964251014e-05</v>
+        <v>2.272685880470242e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>5.212316380920455</v>
+        <v>5.208046503100731</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>1.903417180370353e-05</v>
+        <v>17687462099994.23</v>
       </c>
       <c r="C25" t="n">
-        <v>8.020313237090885e-07</v>
+        <v>745316531801.2197</v>
       </c>
       <c r="D25" t="n">
-        <v>27.29429171398169</v>
+        <v>27.23584430272592</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0001275309192938097</v>
+        <v>0.000130791802631679</v>
       </c>
       <c r="F25" t="n">
-        <v>4.549048618996948</v>
+        <v>4.539307383787654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>1.533106319418355e-05</v>
+        <v>14252634175646.26</v>
       </c>
       <c r="C26" t="n">
-        <v>7.238265576976804e-07</v>
+        <v>672984000308.0503</v>
       </c>
       <c r="D26" t="n">
-        <v>61.56857621568817</v>
+        <v>61.52477364673389</v>
       </c>
       <c r="E26" t="n">
-        <v>2.159624305301625e-11</v>
+        <v>2.204406534495064e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>10.26142936928136</v>
+        <v>10.25412894112232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>2.054862290924855e-05</v>
+        <v>19089689431629.01</v>
       </c>
       <c r="C27" t="n">
-        <v>8.869961504394999e-07</v>
+        <v>823742529042.92</v>
       </c>
       <c r="D27" t="n">
-        <v>2.320583527468234</v>
+        <v>2.325374744954942</v>
       </c>
       <c r="E27" t="n">
-        <v>0.887982109793347</v>
+        <v>0.8874762992114252</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3867639212447056</v>
+        <v>0.3875624574924903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>1.895177269779686e-05</v>
+        <v>17606686338317.33</v>
       </c>
       <c r="C28" t="n">
-        <v>8.476275932225775e-07</v>
+        <v>787838241254.325</v>
       </c>
       <c r="D28" t="n">
-        <v>34.28831607080905</v>
+        <v>34.2393424860597</v>
       </c>
       <c r="E28" t="n">
-        <v>5.917627352462776e-06</v>
+        <v>6.048011894325534e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>5.714719345134842</v>
+        <v>5.70655708100995</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>1.973120663600069e-05</v>
+        <v>18331881327524.38</v>
       </c>
       <c r="C29" t="n">
-        <v>8.409216604057622e-07</v>
+        <v>781374714285.9585</v>
       </c>
       <c r="D29" t="n">
-        <v>55.29834621503098</v>
+        <v>55.32901505868242</v>
       </c>
       <c r="E29" t="n">
-        <v>4.03496417265561e-10</v>
+        <v>3.977811960075886e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>9.216391035838496</v>
+        <v>9.221502509780404</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>1.91463927059541e-05</v>
+        <v>17786811207181.76</v>
       </c>
       <c r="C30" t="n">
-        <v>8.132108858260115e-07</v>
+        <v>756026757824.9222</v>
       </c>
       <c r="D30" t="n">
-        <v>22.63394979889905</v>
+        <v>22.55286740111095</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0009288202497738257</v>
+        <v>0.0009609341792346451</v>
       </c>
       <c r="F30" t="n">
-        <v>3.772324966483174</v>
+        <v>3.758811233518492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.606516628987352e-05</v>
+        <v>14928435309183.83</v>
       </c>
       <c r="C31" t="n">
-        <v>7.457085344009456e-07</v>
+        <v>693283072442.8981</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5277244372609</v>
+        <v>66.45248833199423</v>
       </c>
       <c r="E31" t="n">
-        <v>2.102328567983219e-12</v>
+        <v>2.178133907792386e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>11.08795407287682</v>
+        <v>11.07541472199904</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>1.87862977721209e-05</v>
+        <v>17458116224110.77</v>
       </c>
       <c r="C32" t="n">
-        <v>8.3231375880604e-07</v>
+        <v>772820271142.9861</v>
       </c>
       <c r="D32" t="n">
-        <v>18.11696951894404</v>
+        <v>18.09535577844505</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0059464352710998</v>
+        <v>0.005998262829861292</v>
       </c>
       <c r="F32" t="n">
-        <v>3.019494919824007</v>
+        <v>3.015892629740842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>1.778330486952327e-05</v>
+        <v>16507847328978.63</v>
       </c>
       <c r="C33" t="n">
-        <v>7.644954044043449e-07</v>
+        <v>710443069054.1105</v>
       </c>
       <c r="D33" t="n">
-        <v>31.08007466717945</v>
+        <v>31.13232955994011</v>
       </c>
       <c r="E33" t="n">
-        <v>2.447231813032688e-05</v>
+        <v>2.391630599593078e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>5.180012444529908</v>
+        <v>5.188721593323352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>1.887049629109149e-05</v>
+        <v>17532348924101.61</v>
       </c>
       <c r="C34" t="n">
-        <v>8.293976676216141e-07</v>
+        <v>770300352369.5627</v>
       </c>
       <c r="D34" t="n">
-        <v>9.964862318160302</v>
+        <v>9.949491194674575</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1261395639082588</v>
+        <v>0.1267952332818551</v>
       </c>
       <c r="F34" t="n">
-        <v>1.66081038636005</v>
+        <v>1.658248532445763</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>1.857233448170614e-05</v>
+        <v>17260555883685.53</v>
       </c>
       <c r="C35" t="n">
-        <v>7.730170931682702e-07</v>
+        <v>718206543962.3395</v>
       </c>
       <c r="D35" t="n">
-        <v>15.80878779697165</v>
+        <v>15.81291041999468</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01481791976845175</v>
+        <v>0.01479416877340889</v>
       </c>
       <c r="F35" t="n">
-        <v>2.634797966161942</v>
+        <v>2.635485069999113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.76498610519683e-05</v>
+        <v>16395617362726.6</v>
       </c>
       <c r="C36" t="n">
-        <v>7.155936649299657e-07</v>
+        <v>664354930353.8982</v>
       </c>
       <c r="D36" t="n">
-        <v>8.931337580289826</v>
+        <v>8.937069309371076</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1774765811782829</v>
+        <v>0.1771483047120248</v>
       </c>
       <c r="F36" t="n">
-        <v>1.488556263381638</v>
+        <v>1.489511551561846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>1.143060474368656e-05</v>
+        <v>10619794345234.12</v>
       </c>
       <c r="C37" t="n">
-        <v>5.007087800349582e-07</v>
+        <v>464944706533.746</v>
       </c>
       <c r="D37" t="n">
-        <v>67.59350376199141</v>
+        <v>67.54609592107045</v>
       </c>
       <c r="E37" t="n">
-        <v>1.272515557851358e-12</v>
+        <v>1.301266285011751e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>11.2655839603319</v>
+        <v>11.25768265351174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>1.199179368452637e-05</v>
+        <v>11136399756670.73</v>
       </c>
       <c r="C38" t="n">
-        <v>4.657605011700609e-07</v>
+        <v>432616455145.7595</v>
       </c>
       <c r="D38" t="n">
-        <v>34.46169587087687</v>
+        <v>34.37678733505673</v>
       </c>
       <c r="E38" t="n">
-        <v>5.478053720780089e-06</v>
+        <v>5.689118548356721e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>5.743615978479478</v>
+        <v>5.729464555842789</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>1.017255981631709e-05</v>
+        <v>9435219912528.389</v>
       </c>
       <c r="C39" t="n">
-        <v>3.785941796482672e-07</v>
+        <v>350662427581.7296</v>
       </c>
       <c r="D39" t="n">
-        <v>116.6466284697127</v>
+        <v>117.8586306788558</v>
       </c>
       <c r="E39" t="n">
-        <v>8.242342655716298e-23</v>
+        <v>4.588735948573628e-23</v>
       </c>
       <c r="F39" t="n">
-        <v>19.44110474495212</v>
+        <v>19.64310511314264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>1.204895039113532e-05</v>
+        <v>11191321886931.64</v>
       </c>
       <c r="C40" t="n">
-        <v>4.811596002356132e-07</v>
+        <v>447153862981.1967</v>
       </c>
       <c r="D40" t="n">
-        <v>17.66268682970507</v>
+        <v>17.67066183714838</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007132834860179038</v>
+        <v>0.007110154429473598</v>
       </c>
       <c r="F40" t="n">
-        <v>2.943781138284178</v>
+        <v>2.945110306191397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>1.75651672271995e-05</v>
+        <v>16318914970456.15</v>
       </c>
       <c r="C41" t="n">
-        <v>5.057067539148315e-07</v>
+        <v>469701112824.5068</v>
       </c>
       <c r="D41" t="n">
-        <v>9.353032194944523</v>
+        <v>9.368002714249339</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1546755104870619</v>
+        <v>0.1539149980886126</v>
       </c>
       <c r="F41" t="n">
-        <v>1.558838699157421</v>
+        <v>1.561333785708223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>1.810081457895677e-05</v>
+        <v>16820323840103.61</v>
       </c>
       <c r="C42" t="n">
-        <v>4.679606956127336e-07</v>
+        <v>434455408814.8331</v>
       </c>
       <c r="D42" t="n">
-        <v>19.39881939321178</v>
+        <v>19.36994133555856</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003540517713759412</v>
+        <v>0.003582405694464591</v>
       </c>
       <c r="F42" t="n">
-        <v>3.233136565535297</v>
+        <v>3.228323555926427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.684794007213958e-05</v>
+        <v>15651314187956.83</v>
       </c>
       <c r="C43" t="n">
-        <v>4.188880303406928e-07</v>
+        <v>388816461873.0096</v>
       </c>
       <c r="D43" t="n">
-        <v>10.02585383914715</v>
+        <v>10.01968684638811</v>
       </c>
       <c r="E43" t="n">
-        <v>0.123567472058435</v>
+        <v>0.1238254081626678</v>
       </c>
       <c r="F43" t="n">
-        <v>1.670975639857859</v>
+        <v>1.669947807731352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>1.515515953717117e-05</v>
+        <v>14074755885248.11</v>
       </c>
       <c r="C44" t="n">
-        <v>3.696568356843234e-07</v>
+        <v>343176363917.9892</v>
       </c>
       <c r="D44" t="n">
-        <v>11.32385528176779</v>
+        <v>11.31700361612052</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07886836054390059</v>
+        <v>0.07905943473880506</v>
       </c>
       <c r="F44" t="n">
-        <v>1.887309213627965</v>
+        <v>1.886167269353421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1.600418761051873e-05</v>
+        <v>14871811661398.39</v>
       </c>
       <c r="C45" t="n">
-        <v>3.844646598430757e-07</v>
+        <v>357555087417.8966</v>
       </c>
       <c r="D45" t="n">
-        <v>8.434235969849892</v>
+        <v>8.425926836319805</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2079840779252791</v>
+        <v>0.2085292460128031</v>
       </c>
       <c r="F45" t="n">
-        <v>1.405705994974982</v>
+        <v>1.404321139386634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.535217807072023e-05</v>
+        <v>14262918488176.58</v>
       </c>
       <c r="C46" t="n">
-        <v>3.595595948945064e-07</v>
+        <v>333758779144.4459</v>
       </c>
       <c r="D46" t="n">
-        <v>4.157322746811957</v>
+        <v>4.191814862657553</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6553958604078887</v>
+        <v>0.6507365189267451</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6928871244686595</v>
+        <v>0.6986358104429256</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>1.04764184219264e-05</v>
+        <v>9732190993240.488</v>
       </c>
       <c r="C47" t="n">
-        <v>2.650691131726147e-07</v>
+        <v>246011723022.8686</v>
       </c>
       <c r="D47" t="n">
-        <v>15.00375947460878</v>
+        <v>15.12283233747649</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02022749495177059</v>
+        <v>0.01932257113340628</v>
       </c>
       <c r="F47" t="n">
-        <v>2.500626579101463</v>
+        <v>2.520472056246081</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>1.410955664952654e-05</v>
+        <v>13107363554100.43</v>
       </c>
       <c r="C48" t="n">
-        <v>3.452212157849992e-07</v>
+        <v>320283814164.5105</v>
       </c>
       <c r="D48" t="n">
-        <v>22.05846321599638</v>
+        <v>22.08669108349274</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001181686630078452</v>
+        <v>0.001167842447981093</v>
       </c>
       <c r="F48" t="n">
-        <v>3.676410535999396</v>
+        <v>3.681115180582123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.090106431047802e-05</v>
+        <v>19415165145105.79</v>
       </c>
       <c r="C49" t="n">
-        <v>4.902906027502251e-07</v>
+        <v>454928192886.364</v>
       </c>
       <c r="D49" t="n">
-        <v>10.67580052569859</v>
+        <v>10.69861420546559</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0989280570457243</v>
+        <v>0.09814982879038583</v>
       </c>
       <c r="F49" t="n">
-        <v>1.779300087616432</v>
+        <v>1.783102367577599</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>3.074888707087491e-05</v>
+        <v>28561200521083.36</v>
       </c>
       <c r="C50" t="n">
-        <v>7.138379567297592e-07</v>
+        <v>662742886939.0239</v>
       </c>
       <c r="D50" t="n">
-        <v>14.38790252437968</v>
+        <v>14.41717217150378</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02559081597487607</v>
+        <v>0.02530786828747943</v>
       </c>
       <c r="F50" t="n">
-        <v>2.397983754063281</v>
+        <v>2.402862028583963</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>4.093841472068449e-05</v>
+        <v>38032060125289.52</v>
       </c>
       <c r="C51" t="n">
-        <v>9.046259514011271e-07</v>
+        <v>840688398362.245</v>
       </c>
       <c r="D51" t="n">
-        <v>4.160257199742222</v>
+        <v>4.151217839441347</v>
       </c>
       <c r="E51" t="n">
-        <v>0.654999334694528</v>
+        <v>0.6562208722567413</v>
       </c>
       <c r="F51" t="n">
-        <v>0.693376199957037</v>
+        <v>0.6918696399068912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>8.809954858524358e-05</v>
+        <v>81842514529450.48</v>
       </c>
       <c r="C52" t="n">
-        <v>1.99029247137864e-06</v>
+        <v>1849551838070.073</v>
       </c>
       <c r="D52" t="n">
-        <v>6.474503012955857</v>
+        <v>6.469151047470487</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3721836547559311</v>
+        <v>0.3727345991077267</v>
       </c>
       <c r="F52" t="n">
-        <v>1.079083835492643</v>
+        <v>1.078191841245081</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001468798063037029</v>
+        <v>136445596254718.6</v>
       </c>
       <c r="C53" t="n">
-        <v>3.208088549549716e-06</v>
+        <v>2980809299048.057</v>
       </c>
       <c r="D53" t="n">
-        <v>2.911145748577851</v>
+        <v>2.910702348123511</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8199135481729826</v>
+        <v>0.8199683302851367</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4851909580963085</v>
+        <v>0.4851170580205852</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004101652312256703</v>
+        <v>381034145355366.8</v>
       </c>
       <c r="C54" t="n">
-        <v>8.937791593940712e-06</v>
+        <v>8303267870875.873</v>
       </c>
       <c r="D54" t="n">
-        <v>7.763262982819835</v>
+        <v>7.760203572219488</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2559654146801346</v>
+        <v>0.2562030966575089</v>
       </c>
       <c r="F54" t="n">
-        <v>1.293877163803306</v>
+        <v>1.293367262036581</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006610259365144183</v>
+        <v>614075978178019.2</v>
       </c>
       <c r="C55" t="n">
-        <v>1.402066205213031e-05</v>
+        <v>13024818191543.94</v>
       </c>
       <c r="D55" t="n">
-        <v>5.163161686415494</v>
+        <v>5.16336807509632</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5230633709802965</v>
+        <v>0.5230373558515182</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8605269477359156</v>
+        <v>0.8605613458493866</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007248671022647572</v>
+        <v>673380554580380.4</v>
       </c>
       <c r="C56" t="n">
-        <v>1.505591963465171e-05</v>
+        <v>13985739354575.6</v>
       </c>
       <c r="D56" t="n">
-        <v>4.028287555283685</v>
+        <v>4.02856992056885</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6728481754709033</v>
+        <v>0.6728099634061968</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6713812592139474</v>
+        <v>0.6714283200948082</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005910582835855155</v>
+        <v>549074642749284.9</v>
       </c>
       <c r="C57" t="n">
-        <v>1.241240501869201e-05</v>
+        <v>11530951772776.19</v>
       </c>
       <c r="D57" t="n">
-        <v>8.267818027721537</v>
+        <v>8.267180802444109</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2191315682483209</v>
+        <v>0.2191751853366571</v>
       </c>
       <c r="F57" t="n">
-        <v>1.377969671286923</v>
+        <v>1.377863467074018</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000304143856616902</v>
+        <v>282541571118260.8</v>
       </c>
       <c r="C58" t="n">
-        <v>6.384896009938501e-06</v>
+        <v>5932478518302.8</v>
       </c>
       <c r="D58" t="n">
-        <v>5.951933976365862</v>
+        <v>5.947918216848588</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4285959891254134</v>
+        <v>0.4290495763490559</v>
       </c>
       <c r="F58" t="n">
-        <v>0.991988996060977</v>
+        <v>0.9913197028080981</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002336760143756314</v>
+        <v>217078774858830.2</v>
       </c>
       <c r="C59" t="n">
-        <v>4.921932526470296e-06</v>
+        <v>4572395456783.748</v>
       </c>
       <c r="D59" t="n">
-        <v>6.010780673004567</v>
+        <v>6.011791917753343</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4219835059898045</v>
+        <v>0.4218704387247638</v>
       </c>
       <c r="F59" t="n">
-        <v>1.001796778834094</v>
+        <v>1.001965319625557</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002975112589454445</v>
+        <v>276380383616218.7</v>
       </c>
       <c r="C60" t="n">
-        <v>6.192160788380933e-06</v>
+        <v>5752396820251.554</v>
       </c>
       <c r="D60" t="n">
-        <v>9.986153598587585</v>
+        <v>9.984846819534003</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1252363338600844</v>
+        <v>0.1252916049481672</v>
       </c>
       <c r="F60" t="n">
-        <v>1.664358933097931</v>
+        <v>1.664141136589</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001316088256500288</v>
+        <v>122257720250018.7</v>
       </c>
       <c r="C61" t="n">
-        <v>2.770889939170957e-06</v>
+        <v>2574220387017.478</v>
       </c>
       <c r="D61" t="n">
-        <v>8.629927482261941</v>
+        <v>8.623800505851317</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1954851186998303</v>
+        <v>0.195866651995836</v>
       </c>
       <c r="F61" t="n">
-        <v>1.438321247043657</v>
+        <v>1.437300084308553</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>9.415331321987566e-05</v>
+        <v>87465924580292.86</v>
       </c>
       <c r="C62" t="n">
-        <v>1.945134826107627e-06</v>
+        <v>1806788502250.767</v>
       </c>
       <c r="D62" t="n">
-        <v>2.256563535076138</v>
+        <v>2.253379466964903</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8946555534411536</v>
+        <v>0.8949832588405754</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3760939225126896</v>
+        <v>0.3755632444941506</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>5.439528471537797e-05</v>
+        <v>50530749299445.73</v>
       </c>
       <c r="C63" t="n">
-        <v>1.151238415031639e-06</v>
+        <v>1069501758156.852</v>
       </c>
       <c r="D63" t="n">
-        <v>5.223196683686913</v>
+        <v>5.213338226823486</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5155217861551633</v>
+        <v>0.5167566217540174</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8705327806144855</v>
+        <v>0.8688897044705809</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.885496712189719e-05</v>
+        <v>26807103275444.58</v>
       </c>
       <c r="C64" t="n">
-        <v>6.321528079895637e-07</v>
+        <v>587322737661.2264</v>
       </c>
       <c r="D64" t="n">
-        <v>9.462939433217223</v>
+        <v>9.437222889210091</v>
       </c>
       <c r="E64" t="n">
-        <v>0.149167502327887</v>
+        <v>0.1504407279644446</v>
       </c>
       <c r="F64" t="n">
-        <v>1.57715657220287</v>
+        <v>1.572870481535015</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>2.224040346289247e-05</v>
+        <v>20659322982942.06</v>
       </c>
       <c r="C65" t="n">
-        <v>5.980095699816741e-07</v>
+        <v>555008765802.6812</v>
       </c>
       <c r="D65" t="n">
-        <v>8.134114583012575</v>
+        <v>8.128024131603709</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2284415121215752</v>
+        <v>0.2288732156290654</v>
       </c>
       <c r="F65" t="n">
-        <v>1.355685763835429</v>
+        <v>1.354670688600618</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>2.281737715681579e-05</v>
+        <v>21200811928591.52</v>
       </c>
       <c r="C66" t="n">
-        <v>8.135904676796422e-07</v>
+        <v>755698352606.6112</v>
       </c>
       <c r="D66" t="n">
-        <v>7.7909891022683</v>
+        <v>7.787595523137174</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2538194316665754</v>
+        <v>0.2540813166960323</v>
       </c>
       <c r="F66" t="n">
-        <v>1.298498183711383</v>
+        <v>1.297932587189529</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>2.693718265754337e-05</v>
+        <v>25025336739294.94</v>
       </c>
       <c r="C67" t="n">
-        <v>1.018213374779458e-06</v>
+        <v>945542749298.8795</v>
       </c>
       <c r="D67" t="n">
-        <v>5.607350202911307</v>
+        <v>5.597946443002268</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4685780898023935</v>
+        <v>0.4696984781431706</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9345583671518845</v>
+        <v>0.9329910738337114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.595209495029354e-05</v>
+        <v>33398486785830.92</v>
       </c>
       <c r="C68" t="n">
-        <v>1.537099570574538e-06</v>
+        <v>1427399889122.871</v>
       </c>
       <c r="D68" t="n">
-        <v>15.15079997243952</v>
+        <v>15.14714569579255</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01911570530371737</v>
+        <v>0.01914261384714822</v>
       </c>
       <c r="F68" t="n">
-        <v>2.52513332873992</v>
+        <v>2.524524282632092</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.386620052838281e-05</v>
+        <v>31458401000405.66</v>
       </c>
       <c r="C69" t="n">
-        <v>1.311827409001704e-06</v>
+        <v>1219460999365.171</v>
       </c>
       <c r="D69" t="n">
-        <v>15.40528889687859</v>
+        <v>15.3919138672901</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01732819381343054</v>
+        <v>0.01741801399604834</v>
       </c>
       <c r="F69" t="n">
-        <v>2.567548149479765</v>
+        <v>2.565318977881684</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>7.101258103677862e-05</v>
+        <v>65971329840717.17</v>
       </c>
       <c r="C70" t="n">
-        <v>2.666273234388325e-06</v>
+        <v>2476178661076.082</v>
       </c>
       <c r="D70" t="n">
-        <v>14.60563798719211</v>
+        <v>14.614639206488</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0235560132658679</v>
+        <v>0.02347530111425173</v>
       </c>
       <c r="F70" t="n">
-        <v>2.434272997865352</v>
+        <v>2.435773201081333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001097935052612522</v>
+        <v>101994434447434.2</v>
       </c>
       <c r="C71" t="n">
-        <v>3.957341905839493e-06</v>
+        <v>3676464421970.798</v>
       </c>
       <c r="D71" t="n">
-        <v>10.38508343740413</v>
+        <v>10.38356309241276</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1093441965912872</v>
+        <v>0.1094011672735805</v>
       </c>
       <c r="F71" t="n">
-        <v>1.730847239567355</v>
+        <v>1.730593848735461</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002598525738366205</v>
+        <v>241395986085252.8</v>
       </c>
       <c r="C72" t="n">
-        <v>5.883292179870965e-06</v>
+        <v>5465873192248.799</v>
       </c>
       <c r="D72" t="n">
-        <v>5.780603915096492</v>
+        <v>5.781729823182413</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4482104319551371</v>
+        <v>0.4480797999690399</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9634339858494153</v>
+        <v>0.9636216371970688</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0006605207066002613</v>
+        <v>613607595945647.6</v>
       </c>
       <c r="C73" t="n">
-        <v>1.465790095665383e-05</v>
+        <v>13616957580930.44</v>
       </c>
       <c r="D73" t="n">
-        <v>7.530762093429978</v>
+        <v>7.530930899373536</v>
       </c>
       <c r="E73" t="n">
-        <v>0.274534166927739</v>
+        <v>0.2745203104514449</v>
       </c>
       <c r="F73" t="n">
-        <v>1.255127015571663</v>
+        <v>1.255155149895589</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006521101761697013</v>
+        <v>605787292045312.1</v>
       </c>
       <c r="C74" t="n">
-        <v>1.454777849985162e-05</v>
+        <v>13514034031392.74</v>
       </c>
       <c r="D74" t="n">
-        <v>5.920507019627827</v>
+        <v>5.921227330163622</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4321536778851423</v>
+        <v>0.4320719311436777</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9867511699379712</v>
+        <v>0.9868712216939369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0003513522575672329</v>
+        <v>326395149255742.9</v>
       </c>
       <c r="C75" t="n">
-        <v>8.596331696843912e-06</v>
+        <v>7986490751114.892</v>
       </c>
       <c r="D75" t="n">
-        <v>3.112465698221593</v>
+        <v>3.111734158050318</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7946046365505356</v>
+        <v>0.7946980568702652</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5187442830369322</v>
+        <v>0.5186223596750531</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.000186639760270205</v>
+        <v>173385729243994.3</v>
       </c>
       <c r="C76" t="n">
-        <v>4.533628669688229e-06</v>
+        <v>4211897163535.749</v>
       </c>
       <c r="D76" t="n">
-        <v>8.021080958683308</v>
+        <v>8.01484333037712</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2365629268600838</v>
+        <v>0.2370178616785694</v>
       </c>
       <c r="F76" t="n">
-        <v>1.336846826447218</v>
+        <v>1.33580722172952</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>9.39023672258663e-05</v>
+        <v>87237177217143.67</v>
       </c>
       <c r="C77" t="n">
-        <v>2.6460686366177e-06</v>
+        <v>2459065499369.544</v>
       </c>
       <c r="D77" t="n">
-        <v>8.431718385605066</v>
+        <v>8.421207380313005</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2081491327246231</v>
+        <v>0.2088394230901942</v>
       </c>
       <c r="F77" t="n">
-        <v>1.405286397600844</v>
+        <v>1.403534563385501</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>9.237175580215795e-05</v>
+        <v>85809253438805.48</v>
       </c>
       <c r="C78" t="n">
-        <v>2.984438315909629e-06</v>
+        <v>2772022306619.317</v>
       </c>
       <c r="D78" t="n">
-        <v>5.998688228380042</v>
+        <v>6.000209969681661</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4233370430314378</v>
+        <v>0.4231665605448904</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9997813713966736</v>
+        <v>1.000034994946944</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>6.204220351563292e-05</v>
+        <v>57626782852545.2</v>
       </c>
       <c r="C79" t="n">
-        <v>2.646283821707724e-06</v>
+        <v>2457922038125.954</v>
       </c>
       <c r="D79" t="n">
-        <v>23.26996988705616</v>
+        <v>23.28977430371264</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0007109214728650862</v>
+        <v>0.0007050134189845458</v>
       </c>
       <c r="F79" t="n">
-        <v>3.878328314509359</v>
+        <v>3.881629050618773</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>5.934355746234037e-05</v>
+        <v>55132742311677.28</v>
       </c>
       <c r="C80" t="n">
-        <v>2.12364064001252e-06</v>
+        <v>1972847416735.966</v>
       </c>
       <c r="D80" t="n">
-        <v>7.518561229126578</v>
+        <v>7.51552512261195</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2755371303674348</v>
+        <v>0.275787156802093</v>
       </c>
       <c r="F80" t="n">
-        <v>1.253093538187763</v>
+        <v>1.252587520435325</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>3.983521961917508e-05</v>
+        <v>37010239390599.32</v>
       </c>
       <c r="C81" t="n">
-        <v>1.46467998080835e-06</v>
+        <v>1360537818958.031</v>
       </c>
       <c r="D81" t="n">
-        <v>9.022403203204924</v>
+        <v>9.02908591122512</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1723220453989062</v>
+        <v>0.1719488957007048</v>
       </c>
       <c r="F81" t="n">
-        <v>1.503733867200821</v>
+        <v>1.504847651870853</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>4.390789491898238e-05</v>
+        <v>40788445682268.66</v>
       </c>
       <c r="C82" t="n">
-        <v>1.358788138262381e-06</v>
+        <v>1262006200567.85</v>
       </c>
       <c r="D82" t="n">
-        <v>3.329343749259293</v>
+        <v>3.336128105173616</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7665186840374306</v>
+        <v>0.765628876881267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5548906248765488</v>
+        <v>0.5560213508622693</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>9.421827891193799e-05</v>
+        <v>87526323109788.64</v>
       </c>
       <c r="C83" t="n">
-        <v>2.290179456625193e-06</v>
+        <v>2127061017374.649</v>
       </c>
       <c r="D83" t="n">
-        <v>5.084212054504741</v>
+        <v>5.090965263022696</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5330586191902806</v>
+        <v>0.5322002813416269</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8473686757507902</v>
+        <v>0.8484942105037826</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>6.337665950422711e-05</v>
+        <v>58874833722958.58</v>
       </c>
       <c r="C84" t="n">
-        <v>1.473296340056983e-06</v>
+        <v>1368706340202.122</v>
       </c>
       <c r="D84" t="n">
-        <v>3.527024651925756</v>
+        <v>3.526261759226476</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7403707811071538</v>
+        <v>0.740472468164618</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5878374419876259</v>
+        <v>0.5877102932044127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>2.889724872824482e-05</v>
+        <v>26843039627355.43</v>
       </c>
       <c r="C85" t="n">
-        <v>7.241075076620276e-07</v>
+        <v>671869117912.246</v>
       </c>
       <c r="D85" t="n">
-        <v>6.655495646951235</v>
+        <v>6.671797084308656</v>
       </c>
       <c r="E85" t="n">
-        <v>0.353884378718873</v>
+        <v>0.352268021482081</v>
       </c>
       <c r="F85" t="n">
-        <v>1.109249274491872</v>
+        <v>1.111966180718109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40336020557038e-05</v>
+        <v>22329503941906.73</v>
       </c>
       <c r="C86" t="n">
-        <v>5.963650082407772e-07</v>
+        <v>554005740586.4757</v>
       </c>
       <c r="D86" t="n">
-        <v>5.557881782988626</v>
+        <v>5.541477254736654</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4744886950447925</v>
+        <v>0.4764578584436071</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9263136304981043</v>
+        <v>0.9235795424561091</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>2.307047552497661e-05</v>
+        <v>21431880111668.46</v>
       </c>
       <c r="C87" t="n">
-        <v>5.248221231279336e-07</v>
+        <v>487472650697.2808</v>
       </c>
       <c r="D87" t="n">
-        <v>9.780823869101479</v>
+        <v>9.796701079728793</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1341906422351251</v>
+        <v>0.1334785973938813</v>
       </c>
       <c r="F87" t="n">
-        <v>1.630137311516913</v>
+        <v>1.632783513288132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>2.914188043080519e-05</v>
+        <v>27072994590969.11</v>
       </c>
       <c r="C88" t="n">
-        <v>6.704916382386113e-07</v>
+        <v>622766056599.5157</v>
       </c>
       <c r="D88" t="n">
-        <v>7.42246618375063</v>
+        <v>7.396181123954012</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2835370115104932</v>
+        <v>0.2857563939033723</v>
       </c>
       <c r="F88" t="n">
-        <v>1.237077697291772</v>
+        <v>1.232696853992335</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>5.250331501509304e-05</v>
+        <v>48772879793159.41</v>
       </c>
       <c r="C89" t="n">
-        <v>1.151255515193564e-06</v>
+        <v>1069208434851.507</v>
       </c>
       <c r="D89" t="n">
-        <v>7.92593475313001</v>
+        <v>7.921428756493365</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2435799050844564</v>
+        <v>0.2439163541363039</v>
       </c>
       <c r="F89" t="n">
-        <v>1.320989125521668</v>
+        <v>1.320238126082227</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001221406700568182</v>
+        <v>113462770253460.6</v>
       </c>
       <c r="C90" t="n">
-        <v>2.588931694663205e-06</v>
+        <v>2404567178285.883</v>
       </c>
       <c r="D90" t="n">
-        <v>4.554412051479866</v>
+        <v>4.552542608154656</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6020922331211691</v>
+        <v>0.6023408345574632</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7590686752466443</v>
+        <v>0.7587571013591093</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001358598958155998</v>
+        <v>126208146664299.9</v>
       </c>
       <c r="C91" t="n">
-        <v>2.855950497151282e-06</v>
+        <v>2653323078888.008</v>
       </c>
       <c r="D91" t="n">
-        <v>1.891003271603767</v>
+        <v>1.890032566817076</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9294449688947508</v>
+        <v>0.9295292262902686</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3151672119339612</v>
+        <v>0.315005427802846</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001609909872319234</v>
+        <v>149553852244871.2</v>
       </c>
       <c r="C92" t="n">
-        <v>3.384285479292844e-06</v>
+        <v>3144351985579.99</v>
       </c>
       <c r="D92" t="n">
-        <v>9.500430698429721</v>
+        <v>9.501635907422138</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1473281667379617</v>
+        <v>0.147269368962527</v>
       </c>
       <c r="F92" t="n">
-        <v>1.583405116404953</v>
+        <v>1.583605984570356</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001661351518366454</v>
+        <v>154332817700077.4</v>
       </c>
       <c r="C93" t="n">
-        <v>3.605297364387189e-06</v>
+        <v>3349412832190.394</v>
       </c>
       <c r="D93" t="n">
-        <v>3.823583736860543</v>
+        <v>3.825962809826886</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7005359394044183</v>
+        <v>0.7002146028047047</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6372639561434239</v>
+        <v>0.637660468304481</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001464728599654084</v>
+        <v>136070520078919.3</v>
       </c>
       <c r="C94" t="n">
-        <v>3.660666289698547e-06</v>
+        <v>3400941524258.903</v>
       </c>
       <c r="D94" t="n">
-        <v>2.178121241319855</v>
+        <v>2.176985375968935</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9026094280145214</v>
+        <v>0.9027227449345715</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3630202068866424</v>
+        <v>0.3628308959948225</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001309096557059105</v>
+        <v>121612369828139</v>
       </c>
       <c r="C95" t="n">
-        <v>3.277211330120656e-06</v>
+        <v>3044645272968.555</v>
       </c>
       <c r="D95" t="n">
-        <v>4.673167276414989</v>
+        <v>4.670402891344374</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5863613254288196</v>
+        <v>0.5867260617508316</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7788612127358315</v>
+        <v>0.7784004818907291</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>9.738381409938351e-05</v>
+        <v>90466119439735.91</v>
       </c>
       <c r="C96" t="n">
-        <v>2.404221522289378e-06</v>
+        <v>2232842813814.836</v>
       </c>
       <c r="D96" t="n">
-        <v>1.711308882551392</v>
+        <v>1.711130925178187</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9442448667763146</v>
+        <v>0.944258709481483</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2852181470918986</v>
+        <v>0.2851884875296978</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>8.921432190621442e-05</v>
+        <v>82878854063690.42</v>
       </c>
       <c r="C97" t="n">
-        <v>2.136439269152772e-06</v>
+        <v>1984971152938.365</v>
       </c>
       <c r="D97" t="n">
-        <v>2.920786917766854</v>
+        <v>2.921398356131138</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8187212624296308</v>
+        <v>0.8186455763249439</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4867978196278089</v>
+        <v>0.4868997260218563</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.481837188599574e-05</v>
+        <v>78795857229699.83</v>
       </c>
       <c r="C98" t="n">
-        <v>1.886114054791852e-06</v>
+        <v>1751358018779.015</v>
       </c>
       <c r="D98" t="n">
-        <v>9.501689647218319</v>
+        <v>9.513570656497164</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1472667476705307</v>
+        <v>0.1466882222945578</v>
       </c>
       <c r="F98" t="n">
-        <v>1.583614941203053</v>
+        <v>1.585595109416194</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>8.376556989939498e-05</v>
+        <v>77817143345703.03</v>
       </c>
       <c r="C99" t="n">
-        <v>1.773972526622792e-06</v>
+        <v>1648344759820.865</v>
       </c>
       <c r="D99" t="n">
-        <v>2.815818667828778</v>
+        <v>2.814512222103998</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8315831058473002</v>
+        <v>0.8317414761766492</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4693031113047963</v>
+        <v>0.4690853703506664</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>8.334277262857511e-05</v>
+        <v>77422854810624.73</v>
       </c>
       <c r="C100" t="n">
-        <v>1.711353520379357e-06</v>
+        <v>1589606449411.631</v>
       </c>
       <c r="D100" t="n">
-        <v>11.54969478338309</v>
+        <v>11.54474830024112</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07280230508611162</v>
+        <v>0.07293044495908306</v>
       </c>
       <c r="F100" t="n">
-        <v>1.924949130563849</v>
+        <v>1.924124716706853</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>8.305318510806175e-05</v>
+        <v>77153182243801.02</v>
       </c>
       <c r="C101" t="n">
-        <v>1.6479914360272e-06</v>
+        <v>1531051337086.715</v>
       </c>
       <c r="D101" t="n">
-        <v>5.032131599551676</v>
+        <v>5.031349666419498</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5396986575313569</v>
+        <v>0.5397986247318163</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8386885999252792</v>
+        <v>0.838558277736583</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>9.761669998372832e-05</v>
+        <v>90685686094799.03</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9122283320453e-06</v>
+        <v>1776980087269.966</v>
       </c>
       <c r="D102" t="n">
-        <v>7.141054732188703</v>
+        <v>7.143292692352483</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3079994111182504</v>
+        <v>0.3077987376892599</v>
       </c>
       <c r="F102" t="n">
-        <v>1.190175788698117</v>
+        <v>1.190548782058747</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001313474846102803</v>
+        <v>122017096890747.3</v>
       </c>
       <c r="C103" t="n">
-        <v>2.564646634847713e-06</v>
+        <v>2381743398653.82</v>
       </c>
       <c r="D103" t="n">
-        <v>9.063132984116548</v>
+        <v>9.074026153543908</v>
       </c>
       <c r="E103" t="n">
-        <v>0.170058525402902</v>
+        <v>0.1694574957566944</v>
       </c>
       <c r="F103" t="n">
-        <v>1.510522164019425</v>
+        <v>1.512337692257318</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002145611539367258</v>
+        <v>199320075155590.1</v>
       </c>
       <c r="C104" t="n">
-        <v>4.118244388450633e-06</v>
+        <v>3826309475087.651</v>
       </c>
       <c r="D104" t="n">
-        <v>7.058891288899194</v>
+        <v>7.057139258848634</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3154353098971862</v>
+        <v>0.3155953239823753</v>
       </c>
       <c r="F104" t="n">
-        <v>1.176481881483199</v>
+        <v>1.176189876474772</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003267467117402817</v>
+        <v>303534662901295.9</v>
       </c>
       <c r="C105" t="n">
-        <v>6.325593098259867e-06</v>
+        <v>5876351180985.644</v>
       </c>
       <c r="D105" t="n">
-        <v>4.302951284679257</v>
+        <v>4.30326704803465</v>
       </c>
       <c r="E105" t="n">
-        <v>0.635751848804933</v>
+        <v>0.6357093478987115</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7171585474465428</v>
+        <v>0.7172111746724417</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004334961299964236</v>
+        <v>402707143675530.6</v>
       </c>
       <c r="C106" t="n">
-        <v>8.337175730744087e-06</v>
+        <v>7745055349164.62</v>
       </c>
       <c r="D106" t="n">
-        <v>6.894330901922517</v>
+        <v>6.895343613544829</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3307301400059504</v>
+        <v>0.3306343723265889</v>
       </c>
       <c r="F106" t="n">
-        <v>1.14905515032042</v>
+        <v>1.149223935590805</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0005730856085460401</v>
+        <v>532379762049204.2</v>
       </c>
       <c r="C107" t="n">
-        <v>1.10294931865654e-05</v>
+        <v>10246436753023.44</v>
       </c>
       <c r="D107" t="n">
-        <v>2.431045016978996</v>
+        <v>2.431570823548046</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8761036006110609</v>
+        <v>0.8760459990641589</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4051741694964994</v>
+        <v>0.4052618039246743</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007193183855285412</v>
+        <v>668230265729698</v>
       </c>
       <c r="C108" t="n">
-        <v>1.371741746527122e-05</v>
+        <v>12743096929486.07</v>
       </c>
       <c r="D108" t="n">
-        <v>6.986138478498632</v>
+        <v>6.986004604930218</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3221310093013038</v>
+        <v>0.3221434268180459</v>
       </c>
       <c r="F108" t="n">
-        <v>1.164356413083105</v>
+        <v>1.164334100821703</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0007795055218072065</v>
+        <v>724141094803396.9</v>
       </c>
       <c r="C109" t="n">
-        <v>1.493146276615419e-05</v>
+        <v>13871246936680.44</v>
       </c>
       <c r="D109" t="n">
-        <v>8.018798155376619</v>
+        <v>8.01793029660749</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2367293382148702</v>
+        <v>0.2367926281957866</v>
       </c>
       <c r="F109" t="n">
-        <v>1.336466359229436</v>
+        <v>1.336321716101248</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0009685938529186576</v>
+        <v>899794902531877.5</v>
       </c>
       <c r="C110" t="n">
-        <v>1.843966956081547e-05</v>
+        <v>17130116462404.25</v>
       </c>
       <c r="D110" t="n">
-        <v>7.452390995780519</v>
+        <v>7.45122082674888</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2810266269937962</v>
+        <v>0.2811244661264506</v>
       </c>
       <c r="F110" t="n">
-        <v>1.24206516596342</v>
+        <v>1.24187013779148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001183718323141245</v>
+        <v>1099641486661469</v>
       </c>
       <c r="C111" t="n">
-        <v>2.250236356689283e-05</v>
+        <v>20904306345161.1</v>
       </c>
       <c r="D111" t="n">
-        <v>4.387570209893163</v>
+        <v>4.387413517028034</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6243807010197087</v>
+        <v>0.6244017208949633</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7312617016488606</v>
+        <v>0.731235586171339</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001199355519945456</v>
+        <v>1114166259910009</v>
       </c>
       <c r="C112" t="n">
-        <v>2.287151771062819e-05</v>
+        <v>21247201127850.14</v>
       </c>
       <c r="D112" t="n">
-        <v>5.897035180017154</v>
+        <v>5.896753637145086</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4348226732880759</v>
+        <v>0.4348547490443908</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9828391966695257</v>
+        <v>0.9827922728575144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001339731767012305</v>
+        <v>1244572966810416</v>
       </c>
       <c r="C113" t="n">
-        <v>2.546218463759813e-05</v>
+        <v>23652945659376.37</v>
       </c>
       <c r="D113" t="n">
-        <v>3.397048720957325</v>
+        <v>3.397087132246873</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7576126923016403</v>
+        <v>0.7576076237550925</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5661747868262208</v>
+        <v>0.5661811887078122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001369376700124861</v>
+        <v>1272113865318186</v>
       </c>
       <c r="C114" t="n">
-        <v>2.601995124182695e-05</v>
+        <v>24172220722374.22</v>
       </c>
       <c r="D114" t="n">
-        <v>3.251943329206748</v>
+        <v>3.252017778651748</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7766254471151084</v>
+        <v>0.7766157670393351</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5419905548677914</v>
+        <v>0.5420029631086247</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001362065432666695</v>
+        <v>1265317245677454</v>
       </c>
       <c r="C115" t="n">
-        <v>2.59000730639817e-05</v>
+        <v>24060570670923.49</v>
       </c>
       <c r="D115" t="n">
-        <v>4.220624793883066</v>
+        <v>4.220543672256772</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6468475412328594</v>
+        <v>0.646858487690201</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7034374656471777</v>
+        <v>0.7034239453761287</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001339605983342915</v>
+        <v>1244460571940990</v>
       </c>
       <c r="C116" t="n">
-        <v>2.548469074843087e-05</v>
+        <v>23675319282853.44</v>
       </c>
       <c r="D116" t="n">
-        <v>4.322680413332614</v>
+        <v>4.322693265072667</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6330972863882813</v>
+        <v>0.6330955578063182</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7204467355554356</v>
+        <v>0.7204488775121112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001346498679751748</v>
+        <v>1250855911185760</v>
       </c>
       <c r="C117" t="n">
-        <v>2.56875798699294e-05</v>
+        <v>23863013355728.84</v>
       </c>
       <c r="D117" t="n">
-        <v>6.211986140414319</v>
+        <v>6.211534681277148</v>
       </c>
       <c r="E117" t="n">
-        <v>0.399867258845422</v>
+        <v>0.3999160185676501</v>
       </c>
       <c r="F117" t="n">
-        <v>1.035331023402386</v>
+        <v>1.035255780212858</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001276182253490821</v>
+        <v>1185536456505276</v>
       </c>
       <c r="C118" t="n">
-        <v>2.424363047316334e-05</v>
+        <v>22521439133278.18</v>
       </c>
       <c r="D118" t="n">
-        <v>4.383625806799339</v>
+        <v>4.38368766891052</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6249098749174928</v>
+        <v>0.6249015749026814</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7306043011332232</v>
+        <v>0.7306146114850867</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001239864919257698</v>
+        <v>1151803330835992</v>
       </c>
       <c r="C119" t="n">
-        <v>2.359532639182711e-05</v>
+        <v>21919404371193.88</v>
       </c>
       <c r="D119" t="n">
-        <v>3.2821398320197</v>
+        <v>3.282088501442143</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7726925368266674</v>
+        <v>0.772699233536783</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5470233053366166</v>
+        <v>0.5470147502403572</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001018298745421628</v>
+        <v>945971926901395.8</v>
       </c>
       <c r="C120" t="n">
-        <v>1.937300084865123e-05</v>
+        <v>17996852575600.24</v>
       </c>
       <c r="D120" t="n">
-        <v>2.767380394572314</v>
+        <v>2.767404379865724</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8374253252176496</v>
+        <v>0.8374224475878967</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4612300657620523</v>
+        <v>0.461234063310954</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0009528469706902689</v>
+        <v>885168670282406.4</v>
       </c>
       <c r="C121" t="n">
-        <v>1.82153904391595e-05</v>
+        <v>16922104340237.03</v>
       </c>
       <c r="D121" t="n">
-        <v>7.428182515563591</v>
+        <v>7.427252672927093</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2830561282939509</v>
+        <v>0.2831343076084731</v>
       </c>
       <c r="F121" t="n">
-        <v>1.238030419260599</v>
+        <v>1.237875445487849</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0008001747480146834</v>
+        <v>743337070554463.9</v>
       </c>
       <c r="C122" t="n">
-        <v>1.523942947236366e-05</v>
+        <v>14157214318283.59</v>
       </c>
       <c r="D122" t="n">
-        <v>5.926976876355038</v>
+        <v>5.926455430785143</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4314197680626195</v>
+        <v>0.4314788898009674</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9878294793925063</v>
+        <v>0.9877425717975239</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006188890456955307</v>
+        <v>574930059436338.4</v>
       </c>
       <c r="C123" t="n">
-        <v>1.1773283507815e-05</v>
+        <v>10937671985693.37</v>
       </c>
       <c r="D123" t="n">
-        <v>2.853529728582988</v>
+        <v>2.853188978728444</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8269931546464853</v>
+        <v>0.8270347868622538</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4755882880971646</v>
+        <v>0.4755314964547406</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0005670215063389438</v>
+        <v>526745826499805.4</v>
       </c>
       <c r="C124" t="n">
-        <v>1.088755060163965e-05</v>
+        <v>10113520860085.05</v>
       </c>
       <c r="D124" t="n">
-        <v>4.908277021677219</v>
+        <v>4.908758439595307</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5556300809475978</v>
+        <v>0.5555677889994692</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8180461702795365</v>
+        <v>0.8181264065992179</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0004899483287565591</v>
+        <v>455147955691715.8</v>
       </c>
       <c r="C125" t="n">
-        <v>9.370031622162342e-06</v>
+        <v>8705142517547.357</v>
       </c>
       <c r="D125" t="n">
-        <v>6.599688642262361</v>
+        <v>6.598364473227348</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3594577320914344</v>
+        <v>0.3595907232555071</v>
       </c>
       <c r="F125" t="n">
-        <v>1.099948107043727</v>
+        <v>1.099727412204558</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004627383902563766</v>
+        <v>429873665716929.6</v>
       </c>
       <c r="C126" t="n">
-        <v>8.885142759042366e-06</v>
+        <v>8254185629583.257</v>
       </c>
       <c r="D126" t="n">
-        <v>2.951312766014603</v>
+        <v>2.951570492858627</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8149323364162906</v>
+        <v>0.8149002581666137</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4918854610024337</v>
+        <v>0.4919284154764378</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004637723229311081</v>
+        <v>430829372088625.2</v>
       </c>
       <c r="C127" t="n">
-        <v>8.894757965952599e-06</v>
+        <v>8263225154124.516</v>
       </c>
       <c r="D127" t="n">
-        <v>2.590727608780858</v>
+        <v>2.591097514314479</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8581788195494118</v>
+        <v>0.858136331495064</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4317879347968097</v>
+        <v>0.4318495857190798</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004580353867218255</v>
+        <v>425501826734652.4</v>
       </c>
       <c r="C128" t="n">
-        <v>8.87176046341647e-06</v>
+        <v>8241004544729.13</v>
       </c>
       <c r="D128" t="n">
-        <v>4.150874471569518</v>
+        <v>4.151348741260151</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6562672774492635</v>
+        <v>0.6562031813241385</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6918124119282529</v>
+        <v>0.6918914568766917</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004436511873697488</v>
+        <v>412137496743129.1</v>
       </c>
       <c r="C129" t="n">
-        <v>8.789959612155683e-06</v>
+        <v>8166031899872.237</v>
       </c>
       <c r="D129" t="n">
-        <v>3.208421213645842</v>
+        <v>3.20839482427373</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7822697826384407</v>
+        <v>0.7822731960708805</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5347368689409737</v>
+        <v>0.5347324707122884</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004478949415782672</v>
+        <v>416084165771664.2</v>
       </c>
       <c r="C130" t="n">
-        <v>8.933771895230138e-06</v>
+        <v>8299288638192.312</v>
       </c>
       <c r="D130" t="n">
-        <v>3.00693883352946</v>
+        <v>3.006205799783998</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8079754303536519</v>
+        <v>0.8080675343360878</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5011564722549101</v>
+        <v>0.5010342999639996</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.000455545354241708</v>
+        <v>423188416446685.2</v>
       </c>
       <c r="C131" t="n">
-        <v>9.213181399578187e-06</v>
+        <v>8558932575444.783</v>
       </c>
       <c r="D131" t="n">
-        <v>5.257556389208291</v>
+        <v>5.256564111039511</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5112291915622154</v>
+        <v>0.5113529125084249</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8762593982013819</v>
+        <v>0.8760940185065852</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005072906847570648</v>
+        <v>471257763564422.8</v>
       </c>
       <c r="C132" t="n">
-        <v>1.007665646298569e-05</v>
+        <v>9361009843310.256</v>
       </c>
       <c r="D132" t="n">
-        <v>2.467595673452657</v>
+        <v>2.467144167995939</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8720764526453022</v>
+        <v>0.8721264824700111</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4112659455754429</v>
+        <v>0.4111906946659898</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005480722515059265</v>
+        <v>509141288326804.7</v>
       </c>
       <c r="C133" t="n">
-        <v>1.084429687894383e-05</v>
+        <v>10073905864103.7</v>
       </c>
       <c r="D133" t="n">
-        <v>1.29062731295903</v>
+        <v>1.290777581724983</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9721720061989582</v>
+        <v>0.972163800255335</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2151045521598383</v>
+        <v>0.2151295969541639</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0005761016986044226</v>
+        <v>535181213223560.1</v>
       </c>
       <c r="C134" t="n">
-        <v>1.140168715287191e-05</v>
+        <v>10591978288646.42</v>
       </c>
       <c r="D134" t="n">
-        <v>1.814387561789096</v>
+        <v>1.814294851970279</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9359533351691599</v>
+        <v>0.935961034704044</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3023979269648494</v>
+        <v>0.3023824753283798</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0005868351066836464</v>
+        <v>545156630162871.6</v>
       </c>
       <c r="C135" t="n">
-        <v>1.170842599516196e-05</v>
+        <v>10877004481708.03</v>
       </c>
       <c r="D135" t="n">
-        <v>3.305298815852577</v>
+        <v>3.304998907960922</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7696673726348865</v>
+        <v>0.7697065961041477</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5508831359754295</v>
+        <v>0.5508331513268204</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0005704589393557321</v>
+        <v>529941354428197.6</v>
       </c>
       <c r="C136" t="n">
-        <v>1.131438429686532e-05</v>
+        <v>10511006936450.82</v>
       </c>
       <c r="D136" t="n">
-        <v>2.531128740234724</v>
+        <v>2.531601567417658</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8649677258420965</v>
+        <v>0.864914317009106</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4218547900391206</v>
+        <v>0.4219335945696096</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005504199286285392</v>
+        <v>511322466073214.8</v>
       </c>
       <c r="C137" t="n">
-        <v>1.096992175603181e-05</v>
+        <v>10190187286347.44</v>
       </c>
       <c r="D137" t="n">
-        <v>4.552124159955773</v>
+        <v>4.551652696724204</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6023964843058083</v>
+        <v>0.6024591862560846</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7586873599926288</v>
+        <v>0.7586087827873674</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004677115054330061</v>
+        <v>434492625014742.9</v>
       </c>
       <c r="C138" t="n">
-        <v>9.219095409562903e-06</v>
+        <v>8564266715916.948</v>
       </c>
       <c r="D138" t="n">
-        <v>2.883503595487007</v>
+        <v>2.883351319031149</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8233199616499673</v>
+        <v>0.8233386771967663</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4805839325811678</v>
+        <v>0.4805585531718581</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002926345983482916</v>
+        <v>271849694040195.8</v>
       </c>
       <c r="C139" t="n">
-        <v>5.771899753086794e-06</v>
+        <v>5361651580329.633</v>
       </c>
       <c r="D139" t="n">
-        <v>1.682589484411027</v>
+        <v>1.683047641620361</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9464574606197574</v>
+        <v>0.9464225023667392</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2804315807351712</v>
+        <v>0.2805079402700603</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002488112429563156</v>
+        <v>231138955357659.2</v>
       </c>
       <c r="C140" t="n">
-        <v>4.978505278285695e-06</v>
+        <v>4625390978877.1</v>
       </c>
       <c r="D140" t="n">
-        <v>5.435063791801571</v>
+        <v>5.431351486155954</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4893396115956283</v>
+        <v>0.4897923322279912</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9058439653002618</v>
+        <v>0.905225247692659</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001979415439938498</v>
+        <v>183882410328393.1</v>
       </c>
       <c r="C141" t="n">
-        <v>3.889973833476496e-06</v>
+        <v>3614081065165.985</v>
       </c>
       <c r="D141" t="n">
-        <v>2.833442653379876</v>
+        <v>2.832809032043397</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8294424563507332</v>
+        <v>0.8295195531023962</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4722404422299794</v>
+        <v>0.4721348386738994</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001546949892883554</v>
+        <v>143707700923004.1</v>
       </c>
       <c r="C142" t="n">
-        <v>3.09735650642445e-06</v>
+        <v>2878014894745.434</v>
       </c>
       <c r="D142" t="n">
-        <v>6.793732088365965</v>
+        <v>6.793548306856048</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3403448104959202</v>
+        <v>0.3403625592017786</v>
       </c>
       <c r="F142" t="n">
-        <v>1.132288681394327</v>
+        <v>1.132258051142675</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000144645131971141</v>
+        <v>134372610612737.1</v>
       </c>
       <c r="C143" t="n">
-        <v>2.942676302871851e-06</v>
+        <v>2733560412379.844</v>
       </c>
       <c r="D143" t="n">
-        <v>4.0668845771074</v>
+        <v>4.068558340090479</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6676254095651568</v>
+        <v>0.6673989545770375</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6778140961845667</v>
+        <v>0.6780930566817465</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001392571270358684</v>
+        <v>129365008115312.9</v>
       </c>
       <c r="C144" t="n">
-        <v>3.160826545101691e-06</v>
+        <v>2936097588383.412</v>
       </c>
       <c r="D144" t="n">
-        <v>3.200573808244396</v>
+        <v>3.199860717425589</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7832843432335835</v>
+        <v>0.7833764868893298</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5334289680407327</v>
+        <v>0.5333101195709316</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001457154774744081</v>
+        <v>135367423351980.6</v>
       </c>
       <c r="C145" t="n">
-        <v>3.197686171723838e-06</v>
+        <v>2970788801061.32</v>
       </c>
       <c r="D145" t="n">
-        <v>3.087832274792565</v>
+        <v>3.088042142043459</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7977449938823159</v>
+        <v>0.7977182869154886</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5146387124654276</v>
+        <v>0.5146736903405765</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001395737087467395</v>
+        <v>129659928291462.7</v>
       </c>
       <c r="C146" t="n">
-        <v>3.261693170008683e-06</v>
+        <v>3029462160525.467</v>
       </c>
       <c r="D146" t="n">
-        <v>6.212723832214767</v>
+        <v>6.214563682645886</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3997875930756773</v>
+        <v>0.3995889471609878</v>
       </c>
       <c r="F146" t="n">
-        <v>1.035453972035794</v>
+        <v>1.035760613774314</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001407524731797555</v>
+        <v>130752900201708.7</v>
       </c>
       <c r="C147" t="n">
-        <v>3.400902170329694e-06</v>
+        <v>3159739574852.128</v>
       </c>
       <c r="D147" t="n">
-        <v>15.72671024733204</v>
+        <v>15.72389176898056</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01529846757021838</v>
+        <v>0.01531523192901215</v>
       </c>
       <c r="F147" t="n">
-        <v>2.62111837455534</v>
+        <v>2.620648628163427</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001387210449694926</v>
+        <v>128867850127762.2</v>
       </c>
       <c r="C148" t="n">
-        <v>3.326051215914725e-06</v>
+        <v>3090217648625.411</v>
       </c>
       <c r="D148" t="n">
-        <v>3.08127136672111</v>
+        <v>3.079550696950136</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7985794933185647</v>
+        <v>0.7987982151429828</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5135452277868517</v>
+        <v>0.5132584494916893</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001389296362559365</v>
+        <v>129065374435096.6</v>
       </c>
       <c r="C149" t="n">
-        <v>3.322343039181442e-06</v>
+        <v>3086505618371.997</v>
       </c>
       <c r="D149" t="n">
-        <v>4.805838630720307</v>
+        <v>4.805449641169388</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5689462097298963</v>
+        <v>0.5689970009683698</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8009731051200512</v>
+        <v>0.8009082735282314</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001338045264346363</v>
+        <v>124298966834783</v>
       </c>
       <c r="C150" t="n">
-        <v>3.228442326771707e-06</v>
+        <v>2999209814133.008</v>
       </c>
       <c r="D150" t="n">
-        <v>1.935416075493843</v>
+        <v>1.93606626137826</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9255414502575793</v>
+        <v>0.9254836045322242</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3225693459156405</v>
+        <v>0.32267771022971</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001338946606370092</v>
+        <v>124385417337611.5</v>
       </c>
       <c r="C151" t="n">
-        <v>3.200328766447162e-06</v>
+        <v>2973336762692.35</v>
       </c>
       <c r="D151" t="n">
-        <v>10.77915821226249</v>
+        <v>10.7823372768534</v>
       </c>
       <c r="E151" t="n">
-        <v>0.09544635764544168</v>
+        <v>0.09534104815182798</v>
       </c>
       <c r="F151" t="n">
-        <v>1.796526368710414</v>
+        <v>1.797056212808899</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001312029131989369</v>
+        <v>121885180421718.1</v>
       </c>
       <c r="C152" t="n">
-        <v>3.18474356143591e-06</v>
+        <v>2959103865249.476</v>
       </c>
       <c r="D152" t="n">
-        <v>2.750681231608195</v>
+        <v>2.751712876659121</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8394250527333385</v>
+        <v>0.8393017312163726</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4584468719346992</v>
+        <v>0.4586188127765201</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001230424577653518</v>
+        <v>114306315862718.8</v>
       </c>
       <c r="C153" t="n">
-        <v>2.997920928264556e-06</v>
+        <v>2785537739663.303</v>
       </c>
       <c r="D153" t="n">
-        <v>15.30075838239124</v>
+        <v>15.30352841012792</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0180421467267354</v>
+        <v>0.01802286923753386</v>
       </c>
       <c r="F153" t="n">
-        <v>2.550126397065207</v>
+        <v>2.550588068354653</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001226601512347455</v>
+        <v>113949892023947.5</v>
       </c>
       <c r="C154" t="n">
-        <v>3.039455332914011e-06</v>
+        <v>2823475066280.488</v>
       </c>
       <c r="D154" t="n">
-        <v>10.47532391943782</v>
+        <v>10.48442634915154</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1060100219545311</v>
+        <v>0.105678834625377</v>
       </c>
       <c r="F154" t="n">
-        <v>1.745887319906303</v>
+        <v>1.747404391525257</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001209613377040096</v>
+        <v>112370496761280.5</v>
       </c>
       <c r="C155" t="n">
-        <v>2.988201976229567e-06</v>
+        <v>2776138330183.369</v>
       </c>
       <c r="D155" t="n">
-        <v>4.424585434087343</v>
+        <v>4.424221822893011</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6194194113486051</v>
+        <v>0.6194681058250968</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7374309056812239</v>
+        <v>0.7373703038155018</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001201624040376291</v>
+        <v>111629597977133.3</v>
       </c>
       <c r="C156" t="n">
-        <v>2.900798269660581e-06</v>
+        <v>2694249238637.365</v>
       </c>
       <c r="D156" t="n">
-        <v>3.081595451471657</v>
+        <v>3.080622070321194</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7985382912117095</v>
+        <v>0.7986620348090524</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5135992419119428</v>
+        <v>0.5134370117201991</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001095089283519964</v>
+        <v>101731839531478.3</v>
       </c>
       <c r="C157" t="n">
-        <v>2.55924931027494e-06</v>
+        <v>2377491268983.581</v>
       </c>
       <c r="D157" t="n">
-        <v>9.713352743584991</v>
+        <v>9.707972064921584</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1372540151348748</v>
+        <v>0.1375009436649051</v>
       </c>
       <c r="F157" t="n">
-        <v>1.618892123930832</v>
+        <v>1.617995344153597</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>9.395880651405812e-05</v>
+        <v>87283776886229.8</v>
       </c>
       <c r="C158" t="n">
-        <v>2.342860982016223e-06</v>
+        <v>2177151583102.613</v>
       </c>
       <c r="D158" t="n">
-        <v>7.797441256107539</v>
+        <v>7.796081051914775</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2533221101924935</v>
+        <v>0.2534268875436465</v>
       </c>
       <c r="F158" t="n">
-        <v>1.29957354268459</v>
+        <v>1.299346841985796</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>8.820054437064507e-05</v>
+        <v>81935443652528.41</v>
       </c>
       <c r="C159" t="n">
-        <v>2.055590266785803e-06</v>
+        <v>1909675980819.275</v>
       </c>
       <c r="D159" t="n">
-        <v>1.419896944386614</v>
+        <v>1.422169445977298</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9646368825995411</v>
+        <v>0.9644959474871262</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2366494907311023</v>
+        <v>0.2370282409962164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>8.803333877743249e-05</v>
+        <v>81780345475924.66</v>
       </c>
       <c r="C160" t="n">
-        <v>2.196833398581697e-06</v>
+        <v>2041116375094.787</v>
       </c>
       <c r="D160" t="n">
-        <v>4.856163287058063</v>
+        <v>4.850732334346127</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5623893942057023</v>
+        <v>0.5630956205667959</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8093605478430105</v>
+        <v>0.8084553890576878</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001060891807216356</v>
+        <v>98554680942138.19</v>
       </c>
       <c r="C161" t="n">
-        <v>2.38261176223783e-06</v>
+        <v>2213534010626.159</v>
       </c>
       <c r="D161" t="n">
-        <v>2.136854377676453</v>
+        <v>2.134525873417931</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9066914753290489</v>
+        <v>0.9069196536030141</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3561423962794089</v>
+        <v>0.3557543122363219</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001865425867868951</v>
+        <v>173295594067352.1</v>
       </c>
       <c r="C162" t="n">
-        <v>3.973881638690964e-06</v>
+        <v>3691253795318.42</v>
       </c>
       <c r="D162" t="n">
-        <v>5.809815972009186</v>
+        <v>5.808245530356809</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4448284903544505</v>
+        <v>0.4450099141180174</v>
       </c>
       <c r="F162" t="n">
-        <v>0.968302662001531</v>
+        <v>0.9680409217261349</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002283160598212632</v>
+        <v>212099212380748.6</v>
       </c>
       <c r="C163" t="n">
-        <v>4.710706943521272e-06</v>
+        <v>4376318839772.407</v>
       </c>
       <c r="D163" t="n">
-        <v>1.240211416822385</v>
+        <v>1.240334993076241</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9748519790218948</v>
+        <v>0.9748455886245756</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2067019028037309</v>
+        <v>0.2067224988460401</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002444421558951467</v>
+        <v>227080345394819.3</v>
       </c>
       <c r="C164" t="n">
-        <v>5.012873218193198e-06</v>
+        <v>4656668440167.128</v>
       </c>
       <c r="D164" t="n">
-        <v>2.12345501733191</v>
+        <v>2.124290526588466</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9080013457972825</v>
+        <v>0.9079198950333347</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3539091695553184</v>
+        <v>0.3540484210980777</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002481152400241816</v>
+        <v>230492105228875</v>
       </c>
       <c r="C165" t="n">
-        <v>5.110469365411881e-06</v>
+        <v>4747727241429.396</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9727617165059094</v>
+        <v>0.9724491659767236</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9866238150178579</v>
+        <v>0.9866351775482571</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1621269527509849</v>
+        <v>0.1620748609961206</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002568563126154655</v>
+        <v>238614650864519.7</v>
       </c>
       <c r="C166" t="n">
-        <v>5.394464703238502e-06</v>
+        <v>5011740880545.689</v>
       </c>
       <c r="D166" t="n">
-        <v>7.318708601326557</v>
+        <v>7.316915300538636</v>
       </c>
       <c r="E166" t="n">
-        <v>0.292376036410402</v>
+        <v>0.2925306518902408</v>
       </c>
       <c r="F166" t="n">
-        <v>1.219784766887759</v>
+        <v>1.219485883423106</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002557178167124469</v>
+        <v>237554232329533.1</v>
       </c>
       <c r="C167" t="n">
-        <v>5.165112608002239e-06</v>
+        <v>4798351914283.25</v>
       </c>
       <c r="D167" t="n">
-        <v>1.625508916105207</v>
+        <v>1.625400738699212</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9507260018804713</v>
+        <v>0.9507339269550661</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2709181526842012</v>
+        <v>0.2709001231165354</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002475730890477171</v>
+        <v>229988652947714.9</v>
       </c>
       <c r="C168" t="n">
-        <v>4.971893963125755e-06</v>
+        <v>4619357062451.116</v>
       </c>
       <c r="D168" t="n">
-        <v>2.342436172752113</v>
+        <v>2.34034868010574</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8856680448739404</v>
+        <v>0.885889878033975</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3904060287920189</v>
+        <v>0.3900581133509567</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002286132053720387</v>
+        <v>212377151522204.1</v>
       </c>
       <c r="C169" t="n">
-        <v>4.558257190967845e-06</v>
+        <v>4234299247933.39</v>
       </c>
       <c r="D169" t="n">
-        <v>5.208682327460905</v>
+        <v>5.208708250636452</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5173402965407736</v>
+        <v>0.5173370458750592</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8681137212434842</v>
+        <v>0.868118041772742</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001440545010588612</v>
+        <v>133820941788473.2</v>
       </c>
       <c r="C170" t="n">
-        <v>3.023647688902796e-06</v>
+        <v>2809019977526.798</v>
       </c>
       <c r="D170" t="n">
-        <v>9.229127163352814</v>
+        <v>9.22953769834753</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1610962506957695</v>
+        <v>0.1610746012538492</v>
       </c>
       <c r="F170" t="n">
-        <v>1.538187860558802</v>
+        <v>1.538256283057922</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>9.423476240069038e-05</v>
+        <v>87543578176884.88</v>
       </c>
       <c r="C171" t="n">
-        <v>1.934740410738327e-06</v>
+        <v>1797489576313.028</v>
       </c>
       <c r="D171" t="n">
-        <v>10.17708215039848</v>
+        <v>10.17924737888329</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1173900705060867</v>
+        <v>0.1173036608428186</v>
       </c>
       <c r="F171" t="n">
-        <v>1.696180358399747</v>
+        <v>1.696541229813882</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>8.603205887944252e-05</v>
+        <v>79922364707591.55</v>
       </c>
       <c r="C172" t="n">
-        <v>1.812210101330042e-06</v>
+        <v>1683410235597.565</v>
       </c>
       <c r="D172" t="n">
-        <v>8.963285712539253</v>
+        <v>8.959965662999162</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1756534096395416</v>
+        <v>0.1758421244127948</v>
       </c>
       <c r="F172" t="n">
-        <v>1.493880952089875</v>
+        <v>1.49332761049986</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>0.000100048039269025</v>
+        <v>92944079248924.28</v>
       </c>
       <c r="C173" t="n">
-        <v>2.23398300129642e-06</v>
+        <v>2074815181184.536</v>
       </c>
       <c r="D173" t="n">
-        <v>7.165162067663524</v>
+        <v>7.169736736261649</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3058429522031497</v>
+        <v>0.3054350302594324</v>
       </c>
       <c r="F173" t="n">
-        <v>1.194193677943921</v>
+        <v>1.194956122710275</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001382464604933825</v>
+        <v>128427067558144.2</v>
       </c>
       <c r="C174" t="n">
-        <v>2.84436072474509e-06</v>
+        <v>2642285064363.098</v>
       </c>
       <c r="D174" t="n">
-        <v>3.905951757714682</v>
+        <v>3.908130064960267</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6894020886952681</v>
+        <v>0.6891074485597322</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6509919596191136</v>
+        <v>0.6513550108267112</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001548884555887016</v>
+        <v>143884274716174.8</v>
       </c>
       <c r="C175" t="n">
-        <v>3.396181118256782e-06</v>
+        <v>3155143851133.149</v>
       </c>
       <c r="D175" t="n">
-        <v>4.987765678643818</v>
+        <v>4.986401573407252</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5453832202774724</v>
+        <v>0.5455584023833806</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8312942797739696</v>
+        <v>0.8310669289012087</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002346898536630946</v>
+        <v>218020668218982.1</v>
       </c>
       <c r="C176" t="n">
-        <v>5.169890279566534e-06</v>
+        <v>4802775585448.771</v>
       </c>
       <c r="D176" t="n">
-        <v>2.472275196455984</v>
+        <v>2.472689608788949</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8715575175431873</v>
+        <v>0.8715115251112062</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4120458660759974</v>
+        <v>0.4121149347981581</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.000319077508954753</v>
+        <v>296413440273729.1</v>
       </c>
       <c r="C177" t="n">
-        <v>6.854167445309607e-06</v>
+        <v>6366853002214.011</v>
       </c>
       <c r="D177" t="n">
-        <v>15.61026248203154</v>
+        <v>15.60418460852772</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01600597124753337</v>
+        <v>0.01604374738336876</v>
       </c>
       <c r="F177" t="n">
-        <v>2.601710413671923</v>
+        <v>2.60069743475462</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003230369158008763</v>
+        <v>300090295545061.2</v>
       </c>
       <c r="C178" t="n">
-        <v>7.215276529555793e-06</v>
+        <v>6702848610619.335</v>
       </c>
       <c r="D178" t="n">
-        <v>2.132470063992984</v>
+        <v>2.133029869751089</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9071209166860301</v>
+        <v>0.9070661298154846</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3554116773321641</v>
+        <v>0.3555049782918481</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003156279507894393</v>
+        <v>293212596268532.7</v>
       </c>
       <c r="C179" t="n">
-        <v>7.112576976240971e-06</v>
+        <v>6607864827935.713</v>
       </c>
       <c r="D179" t="n">
-        <v>4.845289482494244</v>
+        <v>4.844725832945054</v>
       </c>
       <c r="E179" t="n">
-        <v>0.563803731782454</v>
+        <v>0.5638770814367369</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8075482470823739</v>
+        <v>0.8074543054908423</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0002838629684103659</v>
+        <v>263700748984437.2</v>
       </c>
       <c r="C180" t="n">
-        <v>6.573115034837125e-06</v>
+        <v>6106087454230.185</v>
       </c>
       <c r="D180" t="n">
-        <v>1.947263661348576</v>
+        <v>1.947437624896917</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9244842535572635</v>
+        <v>0.9244686808266148</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3245439435580961</v>
+        <v>0.3245729374828195</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002846228350135692</v>
+        <v>264407796283392.4</v>
       </c>
       <c r="C181" t="n">
-        <v>6.092351168103807e-06</v>
+        <v>5659370353212.941</v>
       </c>
       <c r="D181" t="n">
-        <v>10.42056090404847</v>
+        <v>10.42504074458699</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1080223149514492</v>
+        <v>0.1078564215790641</v>
       </c>
       <c r="F181" t="n">
-        <v>1.736760150674745</v>
+        <v>1.737506790764499</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002499982202053713</v>
+        <v>232241427151966.8</v>
       </c>
       <c r="C182" t="n">
-        <v>6.22748315818548e-06</v>
+        <v>5785022230164.322</v>
       </c>
       <c r="D182" t="n">
-        <v>4.377141763266784</v>
+        <v>4.377329769604058</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6257799604221501</v>
+        <v>0.6257547286523018</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7295236272111306</v>
+        <v>0.7295549616006763</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002162021995418048</v>
+        <v>200849129291595.2</v>
       </c>
       <c r="C183" t="n">
-        <v>5.833387100861559e-06</v>
+        <v>5418805267161.989</v>
       </c>
       <c r="D183" t="n">
-        <v>7.139694435357601</v>
+        <v>7.141563016284258</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3081214344993872</v>
+        <v>0.307953825625441</v>
       </c>
       <c r="F183" t="n">
-        <v>1.1899490725596</v>
+        <v>1.190260502714043</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0001965429319242366</v>
+        <v>182582942880350.1</v>
       </c>
       <c r="C184" t="n">
-        <v>4.877682799493245e-06</v>
+        <v>4531214072758.099</v>
       </c>
       <c r="D184" t="n">
-        <v>6.765972890053666</v>
+        <v>6.766399074858332</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3430332554204547</v>
+        <v>0.3429918642961922</v>
       </c>
       <c r="F184" t="n">
-        <v>1.127662148342278</v>
+        <v>1.127733179143055</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0001987478680075949</v>
+        <v>184631901024991.9</v>
       </c>
       <c r="C185" t="n">
-        <v>5.007131390588075e-06</v>
+        <v>4651488327389.449</v>
       </c>
       <c r="D185" t="n">
-        <v>13.04650640509596</v>
+        <v>13.04775530916213</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04230333749240143</v>
+        <v>0.04228382599194511</v>
       </c>
       <c r="F185" t="n">
-        <v>2.17441773418266</v>
+        <v>2.174625884860355</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0001949709667369168</v>
+        <v>181120664855111.5</v>
       </c>
       <c r="C186" t="n">
-        <v>4.473645013435733e-06</v>
+        <v>4156270669979.146</v>
       </c>
       <c r="D186" t="n">
-        <v>10.65671348053139</v>
+        <v>10.65289651042035</v>
       </c>
       <c r="E186" t="n">
-        <v>0.09958343986837626</v>
+        <v>0.09971497092268096</v>
       </c>
       <c r="F186" t="n">
-        <v>1.776118913421899</v>
+        <v>1.775482751736724</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.000190118226093836</v>
+        <v>176611738887986.2</v>
       </c>
       <c r="C187" t="n">
-        <v>4.53955052968373e-06</v>
+        <v>4217249091874.524</v>
       </c>
       <c r="D187" t="n">
-        <v>6.842058738241517</v>
+        <v>6.840775931063716</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3357009390889936</v>
+        <v>0.3358236091744101</v>
       </c>
       <c r="F187" t="n">
-        <v>1.140343123040253</v>
+        <v>1.140129321843953</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0001816181398844768</v>
+        <v>168717091239749.4</v>
       </c>
       <c r="C188" t="n">
-        <v>4.433802849602267e-06</v>
+        <v>4118710797903.538</v>
       </c>
       <c r="D188" t="n">
-        <v>23.89457701385898</v>
+        <v>23.88957822821497</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0005460963115140975</v>
+        <v>0.0005472528330014258</v>
       </c>
       <c r="F188" t="n">
-        <v>3.98242950230983</v>
+        <v>3.981596371369161</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002014171403997828</v>
+        <v>187111013310540.1</v>
       </c>
       <c r="C189" t="n">
-        <v>4.372208981628053e-06</v>
+        <v>4062011582683.016</v>
       </c>
       <c r="D189" t="n">
-        <v>10.21576816662684</v>
+        <v>10.2116104414367</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1158547244157584</v>
+        <v>0.1160188690362047</v>
       </c>
       <c r="F189" t="n">
-        <v>1.70262802777114</v>
+        <v>1.701935073572783</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002350516577321926</v>
+        <v>218355930475469.5</v>
       </c>
       <c r="C190" t="n">
-        <v>5.119288659843224e-06</v>
+        <v>4755193751770.94</v>
       </c>
       <c r="D190" t="n">
-        <v>7.563740065910362</v>
+        <v>7.563384913480655</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2718375626933167</v>
+        <v>0.2718664921901356</v>
       </c>
       <c r="F190" t="n">
-        <v>1.260623344318394</v>
+        <v>1.260564152246776</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002632567749698063</v>
+        <v>244558973848525.7</v>
       </c>
       <c r="C191" t="n">
-        <v>5.627684293844764e-06</v>
+        <v>5228360246812.273</v>
       </c>
       <c r="D191" t="n">
-        <v>10.15016264581378</v>
+        <v>10.14862604017479</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1184691228529047</v>
+        <v>0.1185309828247257</v>
       </c>
       <c r="F191" t="n">
-        <v>1.691693774302297</v>
+        <v>1.691437673362464</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003009723852373856</v>
+        <v>279594604522897.1</v>
       </c>
       <c r="C192" t="n">
-        <v>6.287431104423804e-06</v>
+        <v>5840649570964.897</v>
       </c>
       <c r="D192" t="n">
-        <v>9.092919652670307</v>
+        <v>9.092307817851902</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1684193805920392</v>
+        <v>0.1684529123022803</v>
       </c>
       <c r="F192" t="n">
-        <v>1.515486608778384</v>
+        <v>1.51538463630865</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003518488126886776</v>
+        <v>326858086448898.6</v>
       </c>
       <c r="C193" t="n">
-        <v>7.28918990216293e-06</v>
+        <v>6771596593933.137</v>
       </c>
       <c r="D193" t="n">
-        <v>9.673756963695917</v>
+        <v>9.675812918816282</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1390802987159755</v>
+        <v>0.1389849481147974</v>
       </c>
       <c r="F193" t="n">
-        <v>1.612292827282653</v>
+        <v>1.61263548646938</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003962389850830664</v>
+        <v>368094484937284.6</v>
       </c>
       <c r="C194" t="n">
-        <v>8.209113341444491e-06</v>
+        <v>7625849400457.41</v>
       </c>
       <c r="D194" t="n">
-        <v>6.206005968096227</v>
+        <v>6.206610776917859</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4005134635388825</v>
+        <v>0.4004480779415194</v>
       </c>
       <c r="F194" t="n">
-        <v>1.034334328016038</v>
+        <v>1.03443512948631</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003805084089770041</v>
+        <v>353481944945638.8</v>
       </c>
       <c r="C195" t="n">
-        <v>7.732338804748362e-06</v>
+        <v>7183270822072.724</v>
       </c>
       <c r="D195" t="n">
-        <v>10.80799087208747</v>
+        <v>10.80659944405546</v>
       </c>
       <c r="E195" t="n">
-        <v>0.09449509243172562</v>
+        <v>0.09454080129997394</v>
       </c>
       <c r="F195" t="n">
-        <v>1.801331812014579</v>
+        <v>1.801099907342577</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003811873738020873</v>
+        <v>354112353395743.4</v>
       </c>
       <c r="C196" t="n">
-        <v>7.629965473341961e-06</v>
+        <v>7087230362001.314</v>
       </c>
       <c r="D196" t="n">
-        <v>6.724580505779428</v>
+        <v>6.726978131442956</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3470704687301371</v>
+        <v>0.3468356881344525</v>
       </c>
       <c r="F196" t="n">
-        <v>1.120763417629905</v>
+        <v>1.121163021907159</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003426179699497599</v>
+        <v>318286520218253.1</v>
       </c>
       <c r="C197" t="n">
-        <v>6.889213742636678e-06</v>
+        <v>6399697537006.436</v>
       </c>
       <c r="D197" t="n">
-        <v>5.039219106075774</v>
+        <v>5.037634014497354</v>
       </c>
       <c r="E197" t="n">
-        <v>0.538792912698818</v>
+        <v>0.53899542145766</v>
       </c>
       <c r="F197" t="n">
-        <v>0.839869851012629</v>
+        <v>0.8396056690828924</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003389567380135783</v>
+        <v>314877617819381.4</v>
       </c>
       <c r="C198" t="n">
-        <v>6.747698486817959e-06</v>
+        <v>6268229740622.581</v>
       </c>
       <c r="D198" t="n">
-        <v>8.421361184752621</v>
+        <v>8.419142756809379</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2088293085324405</v>
+        <v>0.2089752373420262</v>
       </c>
       <c r="F198" t="n">
-        <v>1.40356019745877</v>
+        <v>1.40319045946823</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000298636268294626</v>
+        <v>277424545723977.1</v>
       </c>
       <c r="C199" t="n">
-        <v>5.960728062844311e-06</v>
+        <v>5537400070329.943</v>
       </c>
       <c r="D199" t="n">
-        <v>6.522722756189794</v>
+        <v>6.523938779196665</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3672452128432111</v>
+        <v>0.3671212654689167</v>
       </c>
       <c r="F199" t="n">
-        <v>1.087120459364966</v>
+        <v>1.087323129866111</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002880442415355157</v>
+        <v>267585297188641.8</v>
       </c>
       <c r="C200" t="n">
-        <v>5.696764549094028e-06</v>
+        <v>5292056258844.583</v>
       </c>
       <c r="D200" t="n">
-        <v>7.275103590227176</v>
+        <v>7.277000725766753</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2961534224486316</v>
+        <v>0.2959883041009002</v>
       </c>
       <c r="F200" t="n">
-        <v>1.212517265037863</v>
+        <v>1.212833454294459</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002790882562200937</v>
+        <v>259261801343339.8</v>
       </c>
       <c r="C201" t="n">
-        <v>5.508175082471646e-06</v>
+        <v>5117184248929.179</v>
       </c>
       <c r="D201" t="n">
-        <v>4.290034589152675</v>
+        <v>4.291488908699183</v>
       </c>
       <c r="E201" t="n">
-        <v>0.6374908013625091</v>
+        <v>0.6372949703002186</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7150057648587792</v>
+        <v>0.7152481514498638</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000356691192996385</v>
+        <v>331355800163572.2</v>
       </c>
       <c r="C202" t="n">
-        <v>7.247237264060095e-06</v>
+        <v>6732349338670.529</v>
       </c>
       <c r="D202" t="n">
-        <v>3.866228206539332</v>
+        <v>3.866898916177619</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6947735975418596</v>
+        <v>0.6946829301209985</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6443713677565553</v>
+        <v>0.6444831526962699</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003131956230025046</v>
+        <v>290950049816611.4</v>
       </c>
       <c r="C203" t="n">
-        <v>6.124908667522068e-06</v>
+        <v>5688944148291.597</v>
       </c>
       <c r="D203" t="n">
-        <v>7.28667278397007</v>
+        <v>7.290288581247991</v>
       </c>
       <c r="E203" t="n">
-        <v>0.2951475866588463</v>
+        <v>0.294833763754671</v>
       </c>
       <c r="F203" t="n">
-        <v>1.214445463995012</v>
+        <v>1.215048096874665</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003283663343211574</v>
+        <v>305040191109982.5</v>
       </c>
       <c r="C204" t="n">
-        <v>6.770890930427735e-06</v>
+        <v>6289884360255.923</v>
       </c>
       <c r="D204" t="n">
-        <v>2.991895708817874</v>
+        <v>2.991834068299064</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8098633167964495</v>
+        <v>0.8098710428026261</v>
       </c>
       <c r="F204" t="n">
-        <v>0.498649284802979</v>
+        <v>0.4986390113831773</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002999712761930992</v>
+        <v>278665525199106</v>
       </c>
       <c r="C205" t="n">
-        <v>6.208128320658356e-06</v>
+        <v>5767056759184.153</v>
       </c>
       <c r="D205" t="n">
-        <v>3.437648168922959</v>
+        <v>3.435671532259835</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7522460086632106</v>
+        <v>0.7525077177163144</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5729413614871598</v>
+        <v>0.5726119220433058</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002825750427136101</v>
+        <v>262501076808265.5</v>
       </c>
       <c r="C206" t="n">
-        <v>5.884573128526764e-06</v>
+        <v>5466550897397.229</v>
       </c>
       <c r="D206" t="n">
-        <v>4.798830232268828</v>
+        <v>4.800145024149219</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5698615653683272</v>
+        <v>0.5696898017086423</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7998050387114713</v>
+        <v>0.8000241706915365</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.000268456935077739</v>
+        <v>249391652325809.8</v>
       </c>
       <c r="C207" t="n">
-        <v>5.60676703037403e-06</v>
+        <v>5208293704152.492</v>
       </c>
       <c r="D207" t="n">
-        <v>6.057181296349767</v>
+        <v>6.058633963940174</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4168151984255333</v>
+        <v>0.4166540471935832</v>
       </c>
       <c r="F207" t="n">
-        <v>1.009530216058294</v>
+        <v>1.009772327323362</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002512275743703077</v>
+        <v>233383127591676.7</v>
       </c>
       <c r="C208" t="n">
-        <v>5.305897210053866e-06</v>
+        <v>4929862264527.739</v>
       </c>
       <c r="D208" t="n">
-        <v>2.439832545431303</v>
+        <v>2.439802504014276</v>
       </c>
       <c r="E208" t="n">
-        <v>0.8751396560497195</v>
+        <v>0.8751429560614251</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4066387575718839</v>
+        <v>0.406633750669046</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002319452019909959</v>
+        <v>215472036809715.7</v>
       </c>
       <c r="C209" t="n">
-        <v>4.688198098086638e-06</v>
+        <v>4355143748040.095</v>
       </c>
       <c r="D209" t="n">
-        <v>3.466211084689904</v>
+        <v>3.465682908428426</v>
       </c>
       <c r="E209" t="n">
-        <v>0.7484596038471389</v>
+        <v>0.7485296980177036</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5777018474483174</v>
+        <v>0.5776138180714043</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002342485024836828</v>
+        <v>217611129592145.9</v>
       </c>
       <c r="C210" t="n">
-        <v>4.885331506021456e-06</v>
+        <v>4539096028209.426</v>
       </c>
       <c r="D210" t="n">
-        <v>2.726704395176192</v>
+        <v>2.726383723166284</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8422830165867596</v>
+        <v>0.8423211323474022</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4544507325293654</v>
+        <v>0.4543972871943806</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.000121564152076514</v>
+        <v>112928791744049.8</v>
       </c>
       <c r="C211" t="n">
-        <v>2.4847467605975e-06</v>
+        <v>2308410289422.964</v>
       </c>
       <c r="D211" t="n">
-        <v>7.905048091214732</v>
+        <v>7.904423115830257</v>
       </c>
       <c r="E211" t="n">
-        <v>0.2451426134152856</v>
+        <v>0.2451894975710091</v>
       </c>
       <c r="F211" t="n">
-        <v>1.317508015202455</v>
+        <v>1.317403852638376</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>5.058910986160602e-05</v>
+        <v>46996331780772.93</v>
       </c>
       <c r="C212" t="n">
-        <v>1.109225758696458e-06</v>
+        <v>1030137415784.048</v>
       </c>
       <c r="D212" t="n">
-        <v>6.843305960822763</v>
+        <v>6.84234033213617</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3355817031574411</v>
+        <v>0.3356740156848157</v>
       </c>
       <c r="F212" t="n">
-        <v>1.140550993470461</v>
+        <v>1.140390055356028</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.132353922773319e-05</v>
+        <v>29097498331477.27</v>
       </c>
       <c r="C213" t="n">
-        <v>7.05033978017063e-07</v>
+        <v>655466259203.9254</v>
       </c>
       <c r="D213" t="n">
-        <v>4.91207530255281</v>
+        <v>4.897113832690746</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5551386867594048</v>
+        <v>0.557075291650154</v>
       </c>
       <c r="F213" t="n">
-        <v>0.818679217092135</v>
+        <v>0.816185638781791</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>4.481962795615723e-05</v>
+        <v>41631878480686.77</v>
       </c>
       <c r="C214" t="n">
-        <v>9.511705608619699e-07</v>
+        <v>883334107200.7568</v>
       </c>
       <c r="D214" t="n">
-        <v>10.13141774685227</v>
+        <v>10.12367827385114</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1192257162790797</v>
+        <v>0.1195393559563044</v>
       </c>
       <c r="F214" t="n">
-        <v>1.688569624475378</v>
+        <v>1.687279712308524</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>2.755842315424001e-05</v>
+        <v>25601369446796.27</v>
       </c>
       <c r="C215" t="n">
-        <v>6.076436849258039e-07</v>
+        <v>564070718223.8385</v>
       </c>
       <c r="D215" t="n">
-        <v>3.246633981483976</v>
+        <v>3.256344015236138</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7773155655342191</v>
+        <v>0.7760531184910423</v>
       </c>
       <c r="F215" t="n">
-        <v>0.5411056635806626</v>
+        <v>0.5427240025393563</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.25599693830289e-05</v>
+        <v>20955216966959.28</v>
       </c>
       <c r="C216" t="n">
-        <v>5.010571381308797e-07</v>
+        <v>466035961469.9622</v>
       </c>
       <c r="D216" t="n">
-        <v>8.422345593585039</v>
+        <v>8.394298225840924</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2087645810603469</v>
+        <v>0.2106153297826605</v>
       </c>
       <c r="F216" t="n">
-        <v>1.403724265597506</v>
+        <v>1.399049704306821</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>1.925231853475562e-05</v>
+        <v>17885903354392.81</v>
       </c>
       <c r="C217" t="n">
-        <v>4.164330923159492e-07</v>
+        <v>386839315503.8494</v>
       </c>
       <c r="D217" t="n">
-        <v>9.734055455627702</v>
+        <v>9.736181666547363</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1363075694000506</v>
+        <v>0.1362106937296043</v>
       </c>
       <c r="F217" t="n">
-        <v>1.62234257593795</v>
+        <v>1.62269694442456</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>1.971234340046478e-05</v>
+        <v>18313164920357.59</v>
       </c>
       <c r="C218" t="n">
-        <v>4.35754519931e-07</v>
+        <v>404473155900.5406</v>
       </c>
       <c r="D218" t="n">
-        <v>25.88097657225116</v>
+        <v>25.96060231251135</v>
       </c>
       <c r="E218" t="n">
-        <v>0.0002343000261496794</v>
+        <v>0.0002264364117435986</v>
       </c>
       <c r="F218" t="n">
-        <v>4.313496095375194</v>
+        <v>4.326767052085224</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.840308486195423e-05</v>
+        <v>26392005306247.49</v>
       </c>
       <c r="C219" t="n">
-        <v>6.00574867272912e-07</v>
+        <v>558205519687.8615</v>
       </c>
       <c r="D219" t="n">
-        <v>21.30175548814996</v>
+        <v>21.34235010004431</v>
       </c>
       <c r="E219" t="n">
-        <v>0.001619039798483079</v>
+        <v>0.001592001068230687</v>
       </c>
       <c r="F219" t="n">
-        <v>3.550292581358327</v>
+        <v>3.557058350007384</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>5.259250788714568e-05</v>
+        <v>48859774532122.2</v>
       </c>
       <c r="C220" t="n">
-        <v>1.068386581572917e-06</v>
+        <v>992549993303.3375</v>
       </c>
       <c r="D220" t="n">
-        <v>7.296782277017664</v>
+        <v>7.298496664922594</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2942708043688434</v>
+        <v>0.2941223162711946</v>
       </c>
       <c r="F220" t="n">
-        <v>1.216130379502944</v>
+        <v>1.216416110820432</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>5.896725114961255e-05</v>
+        <v>54779919266384.92</v>
       </c>
       <c r="C221" t="n">
-        <v>1.197858179919137e-06</v>
+        <v>1113111720303.295</v>
       </c>
       <c r="D221" t="n">
-        <v>9.983311045086172</v>
+        <v>9.984938379653856</v>
       </c>
       <c r="E221" t="n">
-        <v>0.1253565892228376</v>
+        <v>0.1252877316468252</v>
       </c>
       <c r="F221" t="n">
-        <v>1.663885174181029</v>
+        <v>1.664156396608976</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>5.178614798490522e-05</v>
+        <v>48109930790653.52</v>
       </c>
       <c r="C222" t="n">
-        <v>1.038839106812493e-06</v>
+        <v>964721216855.1075</v>
       </c>
       <c r="D222" t="n">
-        <v>11.18241810330752</v>
+        <v>11.18988820166968</v>
       </c>
       <c r="E222" t="n">
-        <v>0.08289956738875794</v>
+        <v>0.08268203413593017</v>
       </c>
       <c r="F222" t="n">
-        <v>1.863736350551253</v>
+        <v>1.864981366944946</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>4.621126194306409e-05</v>
+        <v>42933431041846.38</v>
       </c>
       <c r="C223" t="n">
-        <v>9.485845694060979e-07</v>
+        <v>880685688770.6832</v>
       </c>
       <c r="D223" t="n">
-        <v>8.580644427040612</v>
+        <v>8.593296628076281</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1985718307050541</v>
+        <v>0.1977755077852321</v>
       </c>
       <c r="F223" t="n">
-        <v>1.430107404506769</v>
+        <v>1.43221610467938</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,4442 +395,4402 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>690783162998.2206</v>
+        <v>3.06412574794172e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>37774757952.43887</v>
+        <v>1.550896757270871e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>667.3727515121202</v>
+        <v>42.69727589089232</v>
       </c>
       <c r="E2" t="n">
-        <v>6.762359759430063e-141</v>
+        <v>1.338890697577672e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>111.2287919186867</v>
+        <v>7.116212648482054</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2675321822556.048</v>
+        <v>4.340091696399152e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>93575872846.91978</v>
+        <v>1.839849661943137e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>139.1822433407859</v>
+        <v>82.25483490882264</v>
       </c>
       <c r="E3" t="n">
-        <v>1.491135753427835e-27</v>
+        <v>1.22161361487152e-15</v>
       </c>
       <c r="F3" t="n">
-        <v>23.19704055679766</v>
+        <v>13.70913915147044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1885857516766.744</v>
+        <v>3.372774083250512e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>77592300118.28271</v>
+        <v>2.054897221912574e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>356.5653173964084</v>
+        <v>169.8106412642987</v>
       </c>
       <c r="E4" t="n">
-        <v>6.010148352294658e-74</v>
+        <v>4.933518277838542e-34</v>
       </c>
       <c r="F4" t="n">
-        <v>59.42755289940141</v>
+        <v>28.30177354404978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>3782804093981.58</v>
+        <v>5.60293955963637e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>126195373471.5011</v>
+        <v>2.42321709720485e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>134.0665388222423</v>
+        <v>37.49659996329272</v>
       </c>
       <c r="E5" t="n">
-        <v>1.787835262597343e-26</v>
+        <v>1.408829289858073e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>22.34442313704038</v>
+        <v>6.249433327215453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>4378273348541.188</v>
+        <v>7.262383597607156e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>148952567381.4945</v>
+        <v>3.136848043696126e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>96.29838430366891</v>
+        <v>47.34694756710008</v>
       </c>
       <c r="E6" t="n">
-        <v>1.483385602351002e-18</v>
+        <v>1.595454298325984e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>16.04973071727815</v>
+        <v>7.891157927850013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>4660974769356.615</v>
+        <v>5.842639385709297e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>155702909252.4734</v>
+        <v>2.619757008918395e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36226331201278</v>
+        <v>33.79109644322632</v>
       </c>
       <c r="E7" t="n">
-        <v>9.888877631233991e-08</v>
+        <v>7.381942411464439e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>7.227043885335463</v>
+        <v>5.631849407204386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>4403828360215.529</v>
+        <v>5.706350471356671e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>137095237160.7264</v>
+        <v>2.404860198600516e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>78.57093975405458</v>
+        <v>41.34784208115483</v>
       </c>
       <c r="E8" t="n">
-        <v>7.048092629385835e-15</v>
+        <v>2.472855124485435e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>13.09515662567576</v>
+        <v>6.891307013525805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>4607443298342.656</v>
+        <v>6.073181474496201e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>132762685897.8509</v>
+        <v>2.308096601616472e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>44.20628775862421</v>
+        <v>99.74095895239887</v>
       </c>
       <c r="E9" t="n">
-        <v>6.727468107285109e-08</v>
+        <v>2.841812440461964e-19</v>
       </c>
       <c r="F9" t="n">
-        <v>7.367714626437369</v>
+        <v>16.62349315873314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>3556709222824.505</v>
+        <v>5.472266784594306e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>129838854008.9915</v>
+        <v>2.602087210633987e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2210902846486</v>
+        <v>49.19348261244335</v>
       </c>
       <c r="E10" t="n">
-        <v>1.287654793597109e-28</v>
+        <v>6.819816432000812e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>24.03684838077476</v>
+        <v>8.198913768740558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>4481172904650.408</v>
+        <v>5.33399382847381e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>149316765005.8797</v>
+        <v>2.409224026071751e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>52.58536428239388</v>
+        <v>47.174186660578</v>
       </c>
       <c r="E11" t="n">
-        <v>1.421930307116945e-09</v>
+        <v>1.727260012368039e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>8.76422738039898</v>
+        <v>7.862364443429667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>3695815688530.741</v>
+        <v>6.003008590476592e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>126934976764.5821</v>
+        <v>2.206130219976078e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>302.7674088350605</v>
+        <v>61.10253397520538</v>
       </c>
       <c r="E12" t="n">
-        <v>2.088133602294818e-62</v>
+        <v>2.686538014136275e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>50.46123480584342</v>
+        <v>10.18375566253423</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>3301862837416.561</v>
+        <v>4.815647642195172e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>110348967606.3978</v>
+        <v>2.098637712759728e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>57.16429293664366</v>
+        <v>60.49638404087725</v>
       </c>
       <c r="E13" t="n">
-        <v>1.692220191896905e-10</v>
+        <v>3.568136442893593e-11</v>
       </c>
       <c r="F13" t="n">
-        <v>9.527382156107278</v>
+        <v>10.08273067347954</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>6221193743888.578</v>
+        <v>7.749379953201422e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>157472393128.4981</v>
+        <v>2.551081936999674e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>10.47006836812536</v>
+        <v>5.490469649400966</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1062016672972828</v>
+        <v>0.4826093249680051</v>
       </c>
       <c r="F14" t="n">
-        <v>1.74501139468756</v>
+        <v>0.915078274900161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>5019749187573.375</v>
+        <v>7.598354054680478e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>137515834881.0435</v>
+        <v>2.739040772376681e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>14.7938042360114</v>
+        <v>35.65504403805045</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02192252890155762</v>
+        <v>3.216513240867976e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>2.465634039335233</v>
+        <v>5.942507339675075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>4920501794593.707</v>
+        <v>6.526409290405969e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>148687603854.6237</v>
+        <v>2.972173142665427e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>33.71413565027601</v>
+        <v>13.94681986495974</v>
       </c>
       <c r="E16" t="n">
-        <v>7.638684820434142e-06</v>
+        <v>0.03023588981942786</v>
       </c>
       <c r="F16" t="n">
-        <v>5.619022608379335</v>
+        <v>2.32446997749329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4494576903037.208</v>
+        <v>5.413180578434079e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>140204735366.2489</v>
+        <v>2.941780769330258e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>25.20695047720233</v>
+        <v>17.70123927105769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003126011158753246</v>
+        <v>0.007023839697814711</v>
       </c>
       <c r="F17" t="n">
-        <v>4.201158412867055</v>
+        <v>2.950206545176281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4781851393611.2</v>
+        <v>6.262374712841405e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>155135266554.5032</v>
+        <v>3.070764818878583e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>40.49346267243773</v>
+        <v>33.05181360756796</v>
       </c>
       <c r="E18" t="n">
-        <v>3.643103858393948e-07</v>
+        <v>1.024784352025528e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>6.748910445406288</v>
+        <v>5.508635601261328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>5657031598184.594</v>
+        <v>6.461788593737804e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>176834599465.4852</v>
+        <v>3.27402769317808e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>16.26364972756952</v>
+        <v>4.68852830295528</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01240667725592199</v>
+        <v>0.5843359023929615</v>
       </c>
       <c r="F19" t="n">
-        <v>2.710608287928253</v>
+        <v>0.78142138382588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>5090281469044.49</v>
+        <v>6.557212710473361e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>177701622347.9222</v>
+        <v>3.489136457734904e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>48.48602100613395</v>
+        <v>7.456845713165913</v>
       </c>
       <c r="E20" t="n">
-        <v>9.447733550897939e-09</v>
+        <v>0.2806544057113222</v>
       </c>
       <c r="F20" t="n">
-        <v>8.081003501022325</v>
+        <v>1.242807618860986</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>6096683063000.579</v>
+        <v>7.537080409294274e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>218010795708.453</v>
+        <v>4.33924674287722e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>62.69054995200251</v>
+        <v>20.29737372912743</v>
       </c>
       <c r="E21" t="n">
-        <v>1.276223257481151e-11</v>
+        <v>0.002451200671755957</v>
       </c>
       <c r="F21" t="n">
-        <v>10.44842499200042</v>
+        <v>3.382895621521238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>9258381439218.238</v>
+        <v>1.160925351950618e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>403106468384.1516</v>
+        <v>8.706537338823701e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>27.9164477367458</v>
+        <v>8.605198484482719</v>
       </c>
       <c r="E22" t="n">
-        <v>9.742874945818383e-05</v>
+        <v>0.197028865022473</v>
       </c>
       <c r="F22" t="n">
-        <v>4.652741289457634</v>
+        <v>1.434199747413786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>12206098789820.17</v>
+        <v>1.484902223418931e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>560806278493.824</v>
+        <v>1.255639641879484e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>22.92298503185743</v>
+        <v>5.977560670670138</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008226874931915089</v>
+        <v>0.4257084496003539</v>
       </c>
       <c r="F23" t="n">
-        <v>3.820497505309572</v>
+        <v>0.9962601117783563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>16722665475600.87</v>
+        <v>2.312848202414873e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>768476509408.9746</v>
+        <v>1.759830272467476e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>31.24827901860439</v>
+        <v>5.199520034919773</v>
       </c>
       <c r="E24" t="n">
-        <v>2.272685880470242e-05</v>
+        <v>0.5184898239475846</v>
       </c>
       <c r="F24" t="n">
-        <v>5.208046503100731</v>
+        <v>0.8665866724866288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>17687462099994.23</v>
+        <v>2.100917544495282e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>745316531801.2197</v>
+        <v>1.579515385137084e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>27.23584430272592</v>
+        <v>4.216165060670466</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000130791802631679</v>
+        <v>0.647449366627058</v>
       </c>
       <c r="F25" t="n">
-        <v>4.539307383787654</v>
+        <v>0.7026941767784111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>14252634175646.26</v>
+        <v>1.840043931499554e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>672984000308.0503</v>
+        <v>1.477734472814282e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>61.52477364673389</v>
+        <v>14.42972854650102</v>
       </c>
       <c r="E26" t="n">
-        <v>2.204406534495064e-11</v>
+        <v>0.02518740061549437</v>
       </c>
       <c r="F26" t="n">
-        <v>10.25412894112232</v>
+        <v>2.404954757750171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>19089689431629.01</v>
+        <v>2.262087237146576e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>823742529042.92</v>
+        <v>1.705084895789704e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>2.325374744954942</v>
+        <v>2.181786178724525</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8874762992114252</v>
+        <v>0.9022434372480067</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3875624574924903</v>
+        <v>0.3636310297874208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>17606686338317.33</v>
+        <v>2.17910492212982e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>787838241254.325</v>
+        <v>1.702976731730188e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>34.2393424860597</v>
+        <v>5.713388104376812</v>
       </c>
       <c r="E28" t="n">
-        <v>6.048011894325534e-06</v>
+        <v>0.4560498867539527</v>
       </c>
       <c r="F28" t="n">
-        <v>5.70655708100995</v>
+        <v>0.9522313507294687</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>18331881327524.38</v>
+        <v>2.387705857044857e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>781374714285.9585</v>
+        <v>1.718905461449009e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>55.32901505868242</v>
+        <v>13.40637574939537</v>
       </c>
       <c r="E29" t="n">
-        <v>3.977811960075886e-10</v>
+        <v>0.03701786369716114</v>
       </c>
       <c r="F29" t="n">
-        <v>9.221502509780404</v>
+        <v>2.234395958232561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>17786811207181.76</v>
+        <v>2.095754198355286e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>756026757824.9222</v>
+        <v>1.575152533303291e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>22.55286740111095</v>
+        <v>8.625087554862128</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0009609341792346451</v>
+        <v>0.1957864540777765</v>
       </c>
       <c r="F30" t="n">
-        <v>3.758811233518492</v>
+        <v>1.437514592477021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>14928435309183.83</v>
+        <v>2.030658297321438e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>693283072442.8981</v>
+        <v>1.480106744157802e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>66.45248833199423</v>
+        <v>7.514257934633392</v>
       </c>
       <c r="E31" t="n">
-        <v>2.178133907792386e-12</v>
+        <v>0.2758915635415314</v>
       </c>
       <c r="F31" t="n">
-        <v>11.07541472199904</v>
+        <v>1.252376322438899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>17458116224110.77</v>
+        <v>2.051942595203417e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>772820271142.9861</v>
+        <v>1.567458407671083e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>18.09535577844505</v>
+        <v>5.176850236149901</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005998262829861292</v>
+        <v>0.5213392537074859</v>
       </c>
       <c r="F32" t="n">
-        <v>3.015892629740842</v>
+        <v>0.8628083726916502</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>16507847328978.63</v>
+        <v>2.122751977706339e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>710443069054.1105</v>
+        <v>1.522793546806425e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>31.13232955994011</v>
+        <v>2.813420378726466</v>
       </c>
       <c r="E33" t="n">
-        <v>2.391630599593078e-05</v>
+        <v>0.8318737985016184</v>
       </c>
       <c r="F33" t="n">
-        <v>5.188721593323352</v>
+        <v>0.4689033964544111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>17532348924101.61</v>
+        <v>2.068390470839248e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>770300352369.5627</v>
+        <v>1.524947385192468e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>9.949491194674575</v>
+        <v>2.877397047495897</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1267952332818551</v>
+        <v>0.8240700537536267</v>
       </c>
       <c r="F34" t="n">
-        <v>1.658248532445763</v>
+        <v>0.4795661745826494</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>17260555883685.53</v>
+        <v>2.155182618128134e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>718206543962.3395</v>
+        <v>1.407927951894364e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>15.81291041999468</v>
+        <v>11.23391316686224</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01479416877340889</v>
+        <v>0.08141056069392499</v>
       </c>
       <c r="F35" t="n">
-        <v>2.635485069999113</v>
+        <v>1.872318861143706</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>16395617362726.6</v>
+        <v>1.941397936020489e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>664354930353.8982</v>
+        <v>1.349917783808165e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>8.937069309371076</v>
+        <v>6.4293791601518</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1771483047120248</v>
+        <v>0.37684643912408</v>
       </c>
       <c r="F36" t="n">
-        <v>1.489511551561846</v>
+        <v>1.071563193358633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>10619794345234.12</v>
+        <v>1.544762615103475e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>464944706533.746</v>
+        <v>1.02494880884553e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>67.54609592107045</v>
+        <v>7.008731173117057</v>
       </c>
       <c r="E37" t="n">
-        <v>1.301266285011751e-12</v>
+        <v>0.3200404997604784</v>
       </c>
       <c r="F37" t="n">
-        <v>11.25768265351174</v>
+        <v>1.168121862186176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>11136399756670.73</v>
+        <v>1.586748194913805e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>432616455145.7595</v>
+        <v>9.089811446730705e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>34.37678733505673</v>
+        <v>7.074319403608085</v>
       </c>
       <c r="E38" t="n">
-        <v>5.689118548356721e-06</v>
+        <v>0.314028871455617</v>
       </c>
       <c r="F38" t="n">
-        <v>5.729464555842789</v>
+        <v>1.179053233934681</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>9435219912528.389</v>
+        <v>1.372628310657571e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>350662427581.7296</v>
+        <v>6.808735538181313e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>117.8586306788558</v>
+        <v>17.50682275792447</v>
       </c>
       <c r="E39" t="n">
-        <v>4.588735948573628e-23</v>
+        <v>0.007590428970610086</v>
       </c>
       <c r="F39" t="n">
-        <v>19.64310511314264</v>
+        <v>2.917803792987411</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>11191321886931.64</v>
+        <v>1.268437369999114e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>447153862981.1967</v>
+        <v>8.249557668889384e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>17.67066183714838</v>
+        <v>11.10475621888344</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007110154429473598</v>
+        <v>0.08519227260310812</v>
       </c>
       <c r="F40" t="n">
-        <v>2.945110306191397</v>
+        <v>1.85079270314724</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>16318914970456.15</v>
+        <v>1.981310430800892e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>469701112824.5068</v>
+        <v>7.065479278335527e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>9.368002714249339</v>
+        <v>6.185969650891492</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1539149980886126</v>
+        <v>0.4026835508974135</v>
       </c>
       <c r="F41" t="n">
-        <v>1.561333785708223</v>
+        <v>1.030994941815249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>16820323840103.61</v>
+        <v>1.982036784508929e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>434455408814.8331</v>
+        <v>6.265646738883727e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>19.36994133555856</v>
+        <v>21.67128043856753</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003582405694464591</v>
+        <v>0.001388621946493068</v>
       </c>
       <c r="F42" t="n">
-        <v>3.228323555926427</v>
+        <v>3.611880073094589</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>15651314187956.83</v>
+        <v>1.926505238672851e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>388816461873.0096</v>
+        <v>5.690534173845848e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>10.01968684638811</v>
+        <v>12.97120026481861</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1238254081626678</v>
+        <v>0.04349557538881193</v>
       </c>
       <c r="F43" t="n">
-        <v>1.669947807731352</v>
+        <v>2.161866710803101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>14074755885248.11</v>
+        <v>1.765111762847976e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>343176363917.9892</v>
+        <v>5.074996601057236e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>11.31700361612052</v>
+        <v>4.22922538260974</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07905943473880506</v>
+        <v>0.6456871211173267</v>
       </c>
       <c r="F44" t="n">
-        <v>1.886167269353421</v>
+        <v>0.7048708971016233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>14871811661398.39</v>
+        <v>1.818319329616816e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>357555087417.8966</v>
+        <v>5.149273907804184e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>8.425926836319805</v>
+        <v>5.822008399624805</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2085292460128031</v>
+        <v>0.4434214825511854</v>
       </c>
       <c r="F45" t="n">
-        <v>1.404321139386634</v>
+        <v>0.9703347332708008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>14262918488176.58</v>
+        <v>1.686051295002437e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>333758779144.4459</v>
+        <v>4.631296199748784e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>4.191814862657553</v>
+        <v>2.427020589672537</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6507365189267451</v>
+        <v>0.8765441483981031</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6986358104429256</v>
+        <v>0.4045034316120895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>9732190993240.488</v>
+        <v>1.218616030585051e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>246011723022.8686</v>
+        <v>3.841947569063212e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>15.12283233747649</v>
+        <v>7.252842821789956</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01932257113340628</v>
+        <v>0.2980961728582767</v>
       </c>
       <c r="F47" t="n">
-        <v>2.520472056246081</v>
+        <v>1.208807136964993</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>13107363554100.43</v>
+        <v>1.557713788171069e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>320283814164.5105</v>
+        <v>4.63166755891103e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>22.08669108349274</v>
+        <v>10.77286688817441</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001167842447981093</v>
+        <v>0.09565507420959106</v>
       </c>
       <c r="F48" t="n">
-        <v>3.681115180582123</v>
+        <v>1.795477814695736</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>19415165145105.79</v>
+        <v>2.297235778152522e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>454928192886.364</v>
+        <v>6.273445521921722e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>10.69861420546559</v>
+        <v>7.910845983000493</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09814982879038583</v>
+        <v>0.2447080143743789</v>
       </c>
       <c r="F49" t="n">
-        <v>1.783102367577599</v>
+        <v>1.318474330500082</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>28561200521083.36</v>
+        <v>3.431573017728008e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>662742886939.0239</v>
+        <v>8.863646599491369e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>14.41717217150378</v>
+        <v>13.16471443936211</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02530786828747943</v>
+        <v>0.04049357348711193</v>
       </c>
       <c r="F50" t="n">
-        <v>2.402862028583963</v>
+        <v>2.194119073227018</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>38032060125289.52</v>
+        <v>4.57434328913061e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>840688398362.245</v>
+        <v>1.098517747068623e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.151217839441347</v>
+        <v>1.349570495945324</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6562208722567413</v>
+        <v>0.9688541058963598</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6918696399068912</v>
+        <v>0.2249284159908874</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>81842514529450.48</v>
+        <v>9.570515007532381e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1849551838070.073</v>
+        <v>2.337576036316842e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>6.469151047470487</v>
+        <v>6.876721229693068</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3727345991077267</v>
+        <v>0.3323986644180052</v>
       </c>
       <c r="F52" t="n">
-        <v>1.078191841245081</v>
+        <v>1.146120204948845</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>136445596254718.6</v>
+        <v>0.0001591495652477726</v>
       </c>
       <c r="C53" t="n">
-        <v>2980809299048.057</v>
+        <v>3.681339412289399e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>2.910702348123511</v>
+        <v>1.332639138120718</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8199683302851367</v>
+        <v>0.9698274790607718</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4851170580205852</v>
+        <v>0.2221065230201197</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>381034145355366.8</v>
+        <v>0.0004363869583111274</v>
       </c>
       <c r="C54" t="n">
-        <v>8303267870875.873</v>
+        <v>9.900620948664063e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>7.760203572219488</v>
+        <v>7.861231608622535</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2562030966575089</v>
+        <v>0.2484471830802003</v>
       </c>
       <c r="F54" t="n">
-        <v>1.293367262036581</v>
+        <v>1.310205268103756</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>614075978178019.2</v>
+        <v>0.0007029813200531211</v>
       </c>
       <c r="C55" t="n">
-        <v>13024818191543.94</v>
+        <v>1.541961605458106e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>5.16336807509632</v>
+        <v>4.563387149506574</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5230373558515182</v>
+        <v>0.6008991061338937</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8605613458493866</v>
+        <v>0.7605645249177623</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>673380554580380.4</v>
+        <v>0.0007754555407144898</v>
       </c>
       <c r="C56" t="n">
-        <v>13985739354575.6</v>
+        <v>1.657070769163905e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>4.02856992056885</v>
+        <v>3.378221766914909</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6728099634061968</v>
+        <v>0.7600948916244709</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6714283200948082</v>
+        <v>0.5630369611524848</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>549074642749284.9</v>
+        <v>0.0006307043398541469</v>
       </c>
       <c r="C57" t="n">
-        <v>11530951772776.19</v>
+        <v>1.364607856643289e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>8.267180802444109</v>
+        <v>7.836269616211055</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2191751853366571</v>
+        <v>0.2503457508125246</v>
       </c>
       <c r="F57" t="n">
-        <v>1.377863467074018</v>
+        <v>1.306044936035176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>282541571118260.8</v>
+        <v>0.0003233562978419459</v>
       </c>
       <c r="C58" t="n">
-        <v>5932478518302.8</v>
+        <v>6.999768166284567e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>5.947918216848588</v>
+        <v>6.234062292552224</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4290495763490559</v>
+        <v>0.3974877152568637</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9913197028080981</v>
+        <v>1.039010382092037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>217078774858830.2</v>
+        <v>0.0002502502520058679</v>
       </c>
       <c r="C59" t="n">
-        <v>4572395456783.748</v>
+        <v>5.449164645892305e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>6.011791917753343</v>
+        <v>5.149987094688564</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4218704387247638</v>
+        <v>0.5247252662792206</v>
       </c>
       <c r="F59" t="n">
-        <v>1.001965319625557</v>
+        <v>0.858331182448094</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>276380383616218.7</v>
+        <v>0.0003181050867562187</v>
       </c>
       <c r="C60" t="n">
-        <v>5752396820251.554</v>
+        <v>6.825353156868065e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>9.984846819534003</v>
+        <v>9.65416566670828</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1252916049481672</v>
+        <v>0.1399917878224271</v>
       </c>
       <c r="F60" t="n">
-        <v>1.664141136589</v>
+        <v>1.609027611118047</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>122257720250018.7</v>
+        <v>0.0001425547624289295</v>
       </c>
       <c r="C61" t="n">
-        <v>2574220387017.478</v>
+        <v>3.114277923013605e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>8.623800505851317</v>
+        <v>6.84700648675632</v>
       </c>
       <c r="E61" t="n">
-        <v>0.195866651995836</v>
+        <v>0.335228110359779</v>
       </c>
       <c r="F61" t="n">
-        <v>1.437300084308553</v>
+        <v>1.14116774779272</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>87465924580292.86</v>
+        <v>0.0001006845102602871</v>
       </c>
       <c r="C62" t="n">
-        <v>1806788502250.767</v>
+        <v>2.174520305123112e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>2.253379466964903</v>
+        <v>3.850251542207942</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8949832588405754</v>
+        <v>0.6969330210038767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3755632444941506</v>
+        <v>0.6417085903679903</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>50530749299445.73</v>
+        <v>5.916300124700849e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1069501758156.852</v>
+        <v>1.323765589289595e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>5.213338226823486</v>
+        <v>5.855658491268105</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5167566217540174</v>
+        <v>0.4395521934887953</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8688897044705809</v>
+        <v>0.9759430818780176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26807103275444.58</v>
+        <v>3.194547051094708e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>587322737661.2264</v>
+        <v>7.653825939957431e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>9.437222889210091</v>
+        <v>5.51162961557771</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1504407279644446</v>
+        <v>0.4800522234003608</v>
       </c>
       <c r="F64" t="n">
-        <v>1.572870481535015</v>
+        <v>0.9186049359296183</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>20659322982942.06</v>
+        <v>2.491789298280171e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>555008765802.6812</v>
+        <v>8.376443364269216e-07</v>
       </c>
       <c r="D65" t="n">
-        <v>8.128024131603709</v>
+        <v>6.355708923372125</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2288732156290654</v>
+        <v>0.3845447398414364</v>
       </c>
       <c r="F65" t="n">
-        <v>1.354670688600618</v>
+        <v>1.059284820562021</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>21200811928591.52</v>
+        <v>2.489541287761779e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>755698352606.6112</v>
+        <v>1.271403056918183e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>7.787595523137174</v>
+        <v>1.550897309014012</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2540813166960323</v>
+        <v>0.9560422198548852</v>
       </c>
       <c r="F66" t="n">
-        <v>1.297932587189529</v>
+        <v>0.2584828848356686</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>25025336739294.94</v>
+        <v>2.943522527630512e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>945542749298.8795</v>
+        <v>1.69295540139863e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>5.597946443002268</v>
+        <v>1.307516332382501</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4696984781431706</v>
+        <v>0.9712416261750667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9329910738337114</v>
+        <v>0.2179193887304169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>33398486785830.92</v>
+        <v>3.967903924562433e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1427399889122.871</v>
+        <v>2.846520266338602e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>15.14714569579255</v>
+        <v>5.844063076136933</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01914261384714822</v>
+        <v>0.4408831877101457</v>
       </c>
       <c r="F68" t="n">
-        <v>2.524524282632092</v>
+        <v>0.9740105126894889</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>31458401000405.66</v>
+        <v>3.891522229552884e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1219460999365.171</v>
+        <v>2.422910497494227e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>15.3919138672901</v>
+        <v>5.735082494183914</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01741801399604834</v>
+        <v>0.4535109014729453</v>
       </c>
       <c r="F69" t="n">
-        <v>2.565318977881684</v>
+        <v>0.9558470823639856</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>65971329840717.17</v>
+        <v>7.917347109393236e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2476178661076.082</v>
+        <v>4.928651878712975e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>14.614639206488</v>
+        <v>3.428696176991086</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02347530111425173</v>
+        <v>0.7534309224856868</v>
       </c>
       <c r="F70" t="n">
-        <v>2.435773201081333</v>
+        <v>0.5714493628318477</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>101994434447434.2</v>
+        <v>0.0001210818958125645</v>
       </c>
       <c r="C71" t="n">
-        <v>3676464421970.798</v>
+        <v>6.298585275377137e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>10.38356309241276</v>
+        <v>3.858108324444331</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1094011672735805</v>
+        <v>0.6958711689370851</v>
       </c>
       <c r="F71" t="n">
-        <v>1.730593848735461</v>
+        <v>0.6430180540740551</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>241395986085252.8</v>
+        <v>0.0002789349101610538</v>
       </c>
       <c r="C72" t="n">
-        <v>5465873192248.799</v>
+        <v>7.33842575892081e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>5.781729823182413</v>
+        <v>4.439577377333942</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4480797999690399</v>
+        <v>0.617412451191703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9636216371970688</v>
+        <v>0.7399295628889903</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>613607595945647.6</v>
+        <v>0.0007128139687759735</v>
       </c>
       <c r="C73" t="n">
-        <v>13616957580930.44</v>
+        <v>1.727063554654483e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>7.530930899373536</v>
+        <v>5.13217272684158</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2745203104514449</v>
+        <v>0.5269763282959847</v>
       </c>
       <c r="F73" t="n">
-        <v>1.255155149895589</v>
+        <v>0.8553621211402632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>605787292045312.1</v>
+        <v>0.000704312717794371</v>
       </c>
       <c r="C74" t="n">
-        <v>13514034031392.74</v>
+        <v>1.717706341047957e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>5.921227330163622</v>
+        <v>3.81271334737928</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4320719311436777</v>
+        <v>0.7020039529038331</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9868712216939369</v>
+        <v>0.6354522245632134</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>326395149255742.9</v>
+        <v>0.000373309969365292</v>
       </c>
       <c r="C75" t="n">
-        <v>7986490751114.892</v>
+        <v>1.03498866487592e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>3.111734158050318</v>
+        <v>2.266332850399735</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7946980568702652</v>
+        <v>0.8936475784080881</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5186223596750531</v>
+        <v>0.3777221417332892</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>173385729243994.3</v>
+        <v>0.0002014727796714834</v>
       </c>
       <c r="C76" t="n">
-        <v>4211897163535.749</v>
+        <v>5.546985053172601e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>8.01484333037712</v>
+        <v>5.227843092918807</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2370178616785694</v>
+        <v>0.5149402868027659</v>
       </c>
       <c r="F76" t="n">
-        <v>1.33580722172952</v>
+        <v>0.8713071821531345</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>87237177217143.67</v>
+        <v>0.0001008357226220392</v>
       </c>
       <c r="C77" t="n">
-        <v>2459065499369.544</v>
+        <v>3.590508593510513e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>8.421207380313005</v>
+        <v>4.130070874734649</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2088394230901942</v>
+        <v>0.659079341204587</v>
       </c>
       <c r="F77" t="n">
-        <v>1.403534563385501</v>
+        <v>0.6883451457891082</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>85809253438805.48</v>
+        <v>9.724585967239759e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>2772022306619.317</v>
+        <v>4.610578928425001e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>6.000209969681661</v>
+        <v>3.766959216226007</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4231665605448904</v>
+        <v>0.7081783348344097</v>
       </c>
       <c r="F78" t="n">
-        <v>1.000034994946944</v>
+        <v>0.6278265360376678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>57626782852545.2</v>
+        <v>6.995687856478161e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>2457922038125.954</v>
+        <v>5.216068731001358e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>23.28977430371264</v>
+        <v>4.086088622862893</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0007050134189845458</v>
+        <v>0.6650273675689564</v>
       </c>
       <c r="F79" t="n">
-        <v>3.881629050618773</v>
+        <v>0.6810147704771489</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>55132742311677.28</v>
+        <v>6.557422011062238e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>1972847416735.966</v>
+        <v>3.97667129977754e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>7.51552512261195</v>
+        <v>1.428402078243908</v>
       </c>
       <c r="E80" t="n">
-        <v>0.275787156802093</v>
+        <v>0.964107923632876</v>
       </c>
       <c r="F80" t="n">
-        <v>1.252587520435325</v>
+        <v>0.2380670130406513</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>37010239390599.32</v>
+        <v>4.205475399994649e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1360537818958.031</v>
+        <v>2.285412583633288e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>9.02908591122512</v>
+        <v>6.968080028838596</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1719488957007048</v>
+        <v>0.3238092394908201</v>
       </c>
       <c r="F81" t="n">
-        <v>1.504847651870853</v>
+        <v>1.161346671473099</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>40788445682268.66</v>
+        <v>4.917534520428464e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>1262006200567.85</v>
+        <v>2.200150779951001e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>3.336128105173616</v>
+        <v>2.787517795051015</v>
       </c>
       <c r="E82" t="n">
-        <v>0.765628876881267</v>
+        <v>0.8350039689995126</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5560213508622693</v>
+        <v>0.4645862991751691</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>87526323109788.64</v>
+        <v>0.0001035349653319664</v>
       </c>
       <c r="C83" t="n">
-        <v>2127061017374.649</v>
+        <v>2.957859054679308e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>5.090965263022696</v>
+        <v>4.909462544876712</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5322002813416269</v>
+        <v>0.5554766879386857</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8484942105037826</v>
+        <v>0.818243757479452</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>58874833722958.58</v>
+        <v>6.968950666444006e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>1368706340202.122</v>
+        <v>1.880866045124513e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>3.526261759226476</v>
+        <v>3.194523236990975</v>
       </c>
       <c r="E84" t="n">
-        <v>0.740472468164618</v>
+        <v>0.7840659201525214</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5877102932044127</v>
+        <v>0.5324205394984959</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>26843039627355.43</v>
+        <v>3.213822074493762e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>671869117912.246</v>
+        <v>1.007528111370973e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>6.671797084308656</v>
+        <v>5.293247680519607</v>
       </c>
       <c r="E85" t="n">
-        <v>0.352268021482081</v>
+        <v>0.506788883653646</v>
       </c>
       <c r="F85" t="n">
-        <v>1.111966180718109</v>
+        <v>0.8822079467532679</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>22329503941906.73</v>
+        <v>2.754129028127478e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>554005740586.4757</v>
+        <v>8.31864877923564e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>5.541477254736654</v>
+        <v>3.691829851980937</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4764578584436071</v>
+        <v>0.7182970204896623</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9235795424561091</v>
+        <v>0.6153049753301562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>21431880111668.46</v>
+        <v>2.602907969302916e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>487472650697.2808</v>
+        <v>6.935655133391233e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>9.796701079728793</v>
+        <v>6.592287858991694</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1334785973938813</v>
+        <v>0.3602014646483565</v>
       </c>
       <c r="F87" t="n">
-        <v>1.632783513288132</v>
+        <v>1.098714643165282</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>27072994590969.11</v>
+        <v>3.162636437372738e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>622766056599.5157</v>
+        <v>8.474694862972242e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>7.396181123954012</v>
+        <v>5.329216241471004</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2857563939033723</v>
+        <v>0.5023336247305838</v>
       </c>
       <c r="F88" t="n">
-        <v>1.232696853992335</v>
+        <v>0.888202706911834</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>48772879793159.41</v>
+        <v>5.862025540839735e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1069208434851.507</v>
+        <v>1.43330090891033e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>7.921428756493365</v>
+        <v>7.661115419131043</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2439163541363039</v>
+        <v>0.2639967426509976</v>
       </c>
       <c r="F89" t="n">
-        <v>1.320238126082227</v>
+        <v>1.276852569855174</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>113462770253460.6</v>
+        <v>0.000133177464754193</v>
       </c>
       <c r="C90" t="n">
-        <v>2404567178285.883</v>
+        <v>3.037888058332735e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>4.552542608154656</v>
+        <v>3.911998488742017</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6023408345574632</v>
+        <v>0.6885841830012103</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7587571013591093</v>
+        <v>0.6519997481236696</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>126208146664299.9</v>
+        <v>0.0001478151964078927</v>
       </c>
       <c r="C91" t="n">
-        <v>2653323078888.008</v>
+        <v>3.294666172083005e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>1.890032566817076</v>
+        <v>1.763510957076647</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9295292262902686</v>
+        <v>0.9401135657702377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.315005427802846</v>
+        <v>0.2939184928461079</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>149553852244871.2</v>
+        <v>0.0001753114202200869</v>
       </c>
       <c r="C92" t="n">
-        <v>3144351985579.99</v>
+        <v>3.910417530031935e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>9.501635907422138</v>
+        <v>7.021622214901638</v>
       </c>
       <c r="E92" t="n">
-        <v>0.147269368962527</v>
+        <v>0.3188522191388942</v>
       </c>
       <c r="F92" t="n">
-        <v>1.583605984570356</v>
+        <v>1.170270369150273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>154332817700077.4</v>
+        <v>0.000179500374224626</v>
       </c>
       <c r="C93" t="n">
-        <v>3349412832190.394</v>
+        <v>4.189566957976421e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>3.825962809826886</v>
+        <v>2.644265295830483</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7002146028047047</v>
+        <v>0.8519855758529462</v>
       </c>
       <c r="F93" t="n">
-        <v>0.637660468304481</v>
+        <v>0.4407108826384138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>136070520078919.3</v>
+        <v>0.0001584150847491971</v>
       </c>
       <c r="C94" t="n">
-        <v>3400941524258.903</v>
+        <v>4.591452044999713e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>2.176985375968935</v>
+        <v>2.177099968500094</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9027227449345715</v>
+        <v>0.9027113153247892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3628308959948225</v>
+        <v>0.3628499947500157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>121612369828139</v>
+        <v>0.0001425018689747574</v>
       </c>
       <c r="C95" t="n">
-        <v>3044645272968.555</v>
+        <v>4.394904212464097e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>4.670402891344374</v>
+        <v>1.843205864392183</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5867260617508316</v>
+        <v>0.9335392230962506</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7784004818907291</v>
+        <v>0.3072009773986972</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>90466119439735.91</v>
+        <v>0.0001069957440028436</v>
       </c>
       <c r="C96" t="n">
-        <v>2232842813814.836</v>
+        <v>3.32155269617284e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>1.711130925178187</v>
+        <v>0.9239794034264389</v>
       </c>
       <c r="E96" t="n">
-        <v>0.944258709481483</v>
+        <v>0.98833059757491</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2851884875296978</v>
+        <v>0.1539965672377398</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>82878854063690.42</v>
+        <v>9.905359880814497e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>1984971152938.365</v>
+        <v>2.901404967978321e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>2.921398356131138</v>
+        <v>0.6547889306319397</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8186455763249439</v>
+        <v>0.9954152858492361</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4868997260218563</v>
+        <v>0.1091314884386566</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>78795857229699.83</v>
+        <v>9.355749825800255e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>1751358018779.015</v>
+        <v>2.357912950050404e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>9.513570656497164</v>
+        <v>6.400956497422296</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1466882222945578</v>
+        <v>0.3798039383346956</v>
       </c>
       <c r="F98" t="n">
-        <v>1.585595109416194</v>
+        <v>1.066826082903716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>77817143345703.03</v>
+        <v>9.220829185862891e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1648344759820.865</v>
+        <v>2.109623201189439e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>2.814512222103998</v>
+        <v>1.520693617520579</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8317414761766492</v>
+        <v>0.9581081216993239</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4690853703506664</v>
+        <v>0.2534489362534298</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>77422854810624.73</v>
+        <v>9.164027126771479e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1589606449411.631</v>
+        <v>1.963630893593211e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>11.54474830024112</v>
+        <v>9.130665501901349</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07293044495908306</v>
+        <v>0.1663617961991727</v>
       </c>
       <c r="F100" t="n">
-        <v>1.924124716706853</v>
+        <v>1.521777583650225</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>77153182243801.02</v>
+        <v>9.112763909933041e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1531051337086.715</v>
+        <v>1.853419165162339e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>5.031349666419498</v>
+        <v>4.979925665977505</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5397986247318163</v>
+        <v>0.5463903781162731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.838558277736583</v>
+        <v>0.8299876109962508</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>90685686094799.03</v>
+        <v>0.0001068181235780757</v>
       </c>
       <c r="C102" t="n">
-        <v>1776980087269.966</v>
+        <v>2.129146985537829e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>7.143292692352483</v>
+        <v>6.601199556535716</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3077987376892599</v>
+        <v>0.3593060277776671</v>
       </c>
       <c r="F102" t="n">
-        <v>1.190548782058747</v>
+        <v>1.100199926089286</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>122017096890747.3</v>
+        <v>0.0001438845033674783</v>
       </c>
       <c r="C103" t="n">
-        <v>2381743398653.82</v>
+        <v>2.845705351836882e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>9.074026153543908</v>
+        <v>6.640563172158783</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1694574957566944</v>
+        <v>0.3553696179256866</v>
       </c>
       <c r="F103" t="n">
-        <v>1.512337692257318</v>
+        <v>1.10676052869313</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>199320075155590.1</v>
+        <v>0.0002334889320297805</v>
       </c>
       <c r="C104" t="n">
-        <v>3826309475087.651</v>
+        <v>4.503843757121801e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>7.057139258848634</v>
+        <v>6.000698652950029</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3155953239823753</v>
+        <v>0.4231118219486952</v>
       </c>
       <c r="F104" t="n">
-        <v>1.176189876474772</v>
+        <v>1.000116442158338</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>303534662901295.9</v>
+        <v>0.0003500757322702041</v>
       </c>
       <c r="C105" t="n">
-        <v>5876351180985.644</v>
+        <v>6.825321274191067e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>4.30326704803465</v>
+        <v>5.144396334938068</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6357093478987115</v>
+        <v>0.5254312472921487</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7172111746724417</v>
+        <v>0.8573993891563446</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>402707143675530.6</v>
+        <v>0.0004659313581271647</v>
       </c>
       <c r="C106" t="n">
-        <v>7745055349164.62</v>
+        <v>9.002398556870259e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>6.895343613544829</v>
+        <v>6.932248067376444</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3306343723265889</v>
+        <v>0.327158368278164</v>
       </c>
       <c r="F106" t="n">
-        <v>1.149223935590805</v>
+        <v>1.155374677896074</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>532379762049204.2</v>
+        <v>0.000614146170534683</v>
       </c>
       <c r="C107" t="n">
-        <v>10246436753023.44</v>
+        <v>1.186498326057218e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>2.431570823548046</v>
+        <v>2.467946063196417</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8760459990641589</v>
+        <v>0.8720376222838474</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4052618039246743</v>
+        <v>0.4113243438660694</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>668230265729698</v>
+        <v>0.0007694256672255495</v>
       </c>
       <c r="C108" t="n">
-        <v>12743096929486.07</v>
+        <v>1.469746380991834e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>6.986004604930218</v>
+        <v>6.976650230112717</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3221434268180459</v>
+        <v>0.323011976805092</v>
       </c>
       <c r="F108" t="n">
-        <v>1.164334100821703</v>
+        <v>1.162775038352119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>724141094803396.9</v>
+        <v>0.0008322780346573859</v>
       </c>
       <c r="C109" t="n">
-        <v>13871246936680.44</v>
+        <v>1.598385135364778e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>8.01793029660749</v>
+        <v>8.349291315916739</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2367926281957866</v>
+        <v>0.213613702910142</v>
       </c>
       <c r="F109" t="n">
-        <v>1.336321716101248</v>
+        <v>1.39154855265279</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>899794902531877.5</v>
+        <v>0.001035024246758322</v>
       </c>
       <c r="C110" t="n">
-        <v>17130116462404.25</v>
+        <v>1.972496580357007e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>7.45122082674888</v>
+        <v>7.263738540784429</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2811244661264506</v>
+        <v>0.2971440634504883</v>
       </c>
       <c r="F110" t="n">
-        <v>1.24187013779148</v>
+        <v>1.210623090130738</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>1099641486661469</v>
+        <v>0.001261427995180091</v>
       </c>
       <c r="C111" t="n">
-        <v>20904306345161.1</v>
+        <v>2.400239145712414e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>4.387413517028034</v>
+        <v>4.567677824674372</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6244017208949633</v>
+        <v>0.6003289474866946</v>
       </c>
       <c r="F111" t="n">
-        <v>0.731235586171339</v>
+        <v>0.7612796374457287</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>1114166259910009</v>
+        <v>0.001280515837848717</v>
       </c>
       <c r="C112" t="n">
-        <v>21247201127850.14</v>
+        <v>2.445117665764088e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>5.896753637145086</v>
+        <v>5.904314569382008</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4348547490443908</v>
+        <v>0.4339938479111626</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9827922728575144</v>
+        <v>0.9840524282303346</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>1244572966810416</v>
+        <v>0.001427633721967857</v>
       </c>
       <c r="C113" t="n">
-        <v>23652945659376.37</v>
+        <v>2.71560972094234e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>3.397087132246873</v>
+        <v>3.726268414538639</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7576076237550925</v>
+        <v>0.7136621528826039</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5661811887078122</v>
+        <v>0.6210447357564398</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>1272113865318186</v>
+        <v>0.001459911438291117</v>
       </c>
       <c r="C114" t="n">
-        <v>24172220722374.22</v>
+        <v>2.776306715794331e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>3.252017778651748</v>
+        <v>3.32461722589402</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7766157670393351</v>
+        <v>0.7671382358495269</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5420029631086247</v>
+        <v>0.5541028709823367</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>1265317245677454</v>
+        <v>0.001452816218923754</v>
       </c>
       <c r="C115" t="n">
-        <v>24060570670923.49</v>
+        <v>2.76490262351875e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>4.220543672256772</v>
+        <v>4.004471135139525</v>
       </c>
       <c r="E115" t="n">
-        <v>0.646858487690201</v>
+        <v>0.676071314094439</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7034239453761287</v>
+        <v>0.6674118558565875</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>1244460571940990</v>
+        <v>0.001428808833086063</v>
       </c>
       <c r="C116" t="n">
-        <v>23675319282853.44</v>
+        <v>2.721226567570904e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>4.322693265072667</v>
+        <v>4.386034984353415</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6330955578063182</v>
+        <v>0.624586653156828</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7204488775121112</v>
+        <v>0.7310058307255692</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>1250855911185760</v>
+        <v>0.001434062408710397</v>
       </c>
       <c r="C117" t="n">
-        <v>23863013355728.84</v>
+        <v>2.739857847880283e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>6.211534681277148</v>
+        <v>6.655774148009804</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3999160185676501</v>
+        <v>0.3538567199342034</v>
       </c>
       <c r="F117" t="n">
-        <v>1.035255780212858</v>
+        <v>1.109295691334967</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>1185536456505276</v>
+        <v>0.001358656435155807</v>
       </c>
       <c r="C118" t="n">
-        <v>22521439133278.18</v>
+        <v>2.583082622238979e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>4.38368766891052</v>
+        <v>4.746362669747496</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6249015749026814</v>
+        <v>0.5767309863903347</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7306146114850867</v>
+        <v>0.7910604449579161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>1151803330835992</v>
+        <v>0.001322387241696334</v>
       </c>
       <c r="C119" t="n">
-        <v>21919404371193.88</v>
+        <v>2.519337139671173e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.282088501442143</v>
+        <v>3.275244477987796</v>
       </c>
       <c r="E119" t="n">
-        <v>0.772699233536783</v>
+        <v>0.7735917833442952</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5470147502403572</v>
+        <v>0.5458740796646327</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>945971926901395.8</v>
+        <v>0.001087130015289552</v>
       </c>
       <c r="C120" t="n">
-        <v>17996852575600.24</v>
+        <v>2.07063541680207e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>2.767404379865724</v>
+        <v>2.782206210152117</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8374224475878967</v>
+        <v>0.8356436836492659</v>
       </c>
       <c r="F120" t="n">
-        <v>0.461234063310954</v>
+        <v>0.4637010350253529</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>885168670282406.4</v>
+        <v>0.001018615875535519</v>
       </c>
       <c r="C121" t="n">
-        <v>16922104340237.03</v>
+        <v>1.951276916353643e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>7.427252672927093</v>
+        <v>7.652322093042194</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2831343076084731</v>
+        <v>0.2646973638366253</v>
       </c>
       <c r="F121" t="n">
-        <v>1.237875445487849</v>
+        <v>1.275387015507032</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>743337070554463.9</v>
+        <v>0.0008548072269445385</v>
       </c>
       <c r="C122" t="n">
-        <v>14157214318283.59</v>
+        <v>1.630447575625321e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>5.926455430785143</v>
+        <v>6.087110266322664</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4314788898009674</v>
+        <v>0.4135030784740825</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9877425717975239</v>
+        <v>1.014518377720444</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>574930059436338.4</v>
+        <v>0.0006611857077998228</v>
       </c>
       <c r="C123" t="n">
-        <v>10937671985693.37</v>
+        <v>1.259929485015001e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>2.853188978728444</v>
+        <v>3.350209719936543</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8270347868622538</v>
+        <v>0.7637800825411697</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4755314964547406</v>
+        <v>0.5583682866560905</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>526745826499805.4</v>
+        <v>0.0006070727195221962</v>
       </c>
       <c r="C124" t="n">
-        <v>10113520860085.05</v>
+        <v>1.170036080378608e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>4.908758439595307</v>
+        <v>5.225897740567667</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5555677889994692</v>
+        <v>0.5151837096087319</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8181264065992179</v>
+        <v>0.8709829567612779</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>455147955691715.8</v>
+        <v>0.0005254888044349792</v>
       </c>
       <c r="C125" t="n">
-        <v>8705142517547.357</v>
+        <v>1.009141017138828e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>6.598364473227348</v>
+        <v>6.898053316966762</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3595907232555071</v>
+        <v>0.3303782277229841</v>
       </c>
       <c r="F125" t="n">
-        <v>1.099727412204558</v>
+        <v>1.149675552827794</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>429873665716929.6</v>
+        <v>0.0004960286982936844</v>
       </c>
       <c r="C126" t="n">
-        <v>8254185629583.257</v>
+        <v>9.57291394700602e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>2.951570492858627</v>
+        <v>3.226798588169395</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8149002581666137</v>
+        <v>0.7798900177089579</v>
       </c>
       <c r="F126" t="n">
-        <v>0.4919284154764378</v>
+        <v>0.5377997646948991</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>430829372088625.2</v>
+        <v>0.0004980449942882209</v>
       </c>
       <c r="C127" t="n">
-        <v>8263225154124.516</v>
+        <v>9.597066044846122e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>2.591097514314479</v>
+        <v>2.561261445543921</v>
       </c>
       <c r="E127" t="n">
-        <v>0.858136331495064</v>
+        <v>0.8615495175263963</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4318495857190798</v>
+        <v>0.4268769075906536</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>425501826734652.4</v>
+        <v>0.0004916018732304416</v>
       </c>
       <c r="C128" t="n">
-        <v>8241004544729.13</v>
+        <v>9.602056124687916e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>4.151348741260151</v>
+        <v>4.609236583263769</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6562031813241385</v>
+        <v>0.5948144963611284</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6918914568766917</v>
+        <v>0.7682060972106282</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>412137496743129.1</v>
+        <v>0.0004759153206496051</v>
       </c>
       <c r="C129" t="n">
-        <v>8166031899872.237</v>
+        <v>9.627029900692109e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>3.20839482427373</v>
+        <v>2.631130581952876</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7822731960708805</v>
+        <v>0.8535130759090793</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5347324707122884</v>
+        <v>0.4385217636588126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>416084165771664.2</v>
+        <v>0.0004804462779522508</v>
       </c>
       <c r="C130" t="n">
-        <v>8299288638192.312</v>
+        <v>9.825384139854029e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>3.006205799783998</v>
+        <v>2.517074571689439</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8080675343360878</v>
+        <v>0.8665518759504833</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5010342999639996</v>
+        <v>0.4195124286149065</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>423188416446685.2</v>
+        <v>0.0004907413605366695</v>
       </c>
       <c r="C131" t="n">
-        <v>8558932575444.783</v>
+        <v>1.020503195870093e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>5.256564111039511</v>
+        <v>5.526784515565876</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5113529125084249</v>
+        <v>0.4782253616321255</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8760940185065852</v>
+        <v>0.9211307525943128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>471257763564422.8</v>
+        <v>0.0005423043653115559</v>
       </c>
       <c r="C132" t="n">
-        <v>9361009843310.256</v>
+        <v>1.102620337628847e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>2.467144167995939</v>
+        <v>2.734046131079893</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8721264824700111</v>
+        <v>0.8414095831922311</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4111906946659898</v>
+        <v>0.4556743551799822</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>509141288326804.7</v>
+        <v>0.0005878902834055706</v>
       </c>
       <c r="C133" t="n">
-        <v>10073905864103.7</v>
+        <v>1.187251549940786e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>1.290777581724983</v>
+        <v>1.35254105031121</v>
       </c>
       <c r="E133" t="n">
-        <v>0.972163800255335</v>
+        <v>0.968681646833216</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2151295969541639</v>
+        <v>0.2254235083852016</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>535181213223560.1</v>
+        <v>0.0006171580284488321</v>
       </c>
       <c r="C134" t="n">
-        <v>10591978288646.42</v>
+        <v>1.244305830196656e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.814294851970279</v>
+        <v>1.90905163728233</v>
       </c>
       <c r="E134" t="n">
-        <v>0.935961034704044</v>
+        <v>0.9278700780195588</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3023824753283798</v>
+        <v>0.3181752728803883</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>545156630162871.6</v>
+        <v>0.0006292545975225681</v>
       </c>
       <c r="C135" t="n">
-        <v>10877004481708.03</v>
+        <v>1.283004578701052e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>3.304998907960922</v>
+        <v>3.275475459670337</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7697065961041477</v>
+        <v>0.773561671299279</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5508331513268204</v>
+        <v>0.5459125766117228</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>529941354428197.6</v>
+        <v>0.0006102724302328986</v>
       </c>
       <c r="C136" t="n">
-        <v>10511006936450.82</v>
+        <v>1.231780596312034e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>2.531601567417658</v>
+        <v>2.49019791327737</v>
       </c>
       <c r="E136" t="n">
-        <v>0.864914317009106</v>
+        <v>0.8695630582076266</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4219335945696096</v>
+        <v>0.4150329855462283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>511322466073214.8</v>
+        <v>0.0005888003842574244</v>
       </c>
       <c r="C137" t="n">
-        <v>10190187286347.44</v>
+        <v>1.193826109949963e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>4.551652696724204</v>
+        <v>5.031149278359432</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6024591862560846</v>
+        <v>0.5398242448790436</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7586087827873674</v>
+        <v>0.8385248797265721</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>434492625014742.9</v>
+        <v>0.00050138687567225</v>
       </c>
       <c r="C138" t="n">
-        <v>8564266715916.948</v>
+        <v>1.002716637617449e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>2.883351319031149</v>
+        <v>2.694719960562034</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8233386771967663</v>
+        <v>0.8460705619847081</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4805585531718581</v>
+        <v>0.4491199934270056</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>271849694040195.8</v>
+        <v>0.0003152165221745388</v>
       </c>
       <c r="C139" t="n">
-        <v>5361651580329.633</v>
+        <v>6.363227016174943e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>1.683047641620361</v>
+        <v>1.426285984031142</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9464225023667392</v>
+        <v>0.9642399098286174</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2805079402700603</v>
+        <v>0.2377143306718571</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>231138955357659.2</v>
+        <v>0.0002684489300501706</v>
       </c>
       <c r="C140" t="n">
-        <v>4625390978877.1</v>
+        <v>5.544949241320415e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>5.431351486155954</v>
+        <v>4.869543787709476</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4897923322279912</v>
+        <v>0.5606508758423168</v>
       </c>
       <c r="F140" t="n">
-        <v>0.905225247692659</v>
+        <v>0.8115906312849127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>183882410328393.1</v>
+        <v>0.0002150233460995777</v>
       </c>
       <c r="C141" t="n">
-        <v>3614081065165.985</v>
+        <v>4.336842631638291e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>2.832809032043397</v>
+        <v>2.242307610392903</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8295195531023962</v>
+        <v>0.8961196270160949</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4721348386738994</v>
+        <v>0.3737179350654838</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>143707700923004.1</v>
+        <v>0.000168771820818445</v>
       </c>
       <c r="C142" t="n">
-        <v>2878014894745.434</v>
+        <v>3.52490996138568e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>6.793548306856048</v>
+        <v>6.279772445718574</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3403625592017786</v>
+        <v>0.3925905981711736</v>
       </c>
       <c r="F142" t="n">
-        <v>1.132258051142675</v>
+        <v>1.046628740953096</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>134372610612737.1</v>
+        <v>0.0001584483513849869</v>
       </c>
       <c r="C143" t="n">
-        <v>2733560412379.844</v>
+        <v>3.383815439855739e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>4.068558340090479</v>
+        <v>4.268885184450619</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6673989545770375</v>
+        <v>0.640339734798985</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6780930566817465</v>
+        <v>0.7114808640751032</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>129365008115312.9</v>
+        <v>0.0001532578684279341</v>
       </c>
       <c r="C144" t="n">
-        <v>2936097588383.412</v>
+        <v>4.041828359611567e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>3.199860717425589</v>
+        <v>3.967086875443665</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7833764868893298</v>
+        <v>0.68113062227782</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5333101195709316</v>
+        <v>0.6611811459072775</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>135367423351980.6</v>
+        <v>0.0001595903834228509</v>
       </c>
       <c r="C145" t="n">
-        <v>2970788801061.32</v>
+        <v>4.212763008660377e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>3.088042142043459</v>
+        <v>1.149539462061056</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7977182869154886</v>
+        <v>0.9793037309980529</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5146736903405765</v>
+        <v>0.1915899103435093</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>129659928291462.7</v>
+        <v>0.0001536725399157595</v>
       </c>
       <c r="C146" t="n">
-        <v>3029462160525.467</v>
+        <v>4.461420058933434e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>6.214563682645886</v>
+        <v>5.091607665440439</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3995889471609878</v>
+        <v>0.5321186638126383</v>
       </c>
       <c r="F146" t="n">
-        <v>1.035760613774314</v>
+        <v>0.8486012775734064</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>130752900201708.7</v>
+        <v>0.0001549031540836791</v>
       </c>
       <c r="C147" t="n">
-        <v>3159739574852.128</v>
+        <v>4.781881383164035e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>15.72389176898056</v>
+        <v>9.733743800641266</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01531523192901215</v>
+        <v>0.1363217743064637</v>
       </c>
       <c r="F147" t="n">
-        <v>2.620648628163427</v>
+        <v>1.622290633440211</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>128867850127762.2</v>
+        <v>0.0001520295584537686</v>
       </c>
       <c r="C148" t="n">
-        <v>3090217648625.411</v>
+        <v>4.586812463094104e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>3.079550696950136</v>
+        <v>1.823695265211146</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7987982151429828</v>
+        <v>0.9351781463164556</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5132584494916893</v>
+        <v>0.3039492108685244</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>129065374435096.6</v>
+        <v>0.0001523065648985757</v>
       </c>
       <c r="C149" t="n">
-        <v>3086505618371.997</v>
+        <v>4.665418968246936e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>4.805449641169388</v>
+        <v>2.440582882437484</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5689970009683698</v>
+        <v>0.8750572221966161</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8009082735282314</v>
+        <v>0.4067638137395806</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>124298966834783</v>
+        <v>0.0001458397040233437</v>
       </c>
       <c r="C150" t="n">
-        <v>2999209814133.008</v>
+        <v>4.922992121400331e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>1.93606626137826</v>
+        <v>0.8159785662551891</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9254836045322242</v>
+        <v>0.9916383765640179</v>
       </c>
       <c r="F150" t="n">
-        <v>0.32267771022971</v>
+        <v>0.1359964277091982</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>124385417337611.5</v>
+        <v>0.0001466526285049894</v>
       </c>
       <c r="C151" t="n">
-        <v>2973336762692.35</v>
+        <v>4.839932890277009e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>10.7823372768534</v>
+        <v>7.712545974014155</v>
       </c>
       <c r="E151" t="n">
-        <v>0.09534104815182798</v>
+        <v>0.259928349504704</v>
       </c>
       <c r="F151" t="n">
-        <v>1.797056212808899</v>
+        <v>1.285424329002359</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>121885180421718.1</v>
+        <v>0.0001405671054301261</v>
       </c>
       <c r="C152" t="n">
-        <v>2959103865249.476</v>
+        <v>4.884998496261587e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>2.751712876659121</v>
+        <v>0.7981058504836945</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8393017312163726</v>
+        <v>0.9921243594159657</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4586188127765201</v>
+        <v>0.1330176417472824</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>114306315862718.8</v>
+        <v>0.0001363379682808244</v>
       </c>
       <c r="C153" t="n">
-        <v>2785537739663.303</v>
+        <v>4.628197120227897e-06</v>
       </c>
       <c r="D153" t="n">
-        <v>15.30352841012792</v>
+        <v>6.854153856176282</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01802286923753386</v>
+        <v>0.334545934462385</v>
       </c>
       <c r="F153" t="n">
-        <v>2.550588068354653</v>
+        <v>1.14235897602938</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>113949892023947.5</v>
+        <v>0.0001356073538455072</v>
       </c>
       <c r="C154" t="n">
-        <v>2823475066280.488</v>
+        <v>4.552485542302849e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>10.48442634915154</v>
+        <v>5.189321805521875</v>
       </c>
       <c r="E154" t="n">
-        <v>0.105678834625377</v>
+        <v>0.5197707521455828</v>
       </c>
       <c r="F154" t="n">
-        <v>1.747404391525257</v>
+        <v>0.8648869675869792</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>112370496761280.5</v>
+        <v>0.0001342674139372023</v>
       </c>
       <c r="C155" t="n">
-        <v>2776138330183.369</v>
+        <v>4.671854401345823e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>4.424221822893011</v>
+        <v>1.990394384581275</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6194681058250968</v>
+        <v>0.9205799051791979</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7373703038155018</v>
+        <v>0.3317323974302125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>111629597977133.3</v>
+        <v>0.0001330309108666605</v>
       </c>
       <c r="C156" t="n">
-        <v>2694249238637.365</v>
+        <v>4.401090424948918e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>3.080622070321194</v>
+        <v>1.848368863929156</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7986620348090524</v>
+        <v>0.933102367716611</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5134370117201991</v>
+        <v>0.3080614773215261</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>101731839531478.3</v>
+        <v>0.000120452265323605</v>
       </c>
       <c r="C157" t="n">
-        <v>2377491268983.581</v>
+        <v>3.635552259806317e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>9.707972064921584</v>
+        <v>4.085655978326279</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1375009436649051</v>
+        <v>0.6650858930405752</v>
       </c>
       <c r="F157" t="n">
-        <v>1.617995344153597</v>
+        <v>0.6809426630543798</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>87283776886229.8</v>
+        <v>0.0001053118725019144</v>
       </c>
       <c r="C158" t="n">
-        <v>2177151583102.613</v>
+        <v>3.465569143781251e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>7.796081051914775</v>
+        <v>3.61959842486193</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2534268875436465</v>
+        <v>0.7279956084960738</v>
       </c>
       <c r="F158" t="n">
-        <v>1.299346841985796</v>
+        <v>0.6032664041436551</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>81935443652528.41</v>
+        <v>9.870043559026998e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>1909675980819.275</v>
+        <v>2.860149166616436e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>1.422169445977298</v>
+        <v>1.828464832697402</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9644959474871262</v>
+        <v>0.9347792405694627</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2370282409962164</v>
+        <v>0.3047441387829004</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>81780345475924.66</v>
+        <v>9.788551550530323e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>2041116375094.787</v>
+        <v>3.102190142290278e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>4.850732334346127</v>
+        <v>4.189075011111747</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5630956205667959</v>
+        <v>0.6511065036174737</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8084553890576878</v>
+        <v>0.6981791685186245</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>98554680942138.19</v>
+        <v>0.0001184180378436969</v>
       </c>
       <c r="C161" t="n">
-        <v>2213534010626.159</v>
+        <v>3.009916395493827e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>2.134525873417931</v>
+        <v>2.43777120474333</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9069196536030141</v>
+        <v>0.8753660181512235</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3557543122363219</v>
+        <v>0.4062952007905549</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>173295594067352.1</v>
+        <v>0.0002049177464226251</v>
       </c>
       <c r="C162" t="n">
-        <v>3691253795318.42</v>
+        <v>4.699012997636939e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>5.808245530356809</v>
+        <v>4.741803343142973</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4450099141180174</v>
+        <v>0.5773292887458621</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9680409217261349</v>
+        <v>0.7903005571904954</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>212099212380748.6</v>
+        <v>0.0002486792985577897</v>
       </c>
       <c r="C163" t="n">
-        <v>4376318839772.407</v>
+        <v>5.403037223971979e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>1.240334993076241</v>
+        <v>1.263448393946374</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9748455886245756</v>
+        <v>0.9736349016589821</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2067224988460401</v>
+        <v>0.2105747323243956</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>227080345394819.3</v>
+        <v>0.0002670342456417807</v>
       </c>
       <c r="C164" t="n">
-        <v>4656668440167.128</v>
+        <v>5.714225337454307e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>2.124290526588466</v>
+        <v>2.441335254860767</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9079198950333347</v>
+        <v>0.8749745448841526</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3540484210980777</v>
+        <v>0.4068892091434611</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>230492105228875</v>
+        <v>0.0002697747298129857</v>
       </c>
       <c r="C165" t="n">
-        <v>4747727241429.396</v>
+        <v>5.812684870300758e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9724491659767236</v>
+        <v>1.11272686394457</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9866351775482571</v>
+        <v>0.9809759094275021</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1620748609961206</v>
+        <v>0.185454477324095</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>238614650864519.7</v>
+        <v>0.0002811472433857926</v>
       </c>
       <c r="C166" t="n">
-        <v>5011740880545.689</v>
+        <v>6.206833985967613e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>7.316915300538636</v>
+        <v>5.934372622570543</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2925306518902408</v>
+        <v>0.4305817747698889</v>
       </c>
       <c r="F166" t="n">
-        <v>1.219485883423106</v>
+        <v>0.9890621037617572</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>237554232329533.1</v>
+        <v>0.0002782863082688067</v>
       </c>
       <c r="C167" t="n">
-        <v>4798351914283.25</v>
+        <v>5.83821203126029e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>1.625400738699212</v>
+        <v>1.280302853584127</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9507339269550661</v>
+        <v>0.9727327087418575</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2709001231165354</v>
+        <v>0.2133838089306878</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>229988652947714.9</v>
+        <v>0.0002689886961739037</v>
       </c>
       <c r="C168" t="n">
-        <v>4619357062451.116</v>
+        <v>5.589522122359576e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>2.34034868010574</v>
+        <v>2.326542194708391</v>
       </c>
       <c r="E168" t="n">
-        <v>0.885889878033975</v>
+        <v>0.8873529186741453</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3900581133509567</v>
+        <v>0.3877570324513984</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>212377151522204.1</v>
+        <v>0.0002494619889728343</v>
       </c>
       <c r="C169" t="n">
-        <v>4234299247933.39</v>
+        <v>5.119324002338097e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>5.208708250636452</v>
+        <v>4.310446873769272</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5173370458750592</v>
+        <v>0.6347430909912553</v>
       </c>
       <c r="F169" t="n">
-        <v>0.868118041772742</v>
+        <v>0.7184078122948786</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>133820941788473.2</v>
+        <v>0.0001581833205268917</v>
       </c>
       <c r="C170" t="n">
-        <v>2809019977526.798</v>
+        <v>3.522865888881487e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>9.22953769834753</v>
+        <v>9.869127883694942</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1610746012538492</v>
+        <v>0.1302726233685171</v>
       </c>
       <c r="F170" t="n">
-        <v>1.538256283057922</v>
+        <v>1.64485464728249</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>87543578176884.88</v>
+        <v>0.0001040769470036972</v>
       </c>
       <c r="C171" t="n">
-        <v>1797489576313.028</v>
+        <v>2.275990888221484e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>10.17924737888329</v>
+        <v>10.41632818818028</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1173036608428186</v>
+        <v>0.1081792675242698</v>
       </c>
       <c r="F171" t="n">
-        <v>1.696541229813882</v>
+        <v>1.736054698030047</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>79922364707591.55</v>
+        <v>9.586003549824144e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1683410235597.565</v>
+        <v>2.197414840371266e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>8.959965662999162</v>
+        <v>6.022752102660004</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1758421244127948</v>
+        <v>0.4206462084571039</v>
       </c>
       <c r="F172" t="n">
-        <v>1.49332761049986</v>
+        <v>1.003792017110001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>92944079248924.28</v>
+        <v>0.0001105160288173804</v>
       </c>
       <c r="C173" t="n">
-        <v>2074815181184.536</v>
+        <v>2.810943482582846e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>7.169736736261649</v>
+        <v>9.612912896929824</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3054350302594324</v>
+        <v>0.141928256020466</v>
       </c>
       <c r="F173" t="n">
-        <v>1.194956122710275</v>
+        <v>1.602152149488304</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>128427067558144.2</v>
+        <v>0.0001524422348793211</v>
       </c>
       <c r="C174" t="n">
-        <v>2642285064363.098</v>
+        <v>3.401942824545673e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>3.908130064960267</v>
+        <v>3.668508620193118</v>
       </c>
       <c r="E174" t="n">
-        <v>0.6891074485597322</v>
+        <v>0.7214319447537179</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6513550108267112</v>
+        <v>0.6114181033655196</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>143884274716174.8</v>
+        <v>0.0001712008221992248</v>
       </c>
       <c r="C175" t="n">
-        <v>3155143851133.149</v>
+        <v>4.251066085549903e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>4.986401573407252</v>
+        <v>5.49141456423128</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5455584023833806</v>
+        <v>0.4824949783082576</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8310669289012087</v>
+        <v>0.9152357607052134</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>218020668218982.1</v>
+        <v>0.0002560403106202186</v>
       </c>
       <c r="C176" t="n">
-        <v>4802775585448.771</v>
+        <v>6.302542056791376e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>2.472689608788949</v>
+        <v>2.776949355357111</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8715115251112062</v>
+        <v>0.8362760749832757</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4121149347981581</v>
+        <v>0.4628248925595186</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>296413440273729.1</v>
+        <v>0.0003454822977747901</v>
       </c>
       <c r="C177" t="n">
-        <v>6366853002214.011</v>
+        <v>8.150185722957417e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>15.60418460852772</v>
+        <v>16.49588273089877</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01604374738336876</v>
+        <v>0.01132591444057599</v>
       </c>
       <c r="F177" t="n">
-        <v>2.60069743475462</v>
+        <v>2.749313788483128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>300090295545061.2</v>
+        <v>0.0003524919447541343</v>
       </c>
       <c r="C178" t="n">
-        <v>6702848610619.335</v>
+        <v>8.879741815775212e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>2.133029869751089</v>
+        <v>1.438029950669897</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9070661298154846</v>
+        <v>0.9635042329718768</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3555049782918481</v>
+        <v>0.2396716584449829</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>293212596268532.7</v>
+        <v>0.000343283054621392</v>
       </c>
       <c r="C179" t="n">
-        <v>6607864827935.713</v>
+        <v>8.915037392303021e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>4.844725832945054</v>
+        <v>4.389215419547631</v>
       </c>
       <c r="E179" t="n">
-        <v>0.5638770814367369</v>
+        <v>0.6241600098988429</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8074543054908423</v>
+        <v>0.7315359032579384</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>263700748984437.2</v>
+        <v>0.0003085508923106667</v>
       </c>
       <c r="C180" t="n">
-        <v>6106087454230.185</v>
+        <v>5.696587341925487e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>1.947437624896917</v>
+        <v>9.019567381313388</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9244686808266148</v>
+        <v>0.7714640991951166</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3245729374828195</v>
+        <v>0.6938128754856453</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>264407796283392.4</v>
+        <v>0.0002697087735982228</v>
       </c>
       <c r="C181" t="n">
-        <v>5659370353212.941</v>
+        <v>8.899901619994504e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>10.42504074458699</v>
+        <v>3.162698802379276</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1078564215790641</v>
+        <v>0.7881668802972143</v>
       </c>
       <c r="F181" t="n">
-        <v>1.737506790764499</v>
+        <v>0.5271164670632127</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>232241427151966.8</v>
+        <v>0.0002363485581729605</v>
       </c>
       <c r="C182" t="n">
-        <v>5785022230164.322</v>
+        <v>9.281140232765739e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>4.377329769604058</v>
+        <v>4.500101240669673</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6257547286523018</v>
+        <v>0.6093257619466614</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7295549616006763</v>
+        <v>0.7500168734449456</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>200849129291595.2</v>
+        <v>0.0002148680334211835</v>
       </c>
       <c r="C183" t="n">
-        <v>5418805267161.989</v>
+        <v>8.02097564980245e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>7.141563016284258</v>
+        <v>2.065895501948944</v>
       </c>
       <c r="E183" t="n">
-        <v>0.307953825625441</v>
+        <v>0.9135394697635247</v>
       </c>
       <c r="F183" t="n">
-        <v>1.190260502714043</v>
+        <v>0.3443159169914907</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>182582942880350.1</v>
+        <v>0.000221871896308845</v>
       </c>
       <c r="C184" t="n">
-        <v>4531214072758.099</v>
+        <v>8.870525309171275e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>6.766399074858332</v>
+        <v>4.061867360666298</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3429918642961922</v>
+        <v>0.6683042419000098</v>
       </c>
       <c r="F184" t="n">
-        <v>1.127733179143055</v>
+        <v>0.676977893444383</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>184631901024991.9</v>
+        <v>0.0002100725879997631</v>
       </c>
       <c r="C185" t="n">
-        <v>4651488327389.449</v>
+        <v>7.180156818592294e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>13.04775530916213</v>
+        <v>11.64597043276353</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04228382599194511</v>
+        <v>0.07034913140759493</v>
       </c>
       <c r="F185" t="n">
-        <v>2.174625884860355</v>
+        <v>1.940995072127255</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>181120664855111.5</v>
+        <v>0.0002056037075185684</v>
       </c>
       <c r="C186" t="n">
-        <v>4156270669979.146</v>
+        <v>7.332622999954707e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>10.65289651042035</v>
+        <v>3.550946514566865</v>
       </c>
       <c r="E186" t="n">
-        <v>0.09971497092268096</v>
+        <v>0.7371796104370386</v>
       </c>
       <c r="F186" t="n">
-        <v>1.775482751736724</v>
+        <v>0.5918244190944776</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>176611738887986.2</v>
+        <v>0.000204766051244123</v>
       </c>
       <c r="C187" t="n">
-        <v>4217249091874.524</v>
+        <v>7.350611634117514e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>6.840775931063716</v>
+        <v>10.92916568276331</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3358236091744101</v>
+        <v>0.09059047861916968</v>
       </c>
       <c r="F187" t="n">
-        <v>1.140129321843953</v>
+        <v>1.821527613793886</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>168717091239749.4</v>
+        <v>0.0002215402477013763</v>
       </c>
       <c r="C188" t="n">
-        <v>4118710797903.538</v>
+        <v>6.311229321659535e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>23.88957822821497</v>
+        <v>5.628058085838017</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0005472528330014258</v>
+        <v>0.4661162252288776</v>
       </c>
       <c r="F188" t="n">
-        <v>3.981596371369161</v>
+        <v>0.9380096809730029</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>187111013310540.1</v>
+        <v>0.0002574866864794649</v>
       </c>
       <c r="C189" t="n">
-        <v>4062011582683.016</v>
+        <v>6.960048107407267e-06</v>
       </c>
       <c r="D189" t="n">
-        <v>10.2116104414367</v>
+        <v>5.521405962514313</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1160188690362047</v>
+        <v>0.4788732881051412</v>
       </c>
       <c r="F189" t="n">
-        <v>1.701935073572783</v>
+        <v>0.9202343270857188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>218355930475469.5</v>
+        <v>0.0002866692230268982</v>
       </c>
       <c r="C190" t="n">
-        <v>4755193751770.94</v>
+        <v>7.185656433686162e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>7.563384913480655</v>
+        <v>7.389373449442205</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2718664921901356</v>
+        <v>0.2863333899918025</v>
       </c>
       <c r="F190" t="n">
-        <v>1.260564152246776</v>
+        <v>1.231562241573701</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>244558973848525.7</v>
+        <v>0.0003280727536898204</v>
       </c>
       <c r="C191" t="n">
-        <v>5228360246812.273</v>
+        <v>7.601280619314479e-06</v>
       </c>
       <c r="D191" t="n">
-        <v>10.14862604017479</v>
+        <v>8.225650840284146</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1185309828247257</v>
+        <v>0.2220333465453758</v>
       </c>
       <c r="F191" t="n">
-        <v>1.691437673362464</v>
+        <v>1.370941806714024</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>279594604522897.1</v>
+        <v>0.0003802644244402175</v>
       </c>
       <c r="C192" t="n">
-        <v>5840649570964.897</v>
+        <v>8.454228789996292e-06</v>
       </c>
       <c r="D192" t="n">
-        <v>9.092307817851902</v>
+        <v>9.421200698180435</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1684529123022803</v>
+        <v>0.1512387698010158</v>
       </c>
       <c r="F192" t="n">
-        <v>1.51538463630865</v>
+        <v>1.570200116363406</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>326858086448898.6</v>
+        <v>0.0004191018797332874</v>
       </c>
       <c r="C193" t="n">
-        <v>6771596593933.137</v>
+        <v>6.412176398015774e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>9.675812918816282</v>
+        <v>17.43334361738442</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1389849481147974</v>
+        <v>0.1802436100734959</v>
       </c>
       <c r="F193" t="n">
-        <v>1.61263548646938</v>
+        <v>1.341026432106494</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>368094484937284.6</v>
+        <v>0.0004097215827893064</v>
       </c>
       <c r="C194" t="n">
-        <v>7625849400457.41</v>
+        <v>8.496133195660776e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>6.206610776917859</v>
+        <v>6.864297761255055</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4004480779415194</v>
+        <v>0.3335794977109798</v>
       </c>
       <c r="F194" t="n">
-        <v>1.03443512948631</v>
+        <v>1.144049626875842</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>353481944945638.8</v>
+        <v>0.0003702616300149115</v>
       </c>
       <c r="C195" t="n">
-        <v>7183270822072.724</v>
+        <v>7.708248573556049e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>10.80659944405546</v>
+        <v>4.866009650554017</v>
       </c>
       <c r="E195" t="n">
-        <v>0.09454080129997394</v>
+        <v>0.5611098628733391</v>
       </c>
       <c r="F195" t="n">
-        <v>1.801099907342577</v>
+        <v>0.8110016084256695</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>354112353395743.4</v>
+        <v>0.000366107306886024</v>
       </c>
       <c r="C196" t="n">
-        <v>7087230362001.314</v>
+        <v>7.51552262246138e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>6.726978131442956</v>
+        <v>7.97321667627586</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3468356881344525</v>
+        <v>0.2400720969314225</v>
       </c>
       <c r="F196" t="n">
-        <v>1.121163021907159</v>
+        <v>1.328869446045977</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>318286520218253.1</v>
+        <v>0.0003231218493671825</v>
       </c>
       <c r="C197" t="n">
-        <v>6399697537006.436</v>
+        <v>6.648017016751891e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>5.037634014497354</v>
+        <v>5.48163236777187</v>
       </c>
       <c r="E197" t="n">
-        <v>0.53899542145766</v>
+        <v>0.4836794573037716</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8396056690828924</v>
+        <v>0.913605394628645</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>314877617819381.4</v>
+        <v>0.0003124924446854828</v>
       </c>
       <c r="C198" t="n">
-        <v>6268229740622.581</v>
+        <v>6.353622451013883e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>8.419142756809379</v>
+        <v>7.04081550984082</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2089752373420262</v>
+        <v>0.3170891024713666</v>
       </c>
       <c r="F198" t="n">
-        <v>1.40319045946823</v>
+        <v>1.173469251640137</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>277424545723977.1</v>
+        <v>0.0003030446780836189</v>
       </c>
       <c r="C199" t="n">
-        <v>5537400070329.943</v>
+        <v>6.138678183043573e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>6.523938779196665</v>
+        <v>4.096754604804524</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3671212654689167</v>
+        <v>0.6635846272431336</v>
       </c>
       <c r="F199" t="n">
-        <v>1.087323129866111</v>
+        <v>0.6827924341340874</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>267585297188641.8</v>
+        <v>0.0003840377428351056</v>
       </c>
       <c r="C200" t="n">
-        <v>5292056258844.583</v>
+        <v>8.117694902290753e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>7.277000725766753</v>
+        <v>3.498929068159612</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2959883041009002</v>
+        <v>0.7441121727933577</v>
       </c>
       <c r="F200" t="n">
-        <v>1.212833454294459</v>
+        <v>0.5831548446932687</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>259261801343339.8</v>
+        <v>0.0003391988290759974</v>
       </c>
       <c r="C201" t="n">
-        <v>5117184248929.179</v>
+        <v>6.762410726931719e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>4.291488908699183</v>
+        <v>6.561642158855974</v>
       </c>
       <c r="E201" t="n">
-        <v>0.6372949703002186</v>
+        <v>0.363292690158121</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7152481514498638</v>
+        <v>1.093607026475996</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>331355800163572.2</v>
+        <v>0.0003551292967108512</v>
       </c>
       <c r="C202" t="n">
-        <v>6732349338670.529</v>
+        <v>7.708521964160678e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>3.866898916177619</v>
+        <v>2.495926936064965</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6946829301209985</v>
+        <v>0.8689232274560735</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6444831526962699</v>
+        <v>0.4159878226774942</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>290950049816611.4</v>
+        <v>0.0003241480272262512</v>
       </c>
       <c r="C203" t="n">
-        <v>5688944148291.597</v>
+        <v>7.13202348866622e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>7.290288581247991</v>
+        <v>2.16341457472293</v>
       </c>
       <c r="E203" t="n">
-        <v>0.294833763754671</v>
+        <v>0.9040724263128059</v>
       </c>
       <c r="F203" t="n">
-        <v>1.215048096874665</v>
+        <v>0.360569095787155</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>305040191109982.5</v>
+        <v>0.0003063215667101665</v>
       </c>
       <c r="C204" t="n">
-        <v>6289884360255.923</v>
+        <v>6.774883729029863e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>2.991834068299064</v>
+        <v>4.699373480983073</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8098710428026261</v>
+        <v>0.5829072876772108</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4986390113831773</v>
+        <v>0.7832289134971787</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>278665525199106</v>
+        <v>0.0002920042008811232</v>
       </c>
       <c r="C205" t="n">
-        <v>5767056759184.153</v>
+        <v>6.483841510190856e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>3.435671532259835</v>
+        <v>5.286266564139675</v>
       </c>
       <c r="E205" t="n">
-        <v>0.7525077177163144</v>
+        <v>0.5076558857449078</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5726119220433058</v>
+        <v>0.8810444273566125</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>262501076808265.5</v>
+        <v>0.0002707707438887486</v>
       </c>
       <c r="C206" t="n">
-        <v>5466550897397.229</v>
+        <v>6.167910520921105e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>4.800145024149219</v>
+        <v>3.053056315875962</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5696898017086423</v>
+        <v>0.8021588576892431</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8000241706915365</v>
+        <v>0.5088427193126603</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>249391652325809.8</v>
+        <v>0.0002523827307562353</v>
       </c>
       <c r="C207" t="n">
-        <v>5208293704152.492</v>
+        <v>5.371861043735716e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>6.058633963940174</v>
+        <v>3.325043479297405</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4166540471935832</v>
+        <v>0.7670823747962899</v>
       </c>
       <c r="F207" t="n">
-        <v>1.009772327323362</v>
+        <v>0.5541739132162341</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>233383127591676.7</v>
+        <v>0.0002559280945629433</v>
       </c>
       <c r="C208" t="n">
-        <v>4929862264527.739</v>
+        <v>5.736103033518283e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>2.439802504014276</v>
+        <v>1.917180514240092</v>
       </c>
       <c r="E208" t="n">
-        <v>0.8751429560614251</v>
+        <v>0.9271556392164501</v>
       </c>
       <c r="F208" t="n">
-        <v>0.406633750669046</v>
+        <v>0.319530085706682</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>215472036809715.7</v>
+        <v>0.0001347575912140641</v>
       </c>
       <c r="C209" t="n">
-        <v>4355143748040.095</v>
+        <v>2.973326311571359e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>3.465682908428426</v>
+        <v>5.571134978409241</v>
       </c>
       <c r="E209" t="n">
-        <v>0.7485296980177036</v>
+        <v>0.472901112058003</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5776138180714043</v>
+        <v>0.9285224964015403</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>217611129592145.9</v>
+        <v>5.673501111831767e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>4539096028209.426</v>
+        <v>1.482987822508957e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>2.726383723166284</v>
+        <v>5.662218909713395</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8423211323474022</v>
+        <v>0.4620711143551756</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4543972871943806</v>
+        <v>0.9437031516188991</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>112928791744049.8</v>
+        <v>3.404656723914431e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>2308410289422.964</v>
+        <v>9.81790442122313e-07</v>
       </c>
       <c r="D211" t="n">
-        <v>7.904423115830257</v>
+        <v>2.089206742805542</v>
       </c>
       <c r="E211" t="n">
-        <v>0.2451894975710091</v>
+        <v>0.911314050198443</v>
       </c>
       <c r="F211" t="n">
-        <v>1.317403852638376</v>
+        <v>0.3482011238009237</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>46996331780772.93</v>
+        <v>4.990741730521078e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1030137415784.048</v>
+        <v>1.243997729500097e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>6.84234033213617</v>
+        <v>8.103882772593513</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3356740156848157</v>
+        <v>0.2305909827468728</v>
       </c>
       <c r="F212" t="n">
-        <v>1.140390055356028</v>
+        <v>1.350647128765585</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>29097498331477.27</v>
+        <v>3.06895868017562e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>655466259203.9254</v>
+        <v>8.535058535192132e-07</v>
       </c>
       <c r="D213" t="n">
-        <v>4.897113832690746</v>
+        <v>2.412301804118166</v>
       </c>
       <c r="E213" t="n">
-        <v>0.557075291650154</v>
+        <v>0.8781504882762342</v>
       </c>
       <c r="F213" t="n">
-        <v>0.816185638781791</v>
+        <v>0.402050300686361</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>41631878480686.77</v>
+        <v>2.50233053583423e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>883334107200.7568</v>
+        <v>7.295042260243644e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>10.12367827385114</v>
+        <v>7.355518663244811</v>
       </c>
       <c r="E214" t="n">
-        <v>0.1195393559563044</v>
+        <v>0.2892162084988139</v>
       </c>
       <c r="F214" t="n">
-        <v>1.687279712308524</v>
+        <v>1.225919777207469</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>25601369446796.27</v>
+        <v>2.111494732770719e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>564070718223.8385</v>
+        <v>5.978822442711572e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>3.256344015236138</v>
+        <v>6.19904388817699</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7760531184910423</v>
+        <v>0.4012666367514113</v>
       </c>
       <c r="F215" t="n">
-        <v>0.5427240025393563</v>
+        <v>1.033173981362832</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>20955216966959.28</v>
+        <v>2.154075293680848e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>466035961469.9622</v>
+        <v>6.388029595870559e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>8.394298225840924</v>
+        <v>14.3235754881884</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2106153297826605</v>
+        <v>0.02622326359840625</v>
       </c>
       <c r="F216" t="n">
-        <v>1.399049704306821</v>
+        <v>2.387262581364733</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>17885903354392.81</v>
+        <v>3.1984242622845e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>386839315503.8494</v>
+        <v>8.193901137510186e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>9.736181666547363</v>
+        <v>16.09951965927503</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1362106937296043</v>
+        <v>0.01322965698207967</v>
       </c>
       <c r="F217" t="n">
-        <v>1.62269694442456</v>
+        <v>2.683253276545838</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>18313164920357.59</v>
+        <v>5.859829382120951e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>404473155900.5406</v>
+        <v>1.316059779994293e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>25.96060231251135</v>
+        <v>7.390206103189403</v>
       </c>
       <c r="E218" t="n">
-        <v>0.0002264364117435986</v>
+        <v>0.2862627686174746</v>
       </c>
       <c r="F218" t="n">
-        <v>4.326767052085224</v>
+        <v>1.231701017198234</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>26392005306247.49</v>
+        <v>6.581789295067088e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>558205519687.8615</v>
+        <v>1.47147744051849e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>21.34235010004431</v>
+        <v>9.355004458717842</v>
       </c>
       <c r="E219" t="n">
-        <v>0.001592001068230687</v>
+        <v>0.1545751316452094</v>
       </c>
       <c r="F219" t="n">
-        <v>3.557058350007384</v>
+        <v>1.559167409786307</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>48859774532122.2</v>
+        <v>5.758241393630223e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>992549993303.3375</v>
+        <v>1.258352570326182e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>7.298496664922594</v>
+        <v>11.86646648161372</v>
       </c>
       <c r="E220" t="n">
-        <v>0.2941223162711946</v>
+        <v>0.06501493847598144</v>
       </c>
       <c r="F220" t="n">
-        <v>1.216416110820432</v>
+        <v>1.977744413602287</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>54779919266384.92</v>
+        <v>5.148823289599588e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1113111720303.295</v>
+        <v>1.196057078098346e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>9.984938379653856</v>
+        <v>7.814428908127949</v>
       </c>
       <c r="E221" t="n">
-        <v>0.1252877316468252</v>
+        <v>0.2520164621658504</v>
       </c>
       <c r="F221" t="n">
-        <v>1.664156396608976</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>48109930790653.52</v>
-      </c>
-      <c r="C222" t="n">
-        <v>964721216855.1075</v>
-      </c>
-      <c r="D222" t="n">
-        <v>11.18988820166968</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.08268203413593017</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1.864981366944946</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>42933431041846.38</v>
-      </c>
-      <c r="C223" t="n">
-        <v>880685688770.6832</v>
-      </c>
-      <c r="D223" t="n">
-        <v>8.593296628076281</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.1977755077852321</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1.43221610467938</v>
+        <v>1.302404818021325</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -398,19 +398,19 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.06412574794172e-06</v>
+        <v>1.093516547289877e-15</v>
       </c>
       <c r="C2" t="n">
-        <v>1.550896757270871e-07</v>
+        <v>8.901468134324715e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>42.69727589089232</v>
+        <v>35.57094288424058</v>
       </c>
       <c r="E2" t="n">
-        <v>1.338890697577672e-07</v>
+        <v>3.339727415010734e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>7.116212648482054</v>
+        <v>5.928490480706763</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>4.340091696399152e-06</v>
+        <v>1.390350069012598e-12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.839849661943137e-07</v>
+        <v>1.253178819428962e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>82.25483490882264</v>
+        <v>10.91486380291838</v>
       </c>
       <c r="E3" t="n">
-        <v>1.22161361487152e-15</v>
+        <v>0.09104357813888171</v>
       </c>
       <c r="F3" t="n">
-        <v>13.70913915147044</v>
+        <v>1.819143967153063</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>3.372774083250512e-06</v>
+        <v>9.947483540771662e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>2.054897221912574e-07</v>
+        <v>3.963296831429617e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>169.8106412642987</v>
+        <v>14.47040298599233</v>
       </c>
       <c r="E4" t="n">
-        <v>4.933518277838542e-34</v>
+        <v>0.02480089753784433</v>
       </c>
       <c r="F4" t="n">
-        <v>28.30177354404978</v>
+        <v>2.411733830998721</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>5.60293955963637e-06</v>
+        <v>9.606318690577254e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>2.42321709720485e-07</v>
+        <v>8.65901833e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>37.49659996329272</v>
+        <v>7.384615308770911</v>
       </c>
       <c r="E5" t="n">
-        <v>1.408829289858073e-06</v>
+        <v>0.2867372095879783</v>
       </c>
       <c r="F5" t="n">
-        <v>6.249433327215453</v>
+        <v>1.230769218128485</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +478,19 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>7.262383597607156e-06</v>
+        <v>5.259821848277031e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>3.136848043696126e-07</v>
+        <v>4.741053729878026e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>47.34694756710008</v>
+        <v>46.81753961144749</v>
       </c>
       <c r="E6" t="n">
-        <v>1.595454298325984e-08</v>
+        <v>2.034653983762782e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>7.891157927850013</v>
+        <v>7.802923268574581</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +498,19 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>5.842639385709297e-06</v>
+        <v>1.092151313043935e-15</v>
       </c>
       <c r="C7" t="n">
-        <v>2.619757008918395e-07</v>
+        <v>9.84451866e-16</v>
       </c>
       <c r="D7" t="n">
-        <v>33.79109644322632</v>
+        <v>21.37646418930753</v>
       </c>
       <c r="E7" t="n">
-        <v>7.381942411464439e-06</v>
+        <v>0.001569621111497694</v>
       </c>
       <c r="F7" t="n">
-        <v>5.631849407204386</v>
+        <v>3.562744031551255</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +518,19 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>5.706350471356671e-06</v>
+        <v>5.025804984108775e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>2.404860198600516e-07</v>
+        <v>1.178249336391437e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>41.34784208115483</v>
+        <v>6.693010909389715</v>
       </c>
       <c r="E8" t="n">
-        <v>2.472855124485435e-07</v>
+        <v>0.3501724676118996</v>
       </c>
       <c r="F8" t="n">
-        <v>6.891307013525805</v>
+        <v>1.115501818231619</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +538,19 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>6.073181474496201e-06</v>
+        <v>8.690417415675097e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.308096601616472e-07</v>
+        <v>9.899315712024188e-08</v>
       </c>
       <c r="D9" t="n">
-        <v>99.74095895239887</v>
+        <v>37.67770024568775</v>
       </c>
       <c r="E9" t="n">
-        <v>2.841812440461964e-19</v>
+        <v>1.298662770829203e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>16.62349315873314</v>
+        <v>6.279616707614625</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +558,19 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>5.472266784594306e-06</v>
+        <v>4.200334478226885e-16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.602087210633987e-07</v>
+        <v>3.7861303e-16</v>
       </c>
       <c r="D10" t="n">
-        <v>49.19348261244335</v>
+        <v>17.34645822822958</v>
       </c>
       <c r="E10" t="n">
-        <v>6.819816432000812e-09</v>
+        <v>0.008090849096869111</v>
       </c>
       <c r="F10" t="n">
-        <v>8.198913768740558</v>
+        <v>2.891076371371596</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +578,19 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>5.33399382847381e-06</v>
+        <v>9.438118495601878e-15</v>
       </c>
       <c r="C11" t="n">
-        <v>2.409224026071751e-07</v>
+        <v>8.507402949999986e-15</v>
       </c>
       <c r="D11" t="n">
-        <v>47.174186660578</v>
+        <v>28.87915311751177</v>
       </c>
       <c r="E11" t="n">
-        <v>1.727260012368039e-08</v>
+        <v>6.412544585619586e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>7.862364443429667</v>
+        <v>4.813192186251961</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +598,19 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6.003008590476592e-06</v>
+        <v>3.804064182093404e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>2.206130219976078e-07</v>
+        <v>1.111630847239583e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>61.10253397520538</v>
+        <v>8.994678449083533</v>
       </c>
       <c r="E12" t="n">
-        <v>2.686538014136275e-11</v>
+        <v>0.1738775724551913</v>
       </c>
       <c r="F12" t="n">
-        <v>10.18375566253423</v>
+        <v>1.499113074847256</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +618,19 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4.815647642195172e-06</v>
+        <v>3.417504025645926e-07</v>
       </c>
       <c r="C13" t="n">
-        <v>2.098637712759728e-07</v>
+        <v>9.534751687515682e-08</v>
       </c>
       <c r="D13" t="n">
-        <v>60.49638404087725</v>
+        <v>6.848441085454017</v>
       </c>
       <c r="E13" t="n">
-        <v>3.568136442893593e-11</v>
+        <v>0.3350911046740313</v>
       </c>
       <c r="F13" t="n">
-        <v>10.08273067347954</v>
+        <v>1.14140684757567</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +638,19 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>7.749379953201422e-06</v>
+        <v>8.074599050933853e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>2.551081936999674e-07</v>
+        <v>7.940065222989515e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>5.490469649400966</v>
+        <v>196.1771860205013</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4826093249680051</v>
+        <v>1.235170400323334e-39</v>
       </c>
       <c r="F14" t="n">
-        <v>0.915078274900161</v>
+        <v>32.69619767008354</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +658,19 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>7.598354054680478e-06</v>
+        <v>8.102355652385625e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>2.739040772376681e-07</v>
+        <v>7.320289045021374e-08</v>
       </c>
       <c r="D15" t="n">
-        <v>35.65504403805045</v>
+        <v>189.5197252853989</v>
       </c>
       <c r="E15" t="n">
-        <v>3.216513240867976e-06</v>
+        <v>3.218836665003068e-38</v>
       </c>
       <c r="F15" t="n">
-        <v>5.942507339675075</v>
+        <v>31.58662088089982</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +678,19 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>6.526409290405969e-06</v>
+        <v>1.209370613790495e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.972173142665427e-07</v>
+        <v>1.086069734293812e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>13.94681986495974</v>
+        <v>35.34100744916061</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03023588981942786</v>
+        <v>3.701041030266328e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>2.32446997749329</v>
+        <v>5.890167908193434</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +698,19 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>5.413180578434079e-06</v>
+        <v>1.886816458851777e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.941780769330258e-07</v>
+        <v>1.43529305224214e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>17.70123927105769</v>
+        <v>35.19355839020338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007023839697814711</v>
+        <v>3.95289541624054e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>2.950206545176281</v>
+        <v>5.865593065033896</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +718,19 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>6.262374712841405e-06</v>
+        <v>1.040019963047701e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>3.070764818878583e-07</v>
+        <v>9.374608079999983e-15</v>
       </c>
       <c r="D18" t="n">
-        <v>33.05181360756796</v>
+        <v>151.6108881633771</v>
       </c>
       <c r="E18" t="n">
-        <v>1.024784352025528e-05</v>
+        <v>3.531356516832028e-30</v>
       </c>
       <c r="F18" t="n">
-        <v>5.508635601261328</v>
+        <v>25.26848136056285</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +738,19 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>6.461788593737804e-06</v>
+        <v>1.903108276385562e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>3.27402769317808e-07</v>
+        <v>1.622541565055574e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>4.68852830295528</v>
+        <v>38.31590218597782</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5843359023929615</v>
+        <v>9.744011983452774e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>0.78142138382588</v>
+        <v>6.38598369766297</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +758,19 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>6.557212710473361e-06</v>
+        <v>2.133121951537189e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>3.489136457734904e-07</v>
+        <v>1.848877374460599e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>7.456845713165913</v>
+        <v>23.71430779765182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2806544057113222</v>
+        <v>0.0005893624662881413</v>
       </c>
       <c r="F20" t="n">
-        <v>1.242807618860986</v>
+        <v>3.952384632941969</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +778,19 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>7.537080409294274e-06</v>
+        <v>3.864570432274512e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.33924674287722e-07</v>
+        <v>2.540458201933604e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>20.29737372912743</v>
+        <v>15.24490138540558</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002451200671755957</v>
+        <v>0.01843510909625653</v>
       </c>
       <c r="F21" t="n">
-        <v>3.382895621521238</v>
+        <v>2.540816897567597</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +798,19 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>1.160925351950618e-05</v>
+        <v>6.351964866795278e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>8.706537338823701e-07</v>
+        <v>6.028943049772305e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>8.605198484482719</v>
+        <v>41.17888008290102</v>
       </c>
       <c r="E22" t="n">
-        <v>0.197028865022473</v>
+        <v>2.669951190192564e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>1.434199747413786</v>
+        <v>6.863146680483503</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +818,19 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>1.484902223418931e-05</v>
+        <v>1.207100299264011e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.255639641879484e-06</v>
+        <v>9.377024600596662e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>5.977560670670138</v>
+        <v>8.106123205309967</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4257084496003539</v>
+        <v>0.2304311229532128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9962601117783563</v>
+        <v>1.351020534218328</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +838,19 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>2.312848202414873e-05</v>
+        <v>1.678730359276868e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>1.759830272467476e-06</v>
+        <v>1.54248466125397e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>5.199520034919773</v>
+        <v>5.919038016469567</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5184898239475846</v>
+        <v>0.4323204219992359</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8665866724866288</v>
+        <v>0.9865063360782611</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +858,19 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>2.100917544495282e-05</v>
+        <v>1.560339162789778e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.579515385137084e-06</v>
+        <v>1.27257709705721e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>4.216165060670466</v>
+        <v>40.35540637950965</v>
       </c>
       <c r="E25" t="n">
-        <v>0.647449366627058</v>
+        <v>3.878196636050915e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7026941767784111</v>
+        <v>6.725901063251608</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +878,19 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>1.840043931499554e-05</v>
+        <v>1.606220532915309e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.477734472814282e-06</v>
+        <v>1.347543979771289e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>14.42972854650102</v>
+        <v>21.462457316338</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02518740061549437</v>
+        <v>0.001514564996558202</v>
       </c>
       <c r="F26" t="n">
-        <v>2.404954757750171</v>
+        <v>3.577076219389667</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +898,19 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>2.262087237146576e-05</v>
+        <v>1.842001071282298e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>1.705084895789704e-06</v>
+        <v>1.45119525581926e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>2.181786178724525</v>
+        <v>9.428438615812874</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9022434372480067</v>
+        <v>0.1508778038619305</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3636310297874208</v>
+        <v>1.571406435968812</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +918,19 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>2.17910492212982e-05</v>
+        <v>1.823103147016731e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.702976731730188e-06</v>
+        <v>1.296041738230317e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>5.713388104376812</v>
+        <v>12.80970122666196</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4560498867539527</v>
+        <v>0.04615943169106321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9522313507294687</v>
+        <v>2.13495020444366</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +938,19 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>2.387705857044857e-05</v>
+        <v>2.023480301356768e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.718905461449009e-06</v>
+        <v>1.322912771288467e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>13.40637574939537</v>
+        <v>16.10505261497036</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03701786369716114</v>
+        <v>0.01320107809214762</v>
       </c>
       <c r="F29" t="n">
-        <v>2.234395958232561</v>
+        <v>2.684175435828394</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +958,19 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>2.095754198355286e-05</v>
+        <v>1.49810510946576e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.575152533303291e-06</v>
+        <v>1.182446075685809e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>8.625087554862128</v>
+        <v>22.85308317924024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1957864540777765</v>
+        <v>0.0008472078590936264</v>
       </c>
       <c r="F30" t="n">
-        <v>1.437514592477021</v>
+        <v>3.808847196540039</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +978,19 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>2.030658297321438e-05</v>
+        <v>1.759014922796381e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.480106744157802e-06</v>
+        <v>1.304228873888625e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>7.514257934633392</v>
+        <v>16.28314767898436</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2758915635415314</v>
+        <v>0.01231224881308343</v>
       </c>
       <c r="F31" t="n">
-        <v>1.252376322438899</v>
+        <v>2.713857946497393</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +998,19 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>2.051942595203417e-05</v>
+        <v>1.778711954312468e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.567458407671083e-06</v>
+        <v>1.28898302250207e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>5.176850236149901</v>
+        <v>12.87107187169138</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5213392537074859</v>
+        <v>0.04512963939380694</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8628083726916502</v>
+        <v>2.145178645281897</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1018,19 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>2.122751977706339e-05</v>
+        <v>1.632168714025934e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.522793546806425e-06</v>
+        <v>1.198308588592125e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>2.813420378726466</v>
+        <v>15.82223060645414</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8318737985016184</v>
+        <v>0.0147406085243418</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4689033964544111</v>
+        <v>2.637038434409024</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1038,19 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>2.068390470839248e-05</v>
+        <v>1.756154835438926e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.524947385192468e-06</v>
+        <v>1.25125448839697e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>2.877397047495897</v>
+        <v>1.540072730663239</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8240700537536267</v>
+        <v>0.956788363353192</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4795661745826494</v>
+        <v>0.2566787884438731</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1058,19 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>2.155182618128134e-05</v>
+        <v>1.633060840407038e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1.407927951894364e-06</v>
+        <v>1.155569593582959e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>11.23391316686224</v>
+        <v>16.24065709145134</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08141056069392499</v>
+        <v>0.0125189260345607</v>
       </c>
       <c r="F35" t="n">
-        <v>1.872318861143706</v>
+        <v>2.706776181908556</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1078,19 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>1.941397936020489e-05</v>
+        <v>1.594059273378188e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.349917783808165e-06</v>
+        <v>1.036224847367207e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>6.4293791601518</v>
+        <v>5.258815598693158</v>
       </c>
       <c r="E36" t="n">
-        <v>0.37684643912408</v>
+        <v>0.5110722097605864</v>
       </c>
       <c r="F36" t="n">
-        <v>1.071563193358633</v>
+        <v>0.8764692664488597</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1098,19 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>1.544762615103475e-05</v>
+        <v>1.073977906157332e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02494880884553e-06</v>
+        <v>7.516307386109603e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>7.008731173117057</v>
+        <v>26.41679913108137</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3200404997604784</v>
+        <v>0.0001861535130405276</v>
       </c>
       <c r="F37" t="n">
-        <v>1.168121862186176</v>
+        <v>4.402799855180229</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1118,19 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>1.586748194913805e-05</v>
+        <v>1.058505393316165e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>9.089811446730705e-07</v>
+        <v>6.175398077502143e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>7.074319403608085</v>
+        <v>25.18058065100016</v>
       </c>
       <c r="E38" t="n">
-        <v>0.314028871455617</v>
+        <v>0.0003161396138998417</v>
       </c>
       <c r="F38" t="n">
-        <v>1.179053233934681</v>
+        <v>4.196763441833361</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1138,19 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>1.372628310657571e-05</v>
+        <v>8.654885356822227e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>6.808735538181313e-07</v>
+        <v>4.831526548112237e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>17.50682275792447</v>
+        <v>11.38090410727729</v>
       </c>
       <c r="E39" t="n">
-        <v>0.007590428970610086</v>
+        <v>0.07729376914632834</v>
       </c>
       <c r="F39" t="n">
-        <v>2.917803792987411</v>
+        <v>1.896817351212882</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1158,19 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>1.268437369999114e-05</v>
+        <v>1.108332066979295e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>8.249557668889384e-07</v>
+        <v>6.88876235303182e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>11.10475621888344</v>
+        <v>25.7752852069497</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08519227260310812</v>
+        <v>0.0002451551206524872</v>
       </c>
       <c r="F40" t="n">
-        <v>1.85079270314724</v>
+        <v>4.295880867824949</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1178,19 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>1.981310430800892e-05</v>
+        <v>1.395995761669785e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>7.065479278335527e-07</v>
+        <v>5.168125009961175e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>6.185969650891492</v>
+        <v>46.4436926334788</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4026835508974135</v>
+        <v>2.415485212818945e-08</v>
       </c>
       <c r="F41" t="n">
-        <v>1.030994941815249</v>
+        <v>7.740615438913134</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1198,19 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>1.982036784508929e-05</v>
+        <v>1.290645794875103e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>6.265646738883727e-07</v>
+        <v>4.397657313778716e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>21.67128043856753</v>
+        <v>145.4835059217977</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001388621946493068</v>
+        <v>6.968428717071905e-29</v>
       </c>
       <c r="F42" t="n">
-        <v>3.611880073094589</v>
+        <v>24.24725098696629</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1218,19 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>1.926505238672851e-05</v>
+        <v>1.23526215886367e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>5.690534173845848e-07</v>
+        <v>3.787954306073861e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>12.97120026481861</v>
+        <v>61.8931241349035</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04349557538881193</v>
+        <v>1.854908317859973e-11</v>
       </c>
       <c r="F43" t="n">
-        <v>2.161866710803101</v>
+        <v>10.31552068915058</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1238,19 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>1.765111762847976e-05</v>
+        <v>9.964743328044597e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>5.074996601057236e-07</v>
+        <v>3.12510601177364e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>4.22922538260974</v>
+        <v>106.0531116703142</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6456871211173267</v>
+        <v>1.365188869212644e-20</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7048708971016233</v>
+        <v>17.67551861171903</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1258,19 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>1.818319329616816e-05</v>
+        <v>1.012944991979596e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>5.149273907804184e-07</v>
+        <v>3.160584820555384e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>5.822008399624805</v>
+        <v>109.5459656969905</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4434214825511854</v>
+        <v>2.537190834897046e-21</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9703347332708008</v>
+        <v>18.25766094949843</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1278,19 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>1.686051295002437e-05</v>
+        <v>1.157546972203523e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>4.631296199748784e-07</v>
+        <v>3.255510862757821e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>2.427020589672537</v>
+        <v>70.85816449132597</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8765441483981031</v>
+        <v>2.726080521017481e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4045034316120895</v>
+        <v>11.80969408188766</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1298,19 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>1.218616030585051e-05</v>
+        <v>6.659143838123187e-06</v>
       </c>
       <c r="C47" t="n">
-        <v>3.841947569063212e-07</v>
+        <v>2.407164236877032e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>7.252842821789956</v>
+        <v>93.64497861174394</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2980961728582767</v>
+        <v>5.292678130428138e-18</v>
       </c>
       <c r="F47" t="n">
-        <v>1.208807136964993</v>
+        <v>15.60749643529066</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1318,19 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>1.557713788171069e-05</v>
+        <v>9.362158303949526e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>4.63166755891103e-07</v>
+        <v>2.937462162739916e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>10.77286688817441</v>
+        <v>101.1146812840713</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09565507420959106</v>
+        <v>1.468724403476597e-19</v>
       </c>
       <c r="F48" t="n">
-        <v>1.795477814695736</v>
+        <v>16.85244688067855</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1338,19 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.297235778152522e-05</v>
+        <v>1.640253288153082e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>6.273445521921722e-07</v>
+        <v>4.553244298881488e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>7.910845983000493</v>
+        <v>102.8199875163659</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2447080143743789</v>
+        <v>6.469633761900506e-20</v>
       </c>
       <c r="F49" t="n">
-        <v>1.318474330500082</v>
+        <v>17.13666458606099</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1358,19 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>3.431573017728008e-05</v>
+        <v>2.790970735955064e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.863646599491369e-07</v>
+        <v>7.003603327808438e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>13.16471443936211</v>
+        <v>32.86149167740301</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04049357348711193</v>
+        <v>1.114927793870126e-05</v>
       </c>
       <c r="F50" t="n">
-        <v>2.194119073227018</v>
+        <v>5.476915279567169</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1378,19 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>4.57434328913061e-05</v>
+        <v>4.088727407514596e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.098517747068623e-06</v>
+        <v>9.509581085145317e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>1.349570495945324</v>
+        <v>21.7512803831214</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9688541058963598</v>
+        <v>0.001343142547871985</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2249284159908874</v>
+        <v>3.625213397186899</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +1398,19 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>9.570515007532381e-05</v>
+        <v>8.768095769166103e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>2.337576036316842e-06</v>
+        <v>2.092458852639708e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>6.876721229693068</v>
+        <v>20.92113009384028</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3323986644180052</v>
+        <v>0.00189544153171602</v>
       </c>
       <c r="F52" t="n">
-        <v>1.146120204948845</v>
+        <v>3.486855015640046</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +1418,19 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001591495652477726</v>
+        <v>0.0001545965407903837</v>
       </c>
       <c r="C53" t="n">
-        <v>3.681339412289399e-06</v>
+        <v>3.489414416165241e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>1.332639138120718</v>
+        <v>3.892997473575581</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9698274790607718</v>
+        <v>0.6911541329761344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2221065230201197</v>
+        <v>0.6488329122625969</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +1438,19 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004363869583111274</v>
+        <v>0.0004271767872036581</v>
       </c>
       <c r="C54" t="n">
-        <v>9.900620948664063e-06</v>
+        <v>9.620704469350822e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>7.861231608622535</v>
+        <v>9.929651529986257</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2484471830802003</v>
+        <v>0.1276459787641177</v>
       </c>
       <c r="F54" t="n">
-        <v>1.310205268103756</v>
+        <v>1.654941921664376</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +1458,19 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007029813200531211</v>
+        <v>0.0006874083336288212</v>
       </c>
       <c r="C55" t="n">
-        <v>1.541961605458106e-05</v>
+        <v>1.499543968215145e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>4.563387149506574</v>
+        <v>5.335939304260091</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6008991061338937</v>
+        <v>0.5015030724298739</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7605645249177623</v>
+        <v>0.8893232173766817</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +1478,19 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007754555407144898</v>
+        <v>0.0007696689802805153</v>
       </c>
       <c r="C56" t="n">
-        <v>1.657070769163905e-05</v>
+        <v>1.6348438826559e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>3.378221766914909</v>
+        <v>4.451997417660072</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7600948916244709</v>
+        <v>0.6157509155513328</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5630369611524848</v>
+        <v>0.741999569610012</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +1498,19 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0006307043398541469</v>
+        <v>0.000621284258021584</v>
       </c>
       <c r="C57" t="n">
-        <v>1.364607856643289e-05</v>
+        <v>1.336710487670957e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>7.836269616211055</v>
+        <v>7.912381881781383</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2503457508125246</v>
+        <v>0.2445929905904246</v>
       </c>
       <c r="F57" t="n">
-        <v>1.306044936035176</v>
+        <v>1.31873031363023</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +1518,19 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0003233562978419459</v>
+        <v>0.000319638794569512</v>
       </c>
       <c r="C58" t="n">
-        <v>6.999768166284567e-06</v>
+        <v>6.843850308882262e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>6.234062292552224</v>
+        <v>7.774274588870303</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3974877152568637</v>
+        <v>0.2551113939270501</v>
       </c>
       <c r="F58" t="n">
-        <v>1.039010382092037</v>
+        <v>1.295712431478384</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +1538,19 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002502502520058679</v>
+        <v>0.0002435190880316592</v>
       </c>
       <c r="C59" t="n">
-        <v>5.449164645892305e-06</v>
+        <v>5.201169247398452e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>5.149987094688564</v>
+        <v>13.23098694699941</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5247252662792206</v>
+        <v>0.03951103014698928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.858331182448094</v>
+        <v>2.205164491166568</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +1558,19 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003181050867562187</v>
+        <v>0.0003138854865526419</v>
       </c>
       <c r="C60" t="n">
-        <v>6.825353156868065e-06</v>
+        <v>6.658195878622812e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>9.65416566670828</v>
+        <v>10.97969708769031</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1399917878224271</v>
+        <v>0.08900594884820266</v>
       </c>
       <c r="F60" t="n">
-        <v>1.609027611118047</v>
+        <v>1.829949514615051</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +1578,19 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001425547624289295</v>
+        <v>0.0001362039461559203</v>
       </c>
       <c r="C61" t="n">
-        <v>3.114277923013605e-06</v>
+        <v>2.935189339031691e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.84700648675632</v>
+        <v>16.00170372695974</v>
       </c>
       <c r="E61" t="n">
-        <v>0.335228110359779</v>
+        <v>0.01374482607707278</v>
       </c>
       <c r="F61" t="n">
-        <v>1.14116774779272</v>
+        <v>2.666950621159957</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +1598,19 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001006845102602871</v>
+        <v>9.593832655279285e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>2.174520305123112e-06</v>
+        <v>2.029391064341659e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>3.850251542207942</v>
+        <v>16.16801921070963</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6969330210038767</v>
+        <v>0.01287999592016863</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6417085903679903</v>
+        <v>2.694669868451605</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +1618,19 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>5.916300124700849e-05</v>
+        <v>5.109995183702102e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.323765589289595e-06</v>
+        <v>1.137683261326848e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>5.855658491268105</v>
+        <v>48.92288729465584</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4395521934887953</v>
+        <v>7.725657557977581e-09</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9759430818780176</v>
+        <v>8.153814549109308</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +1638,19 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>3.194547051094708e-05</v>
+        <v>2.58020698211154e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>7.653825939957431e-07</v>
+        <v>6.133097698345362e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>5.51162961557771</v>
+        <v>73.5430142538041</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4800522234003608</v>
+        <v>7.654913666497433e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9186049359296183</v>
+        <v>12.25716904230068</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +1658,19 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>2.491789298280171e-05</v>
+        <v>1.980167876634452e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>8.376443364269216e-07</v>
+        <v>6.643820169946357e-07</v>
       </c>
       <c r="D65" t="n">
-        <v>6.355708923372125</v>
+        <v>34.94067699845399</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3845447398414364</v>
+        <v>4.425061006683244e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>1.059284820562021</v>
+        <v>5.823446166408998</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +1678,19 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>2.489541287761779e-05</v>
+        <v>2.005692093806259e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.271403056918183e-06</v>
+        <v>1.017774374846182e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>1.550897309014012</v>
+        <v>14.78538765988464</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9560422198548852</v>
+        <v>0.02199322709162838</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2584828848356686</v>
+        <v>2.46423127664744</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +1698,19 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>2.943522527630512e-05</v>
+        <v>2.5670570642426e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>1.69295540139863e-06</v>
+        <v>1.450968025756016e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>1.307516332382501</v>
+        <v>12.87220541960832</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9712416261750667</v>
+        <v>0.04511082255075195</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2179193887304169</v>
+        <v>2.145367569934719</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +1718,19 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.967903924562433e-05</v>
+        <v>3.625485495376841e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2.846520266338602e-06</v>
+        <v>2.46348995197759e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>5.844063076136933</v>
+        <v>3.76729545875474</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4408831877101457</v>
+        <v>0.7081329895684214</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9740105126894889</v>
+        <v>0.6278825764591233</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +1738,19 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.891522229552884e-05</v>
+        <v>3.324707607433658e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.422910497494227e-06</v>
+        <v>2.162092407610461e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>5.735082494183914</v>
+        <v>8.323433717930014</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4535109014729453</v>
+        <v>0.2153523191461664</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9558470823639856</v>
+        <v>1.387238952988336</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +1758,19 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>7.917347109393236e-05</v>
+        <v>6.83492354292386e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>4.928651878712975e-06</v>
+        <v>3.997978962244739e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>3.428696176991086</v>
+        <v>6.149547948516958</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7534309224856868</v>
+        <v>0.4066479986139351</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5714493628318477</v>
+        <v>1.02492465808616</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +1778,19 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001210818958125645</v>
+        <v>0.0001087736491686005</v>
       </c>
       <c r="C71" t="n">
-        <v>6.298585275377137e-06</v>
+        <v>5.639780215787074e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>3.858108324444331</v>
+        <v>6.591667877348949</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6958711689370851</v>
+        <v>0.3602638181033284</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6430180540740551</v>
+        <v>1.098611312891492</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +1798,19 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002789349101610538</v>
+        <v>0.0002768988007913636</v>
       </c>
       <c r="C72" t="n">
-        <v>7.33842575892081e-06</v>
+        <v>7.110000123102772e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>4.439577377333942</v>
+        <v>7.186615071565144</v>
       </c>
       <c r="E72" t="n">
-        <v>0.617412451191703</v>
+        <v>0.3039335598386898</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7399295628889903</v>
+        <v>1.197769178594191</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +1818,19 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0007128139687759735</v>
+        <v>0.0007089005143855807</v>
       </c>
       <c r="C73" t="n">
-        <v>1.727063554654483e-05</v>
+        <v>1.697674704243971e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>5.13217272684158</v>
+        <v>6.214892818993487</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5269763282959847</v>
+        <v>0.3995534176642276</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8553621211402632</v>
+        <v>1.035815469832248</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +1838,19 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.000704312717794371</v>
+        <v>0.0006935888165525147</v>
       </c>
       <c r="C74" t="n">
-        <v>1.717706341047957e-05</v>
+        <v>1.674628002916938e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>3.81271334737928</v>
+        <v>4.793438746435803</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7020039529038331</v>
+        <v>0.5705661023224082</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6354522245632134</v>
+        <v>0.7989064577393005</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +1858,19 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.000373309969365292</v>
+        <v>0.0003706876592169475</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03498866487592e-05</v>
+        <v>1.00302603072007e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>2.266332850399735</v>
+        <v>3.61186331644906</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8936475784080881</v>
+        <v>0.7290321637842541</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3777221417332892</v>
+        <v>0.6019772194081767</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +1878,19 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0002014727796714834</v>
+        <v>0.0001945423086752973</v>
       </c>
       <c r="C76" t="n">
-        <v>5.546985053172601e-06</v>
+        <v>5.218889435894783e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>5.227843092918807</v>
+        <v>10.48627395325115</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5149402868027659</v>
+        <v>0.1056117242049371</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8713071821531345</v>
+        <v>1.747712325541858</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +1898,19 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001008357226220392</v>
+        <v>9.520006247576746e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>3.590508593510513e-06</v>
+        <v>3.233667312122795e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>4.130070874734649</v>
+        <v>4.847542584674985</v>
       </c>
       <c r="E77" t="n">
-        <v>0.659079341204587</v>
+        <v>0.5635105638842137</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6883451457891082</v>
+        <v>0.8079237641124974</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +1918,19 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>9.724585967239759e-05</v>
+        <v>9.329332474521236e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>4.610578928425001e-06</v>
+        <v>4.568904355282313e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>3.766959216226007</v>
+        <v>4.174847443967064</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7081783348344097</v>
+        <v>0.653028129792389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6278265360376678</v>
+        <v>0.6958079073278439</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +1938,19 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>6.995687856478161e-05</v>
+        <v>7.040271688463767e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>5.216068731001358e-06</v>
+        <v>4.617854803001253e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>4.086088622862893</v>
+        <v>3.748001695435891</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6650273675689564</v>
+        <v>0.7107341390994979</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6810147704771489</v>
+        <v>0.6246669492393152</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +1958,19 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>6.557422011062238e-05</v>
+        <v>5.189733170800946e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>3.97667129977754e-06</v>
+        <v>3.352714608726148e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>1.428402078243908</v>
+        <v>16.08837262000215</v>
       </c>
       <c r="E80" t="n">
-        <v>0.964107923632876</v>
+        <v>0.01328741455505877</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2380670130406513</v>
+        <v>2.681395436667025</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +1978,19 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>4.205475399994649e-05</v>
+        <v>4.08855333481866e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>2.285412583633288e-06</v>
+        <v>2.126347615156055e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>6.968080028838596</v>
+        <v>14.01375738776889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3238092394908201</v>
+        <v>0.02948286320441171</v>
       </c>
       <c r="F81" t="n">
-        <v>1.161346671473099</v>
+        <v>2.335626231294815</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +1998,19 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>4.917534520428464e-05</v>
+        <v>4.722008085599686e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2.200150779951001e-06</v>
+        <v>1.890762052208573e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>2.787517795051015</v>
+        <v>10.51509226132055</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8350039689995126</v>
+        <v>0.1045699096889996</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4645862991751691</v>
+        <v>1.752515376886758</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +2018,19 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001035349653319664</v>
+        <v>0.000102464856811149</v>
       </c>
       <c r="C83" t="n">
-        <v>2.957859054679308e-06</v>
+        <v>2.796266435471625e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>4.909462544876712</v>
+        <v>5.578283548899503</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5554766879386857</v>
+        <v>0.4720460239041157</v>
       </c>
       <c r="F83" t="n">
-        <v>0.818243757479452</v>
+        <v>0.9297139248165838</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +2038,19 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>6.968950666444006e-05</v>
+        <v>6.868086843470375e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>1.880866045124513e-06</v>
+        <v>1.756149426839443e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>3.194523236990975</v>
+        <v>12.08412975946644</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7840659201525214</v>
+        <v>0.06011807494858398</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5324205394984959</v>
+        <v>2.014021626577739</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +2058,19 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>3.213822074493762e-05</v>
+        <v>2.856595018403437e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.007528111370973e-06</v>
+        <v>8.353829204181449e-07</v>
       </c>
       <c r="D85" t="n">
-        <v>5.293247680519607</v>
+        <v>33.48056340719833</v>
       </c>
       <c r="E85" t="n">
-        <v>0.506788883653646</v>
+        <v>8.473382680223639e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8822079467532679</v>
+        <v>5.580093901199722</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +2078,19 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>2.754129028127478e-05</v>
+        <v>2.440343447439589e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>8.31864877923564e-07</v>
+        <v>6.996101659842657e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>3.691829851980937</v>
+        <v>31.59038236684277</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7182970204896623</v>
+        <v>1.95484549124525e-05</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6153049753301562</v>
+        <v>5.265063727807129</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +2098,19 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>2.602907969302916e-05</v>
+        <v>2.40723172356724e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>6.935655133391233e-07</v>
+        <v>6.009029101632782e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>6.592287858991694</v>
+        <v>18.75432633966557</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3602014646483565</v>
+        <v>0.004599296979806535</v>
       </c>
       <c r="F87" t="n">
-        <v>1.098714643165282</v>
+        <v>3.125721056610928</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +2118,19 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.162636437372738e-05</v>
+        <v>2.862017963206574e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>8.474694862972242e-07</v>
+        <v>7.260577530604039e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>5.329216241471004</v>
+        <v>27.49449003919475</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5023336247305838</v>
+        <v>0.0001169584204312384</v>
       </c>
       <c r="F88" t="n">
-        <v>0.888202706911834</v>
+        <v>4.582415006532458</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +2138,19 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>5.862025540839735e-05</v>
+        <v>5.726500209765747e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.43330090891033e-06</v>
+        <v>1.330908487023941e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>7.661115419131043</v>
+        <v>10.79579133002582</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2639967426509976</v>
+        <v>0.09489653415335568</v>
       </c>
       <c r="F89" t="n">
-        <v>1.276852569855174</v>
+        <v>1.799298555004304</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +2158,19 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.000133177464754193</v>
+        <v>0.0001313583028872004</v>
       </c>
       <c r="C90" t="n">
-        <v>3.037888058332735e-06</v>
+        <v>2.91937983326166e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>3.911998488742017</v>
+        <v>11.18335303666021</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6885841830012103</v>
+        <v>0.08287231304770452</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6519997481236696</v>
+        <v>1.863892172776701</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +2178,19 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001478151964078927</v>
+        <v>0.0001465322915615312</v>
       </c>
       <c r="C91" t="n">
-        <v>3.294666172083005e-06</v>
+        <v>3.206767957312228e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>1.763510957076647</v>
+        <v>4.173117185506244</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9401135657702377</v>
+        <v>0.653261864635803</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2939184928461079</v>
+        <v>0.6955195309177072</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +2198,19 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001753114202200869</v>
+        <v>0.0001757173250386952</v>
       </c>
       <c r="C92" t="n">
-        <v>3.910417530031935e-06</v>
+        <v>3.848193327096089e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>7.021622214901638</v>
+        <v>8.57785444612866</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3188522191388942</v>
+        <v>0.1987477929526605</v>
       </c>
       <c r="F92" t="n">
-        <v>1.170270369150273</v>
+        <v>1.42964240768811</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +2218,19 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000179500374224626</v>
+        <v>0.0001784634109910822</v>
       </c>
       <c r="C93" t="n">
-        <v>4.189566957976421e-06</v>
+        <v>4.068730008121736e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>2.644265295830483</v>
+        <v>5.537422119483511</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8519855758529462</v>
+        <v>0.4769453222508686</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4407108826384138</v>
+        <v>0.9229036865805852</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +2238,19 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001584150847491971</v>
+        <v>0.0001551614151829204</v>
       </c>
       <c r="C94" t="n">
-        <v>4.591452044999713e-06</v>
+        <v>4.333220439499751e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>2.177099968500094</v>
+        <v>2.910208544898035</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9027113153247892</v>
+        <v>0.8200293343086255</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3628499947500157</v>
+        <v>0.4850347574830059</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +2258,19 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001425018689747574</v>
+        <v>0.0001408613473516994</v>
       </c>
       <c r="C95" t="n">
-        <v>4.394904212464097e-06</v>
+        <v>4.092805402245872e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>1.843205864392183</v>
+        <v>5.260674464721338</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9335392230962506</v>
+        <v>0.5108405138510577</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3072009773986972</v>
+        <v>0.8767790774535563</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +2278,19 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001069957440028436</v>
+        <v>0.000107197807599337</v>
       </c>
       <c r="C96" t="n">
-        <v>3.32155269617284e-06</v>
+        <v>3.234363583390176e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9239794034264389</v>
+        <v>1.018455485858373</v>
       </c>
       <c r="E96" t="n">
-        <v>0.98833059757491</v>
+        <v>0.9849030149927321</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1539965672377398</v>
+        <v>0.1697425809763955</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +2298,19 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>9.905359880814497e-05</v>
+        <v>9.826040927741264e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>2.901404967978321e-06</v>
+        <v>2.780018701014746e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6547889306319397</v>
+        <v>3.344293870904972</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9954152858492361</v>
+        <v>0.7645570937201416</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1091314884386566</v>
+        <v>0.5573823118174953</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +2318,19 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.355749825800255e-05</v>
+        <v>9.41887092848801e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.357912950050404e-06</v>
+        <v>2.257633953743305e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>6.400956497422296</v>
+        <v>10.61983422794187</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3798039383346956</v>
+        <v>0.1008608624963888</v>
       </c>
       <c r="F98" t="n">
-        <v>1.066826082903716</v>
+        <v>1.769972371323646</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +2338,19 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>9.220829185862891e-05</v>
+        <v>9.088710026245863e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>2.109623201189439e-06</v>
+        <v>2.021575178771952e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>1.520693617520579</v>
+        <v>9.246348379838981</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9581081216993239</v>
+        <v>0.160190254989961</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2534489362534298</v>
+        <v>1.541058063306497</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +2358,19 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>9.164027126771479e-05</v>
+        <v>8.766161706111264e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1.963630893593211e-06</v>
+        <v>1.850196867840932e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>9.130665501901349</v>
+        <v>31.03977868453871</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1663617961991727</v>
+        <v>2.490981077231635e-05</v>
       </c>
       <c r="F100" t="n">
-        <v>1.521777583650225</v>
+        <v>5.173296447423119</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +2378,19 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>9.112763909933041e-05</v>
+        <v>8.787590626387768e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.853419165162339e-06</v>
+        <v>1.773426602337629e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>4.979925665977505</v>
+        <v>15.47694347421695</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5463903781162731</v>
+        <v>0.01685450019578599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8299876109962508</v>
+        <v>2.579490579036159</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +2398,19 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001068181235780757</v>
+        <v>0.0001055252466776638</v>
       </c>
       <c r="C102" t="n">
-        <v>2.129146985537829e-06</v>
+        <v>2.084167020220549e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>6.601199556535716</v>
+        <v>12.65488846361024</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3593060277776671</v>
+        <v>0.04885569998131468</v>
       </c>
       <c r="F102" t="n">
-        <v>1.100199926089286</v>
+        <v>2.109148077268374</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +2418,19 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001438845033674783</v>
+        <v>0.0001419224835355602</v>
       </c>
       <c r="C103" t="n">
-        <v>2.845705351836882e-06</v>
+        <v>2.789127008356242e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>6.640563172158783</v>
+        <v>14.21702486950674</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3553696179256866</v>
+        <v>0.02730362854237034</v>
       </c>
       <c r="F103" t="n">
-        <v>1.10676052869313</v>
+        <v>2.369504144917789</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +2438,19 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002334889320297805</v>
+        <v>0.0002336129291373099</v>
       </c>
       <c r="C104" t="n">
-        <v>4.503843757121801e-06</v>
+        <v>4.495891367387466e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>6.000698652950029</v>
+        <v>7.964806682579527</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4231118219486952</v>
+        <v>0.2406930170818725</v>
       </c>
       <c r="F104" t="n">
-        <v>1.000116442158338</v>
+        <v>1.327467780429921</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +2458,19 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003500757322702041</v>
+        <v>0.0003520856021570382</v>
       </c>
       <c r="C105" t="n">
-        <v>6.825321274191067e-06</v>
+        <v>6.841205031082702e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>5.144396334938068</v>
+        <v>5.74744053194108</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5254312472921487</v>
+        <v>0.4520683045799493</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8573993891563446</v>
+        <v>0.9579067553235133</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +2478,19 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004659313581271647</v>
+        <v>0.0004677602103419414</v>
       </c>
       <c r="C106" t="n">
-        <v>9.002398556870259e-06</v>
+        <v>9.019061407163073e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>6.932248067376444</v>
+        <v>7.372204993810656</v>
       </c>
       <c r="E106" t="n">
-        <v>0.327158368278164</v>
+        <v>0.2877925365744189</v>
       </c>
       <c r="F106" t="n">
-        <v>1.155374677896074</v>
+        <v>1.228700832301776</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +2498,19 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>0.000614146170534683</v>
+        <v>0.0006172252979030694</v>
       </c>
       <c r="C107" t="n">
-        <v>1.186498326057218e-05</v>
+        <v>1.190434808223707e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>2.467946063196417</v>
+        <v>3.372511077234749</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8720376222838474</v>
+        <v>0.7608469625953478</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4113243438660694</v>
+        <v>0.5620851795391247</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +2518,19 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007694256672255495</v>
+        <v>0.0007726258643532542</v>
       </c>
       <c r="C108" t="n">
-        <v>1.469746380991834e-05</v>
+        <v>1.474783015529785e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>6.976650230112717</v>
+        <v>7.062926009336127</v>
       </c>
       <c r="E108" t="n">
-        <v>0.323011976805092</v>
+        <v>0.3150670471222172</v>
       </c>
       <c r="F108" t="n">
-        <v>1.162775038352119</v>
+        <v>1.177154334889355</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +2538,19 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0008322780346573859</v>
+        <v>0.0008341343053834313</v>
       </c>
       <c r="C109" t="n">
-        <v>1.598385135364778e-05</v>
+        <v>1.60058696168709e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>8.349291315916739</v>
+        <v>9.258590296067164</v>
       </c>
       <c r="E109" t="n">
-        <v>0.213613702910142</v>
+        <v>0.1595489026314907</v>
       </c>
       <c r="F109" t="n">
-        <v>1.39154855265279</v>
+        <v>1.543098382677861</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +2558,19 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001035024246758322</v>
+        <v>0.001036479804694835</v>
       </c>
       <c r="C110" t="n">
-        <v>1.972496580357007e-05</v>
+        <v>1.974868802680158e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>7.263738540784429</v>
+        <v>8.297576055164411</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2971440634504883</v>
+        <v>0.217102654880071</v>
       </c>
       <c r="F110" t="n">
-        <v>1.210623090130738</v>
+        <v>1.382929342527402</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +2578,19 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001261427995180091</v>
+        <v>0.001268813382074514</v>
       </c>
       <c r="C111" t="n">
-        <v>2.400239145712414e-05</v>
+        <v>2.413692547390549e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>4.567677824674372</v>
+        <v>4.950137442440109</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6003289474866946</v>
+        <v>0.5502241352144293</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7612796374457287</v>
+        <v>0.8250229070733516</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +2598,19 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001280515837848717</v>
+        <v>0.001284617505812563</v>
       </c>
       <c r="C112" t="n">
-        <v>2.445117665764088e-05</v>
+        <v>2.451913216940995e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>5.904314569382008</v>
+        <v>6.356625260570532</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4339938479111626</v>
+        <v>0.3844483343444104</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9840524282303346</v>
+        <v>1.059437543428422</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +2618,19 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001427633721967857</v>
+        <v>0.001442768981347934</v>
       </c>
       <c r="C113" t="n">
-        <v>2.71560972094234e-05</v>
+        <v>2.743201122356979e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>3.726268414538639</v>
+        <v>3.238156901585257</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7136621528826039</v>
+        <v>0.7784165490086848</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6210447357564398</v>
+        <v>0.5396928169308762</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +2638,19 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001459911438291117</v>
+        <v>0.00146401876957522</v>
       </c>
       <c r="C114" t="n">
-        <v>2.776306715794331e-05</v>
+        <v>2.783544242988496e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>3.32461722589402</v>
+        <v>3.860864987360571</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7671382358495269</v>
+        <v>0.695498566345287</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5541028709823367</v>
+        <v>0.6434774978934285</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +2658,19 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001452816218923754</v>
+        <v>0.001463110762976722</v>
       </c>
       <c r="C115" t="n">
-        <v>2.76490262351875e-05</v>
+        <v>2.783901157727691e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>4.004471135139525</v>
+        <v>4.916030259166601</v>
       </c>
       <c r="E115" t="n">
-        <v>0.676071314094439</v>
+        <v>0.5546272071199274</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6674118558565875</v>
+        <v>0.8193383765277669</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +2678,19 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001428808833086063</v>
+        <v>0.001436164067421213</v>
       </c>
       <c r="C116" t="n">
-        <v>2.721226567570904e-05</v>
+        <v>2.733936390839162e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>4.386034984353415</v>
+        <v>4.478116484824798</v>
       </c>
       <c r="E116" t="n">
-        <v>0.624586653156828</v>
+        <v>0.612260190182919</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7310058307255692</v>
+        <v>0.7463527474707997</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +2698,19 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001434062408710397</v>
+        <v>0.001437132068938702</v>
       </c>
       <c r="C117" t="n">
-        <v>2.739857847880283e-05</v>
+        <v>2.744539296495495e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>6.655774148009804</v>
+        <v>7.08055028631523</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3538567199342034</v>
+        <v>0.3134621940345886</v>
       </c>
       <c r="F117" t="n">
-        <v>1.109295691334967</v>
+        <v>1.180091714385872</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +2718,19 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001358656435155807</v>
+        <v>0.001372262149810937</v>
       </c>
       <c r="C118" t="n">
-        <v>2.583082622238979e-05</v>
+        <v>2.608189308421303e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>4.746362669747496</v>
+        <v>4.792456002030914</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5767309863903347</v>
+        <v>0.570694557205609</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7910604449579161</v>
+        <v>0.7987426670051523</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +2738,19 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001322387241696334</v>
+        <v>0.00132809013863026</v>
       </c>
       <c r="C119" t="n">
-        <v>2.519337139671173e-05</v>
+        <v>2.529339231150868e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.275244477987796</v>
+        <v>3.751534806600862</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7735917833442952</v>
+        <v>0.7102579337026449</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5458740796646327</v>
+        <v>0.6252558011001436</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +2758,19 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001087130015289552</v>
+        <v>0.001096659317619498</v>
       </c>
       <c r="C120" t="n">
-        <v>2.07063541680207e-05</v>
+        <v>2.087893394771386e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>2.782206210152117</v>
+        <v>2.894385428115206</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8356436836492659</v>
+        <v>0.8219811061848694</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4637010350253529</v>
+        <v>0.4823975713525344</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +2778,19 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001018615875535519</v>
+        <v>0.001019035780632251</v>
       </c>
       <c r="C121" t="n">
-        <v>1.951276916353643e-05</v>
+        <v>1.950882280112688e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>7.652322093042194</v>
+        <v>8.163791855428805</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2646973638366253</v>
+        <v>0.2263474696081485</v>
       </c>
       <c r="F121" t="n">
-        <v>1.275387015507032</v>
+        <v>1.360631975904801</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +2798,19 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0008548072269445385</v>
+        <v>0.0008579049117183845</v>
       </c>
       <c r="C122" t="n">
-        <v>1.630447575625321e-05</v>
+        <v>1.635548516717936e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>6.087110266322664</v>
+        <v>6.436019714603477</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4135030784740825</v>
+        <v>0.3761577425311888</v>
       </c>
       <c r="F122" t="n">
-        <v>1.014518377720444</v>
+        <v>1.072669952433913</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +2818,19 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006611857077998228</v>
+        <v>0.0006657729019483069</v>
       </c>
       <c r="C123" t="n">
-        <v>1.259929485015001e-05</v>
+        <v>1.267780301552148e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>3.350209719936543</v>
+        <v>3.547503213124541</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7637800825411697</v>
+        <v>0.7376392502851776</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5583682866560905</v>
+        <v>0.5912505355207568</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +2838,19 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0006070727195221962</v>
+        <v>0.0006104893310612135</v>
       </c>
       <c r="C124" t="n">
-        <v>1.170036080378608e-05</v>
+        <v>1.174781029499192e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>5.225897740567667</v>
+        <v>5.283522509446198</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5151837096087319</v>
+        <v>0.5079968785030922</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8709829567612779</v>
+        <v>0.8805870849076997</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +2858,19 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0005254888044349792</v>
+        <v>0.0005267561892684146</v>
       </c>
       <c r="C125" t="n">
-        <v>1.009141017138828e-05</v>
+        <v>1.010370752277804e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>6.898053316966762</v>
+        <v>6.676193530801759</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3303782277229841</v>
+        <v>0.3518329967638391</v>
       </c>
       <c r="F125" t="n">
-        <v>1.149675552827794</v>
+        <v>1.112698921800293</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +2878,19 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004960286982936844</v>
+        <v>0.0004985559401445537</v>
       </c>
       <c r="C126" t="n">
-        <v>9.57291394700602e-06</v>
+        <v>9.600043737982296e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>3.226798588169395</v>
+        <v>3.11049506748513</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7798900177089579</v>
+        <v>0.7948562709499354</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5377997646948991</v>
+        <v>0.518415844580855</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +2898,19 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004980449942882209</v>
+        <v>0.0005001626569672668</v>
       </c>
       <c r="C127" t="n">
-        <v>9.597066044846122e-06</v>
+        <v>9.620216893514138e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>2.561261445543921</v>
+        <v>3.085198059995613</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8615495175263963</v>
+        <v>0.7980801442937405</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4268769075906536</v>
+        <v>0.5141996766659355</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +2918,19 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004916018732304416</v>
+        <v>0.0004932376497723713</v>
       </c>
       <c r="C128" t="n">
-        <v>9.602056124687916e-06</v>
+        <v>9.603350645725618e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>4.609236583263769</v>
+        <v>4.522185524697242</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5948144963611284</v>
+        <v>0.6063816560629793</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7682060972106282</v>
+        <v>0.7536975874495404</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +2938,19 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004759153206496051</v>
+        <v>0.0004770066250864838</v>
       </c>
       <c r="C129" t="n">
-        <v>9.627029900692109e-06</v>
+        <v>9.579959340749883e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>2.631130581952876</v>
+        <v>2.429802985831123</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8535130759090793</v>
+        <v>0.8762396249808883</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4385217636588126</v>
+        <v>0.4049671643051873</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +2958,19 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004804462779522508</v>
+        <v>0.000482221970564678</v>
       </c>
       <c r="C130" t="n">
-        <v>9.825384139854029e-06</v>
+        <v>9.79129779678547e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>2.517074571689439</v>
+        <v>2.701749814720782</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8665518759504833</v>
+        <v>0.845240574804654</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4195124286149065</v>
+        <v>0.450291635786797</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +2978,19 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004907413605366695</v>
+        <v>0.0004910956391746577</v>
       </c>
       <c r="C131" t="n">
-        <v>1.020503195870093e-05</v>
+        <v>1.012921700554903e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>5.526784515565876</v>
+        <v>5.334740209108787</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4782253616321255</v>
+        <v>0.5016511548544156</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9211307525943128</v>
+        <v>0.8891233681847979</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +2998,19 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005423043653115559</v>
+        <v>0.0005445957727294904</v>
       </c>
       <c r="C132" t="n">
-        <v>1.102620337628847e-05</v>
+        <v>1.099811837521744e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>2.734046131079893</v>
+        <v>3.082109945426572</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8414095831922311</v>
+        <v>0.7984728775837429</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4556743551799822</v>
+        <v>0.5136849909044287</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +3018,19 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005878902834055706</v>
+        <v>0.0005878941361667262</v>
       </c>
       <c r="C133" t="n">
-        <v>1.187251549940786e-05</v>
+        <v>1.180179154191806e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>1.35254105031121</v>
+        <v>1.561183008003447</v>
       </c>
       <c r="E133" t="n">
-        <v>0.968681646833216</v>
+        <v>0.955327287087844</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2254235083852016</v>
+        <v>0.2601971680005745</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +3038,19 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0006171580284488321</v>
+        <v>0.0006170098095600973</v>
       </c>
       <c r="C134" t="n">
-        <v>1.244305830196656e-05</v>
+        <v>1.238574555955592e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.90905163728233</v>
+        <v>2.047774124454318</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9278700780195588</v>
+        <v>0.9152527664127061</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3181752728803883</v>
+        <v>0.3412956874090531</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +3058,19 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0006292545975225681</v>
+        <v>0.0006306622343818049</v>
       </c>
       <c r="C135" t="n">
-        <v>1.283004578701052e-05</v>
+        <v>1.278846429932045e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>3.275475459670337</v>
+        <v>3.548713771529056</v>
       </c>
       <c r="E135" t="n">
-        <v>0.773561671299279</v>
+        <v>0.7374776665761604</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5459125766117228</v>
+        <v>0.5914522952548428</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +3078,19 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0006102724302328986</v>
+        <v>0.0006120125720803736</v>
       </c>
       <c r="C136" t="n">
-        <v>1.231780596312034e-05</v>
+        <v>1.229305978707895e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>2.49019791327737</v>
+        <v>2.567871141113176</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8695630582076266</v>
+        <v>0.8607958138025238</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4150329855462283</v>
+        <v>0.4279785235188627</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +3098,19 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005888003842574244</v>
+        <v>0.0005892245412547943</v>
       </c>
       <c r="C137" t="n">
-        <v>1.193826109949963e-05</v>
+        <v>1.188740793728535e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>5.031149278359432</v>
+        <v>6.160593212801455</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5398242448790436</v>
+        <v>0.4054430582285792</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8385248797265721</v>
+        <v>1.026765535466909</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +3118,19 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.00050138687567225</v>
+        <v>0.0005041061062822511</v>
       </c>
       <c r="C138" t="n">
-        <v>1.002716637617449e-05</v>
+        <v>1.002782889536152e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>2.694719960562034</v>
+        <v>3.018929902594233</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8460705619847081</v>
+        <v>0.8064672045182182</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4491199934270056</v>
+        <v>0.5031549837657054</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +3138,19 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0003152165221745388</v>
+        <v>0.0003168782295058157</v>
       </c>
       <c r="C139" t="n">
-        <v>6.363227016174943e-06</v>
+        <v>6.34377531734337e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>1.426285984031142</v>
+        <v>1.268414579130801</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9642399098286174</v>
+        <v>0.9733707643402623</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2377143306718571</v>
+        <v>0.2114024298551335</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +3158,19 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002684489300501706</v>
+        <v>0.0002720384188750422</v>
       </c>
       <c r="C140" t="n">
-        <v>5.544949241320415e-06</v>
+        <v>5.558456724066997e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>4.869543787709476</v>
+        <v>7.419450531091615</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5606508758423168</v>
+        <v>0.2837909571120158</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8115906312849127</v>
+        <v>1.236575088515269</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +3178,19 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002150233460995777</v>
+        <v>0.0002160633944655124</v>
       </c>
       <c r="C141" t="n">
-        <v>4.336842631638291e-06</v>
+        <v>4.316818337311602e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>2.242307610392903</v>
+        <v>1.862047361039741</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8961196270160949</v>
+        <v>0.9319386450038104</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3737179350654838</v>
+        <v>0.3103412268399569</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +3198,19 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.000168771820818445</v>
+        <v>0.0001694535110444701</v>
       </c>
       <c r="C142" t="n">
-        <v>3.52490996138568e-06</v>
+        <v>3.478545303071483e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>6.279772445718574</v>
+        <v>6.765991354696494</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3925905981711736</v>
+        <v>0.3430314620571865</v>
       </c>
       <c r="F142" t="n">
-        <v>1.046628740953096</v>
+        <v>1.127665225782749</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +3218,19 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001584483513849869</v>
+        <v>0.00015939958100195</v>
       </c>
       <c r="C143" t="n">
-        <v>3.383815439855739e-06</v>
+        <v>3.340694355856877e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>4.268885184450619</v>
+        <v>4.848044146100781</v>
       </c>
       <c r="E143" t="n">
-        <v>0.640339734798985</v>
+        <v>0.5634453098462553</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7114808640751032</v>
+        <v>0.8080073576834635</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +3238,19 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001532578684279341</v>
+        <v>0.0001532452277509016</v>
       </c>
       <c r="C144" t="n">
-        <v>4.041828359611567e-06</v>
+        <v>3.926012705192476e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>3.967086875443665</v>
+        <v>1.005588986042202</v>
       </c>
       <c r="E144" t="n">
-        <v>0.68113062227782</v>
+        <v>0.985399565451461</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6611811459072775</v>
+        <v>0.1675981643403671</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +3258,19 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001595903834228509</v>
+        <v>0.0001585767223284809</v>
       </c>
       <c r="C145" t="n">
-        <v>4.212763008660377e-06</v>
+        <v>4.042996171745406e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>1.149539462061056</v>
+        <v>1.48106905163721</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9793037309980529</v>
+        <v>0.9607421441690072</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1915899103435093</v>
+        <v>0.246844841939535</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +3278,19 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001536725399157595</v>
+        <v>0.0001528258353146643</v>
       </c>
       <c r="C146" t="n">
-        <v>4.461420058933434e-06</v>
+        <v>4.273486882719967e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>5.091607665440439</v>
+        <v>6.499553369733985</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5321186638126383</v>
+        <v>0.3696124000033006</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8486012775734064</v>
+        <v>1.083258894955664</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +3298,19 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001549031540836791</v>
+        <v>0.0001550401393123891</v>
       </c>
       <c r="C147" t="n">
-        <v>4.781881383164035e-06</v>
+        <v>4.490735145841574e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>9.733743800641266</v>
+        <v>9.098516907838574</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1363217743064637</v>
+        <v>0.1681128886745075</v>
       </c>
       <c r="F147" t="n">
-        <v>1.622290633440211</v>
+        <v>1.516419484639762</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +3318,19 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001520295584537686</v>
+        <v>0.0001514553667567056</v>
       </c>
       <c r="C148" t="n">
-        <v>4.586812463094104e-06</v>
+        <v>4.361001985822453e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>1.823695265211146</v>
+        <v>3.058384537291386</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9351781463164556</v>
+        <v>0.8014840995091392</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3039492108685244</v>
+        <v>0.509730756215231</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +3338,19 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001523065648985757</v>
+        <v>0.0001522734478686209</v>
       </c>
       <c r="C149" t="n">
-        <v>4.665418968246936e-06</v>
+        <v>4.408511317443448e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>2.440582882437484</v>
+        <v>2.458450992556795</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8750572221966161</v>
+        <v>0.8730883735133027</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4067638137395806</v>
+        <v>0.4097418320927992</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +3358,19 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001458397040233437</v>
+        <v>0.0001470911661967841</v>
       </c>
       <c r="C150" t="n">
-        <v>4.922992121400331e-06</v>
+        <v>4.580271142030911e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8159785662551891</v>
+        <v>0.7016007966602217</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9916383765640179</v>
+        <v>0.9944564545065875</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1359964277091982</v>
+        <v>0.116933466110037</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +3378,19 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001466526285049894</v>
+        <v>0.0001464275872111585</v>
       </c>
       <c r="C151" t="n">
-        <v>4.839932890277009e-06</v>
+        <v>4.641516824348059e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>7.712545974014155</v>
+        <v>8.081895607822306</v>
       </c>
       <c r="E151" t="n">
-        <v>0.259928349504704</v>
+        <v>0.2321646328319147</v>
       </c>
       <c r="F151" t="n">
-        <v>1.285424329002359</v>
+        <v>1.346982601303718</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +3398,19 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001405671054301261</v>
+        <v>0.0001396564078314015</v>
       </c>
       <c r="C152" t="n">
-        <v>4.884998496261587e-06</v>
+        <v>4.612808089871597e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7981058504836945</v>
+        <v>0.6130832431696286</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9921243594159657</v>
+        <v>0.9961783727300686</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1330176417472824</v>
+        <v>0.1021805405282714</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +3418,19 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001363379682808244</v>
+        <v>0.0001359007213008721</v>
       </c>
       <c r="C153" t="n">
-        <v>4.628197120227897e-06</v>
+        <v>4.347296397028051e-06</v>
       </c>
       <c r="D153" t="n">
-        <v>6.854153856176282</v>
+        <v>7.60328013066283</v>
       </c>
       <c r="E153" t="n">
-        <v>0.334545934462385</v>
+        <v>0.2686318822095873</v>
       </c>
       <c r="F153" t="n">
-        <v>1.14235897602938</v>
+        <v>1.267213355110472</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +3438,19 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001356073538455072</v>
+        <v>0.0001350352897374276</v>
       </c>
       <c r="C154" t="n">
-        <v>4.552485542302849e-06</v>
+        <v>4.376185564339403e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>5.189321805521875</v>
+        <v>6.645600173141005</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5197707521455828</v>
+        <v>0.3548681255007827</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8648869675869792</v>
+        <v>1.107600028856834</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +3458,19 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001342674139372023</v>
+        <v>0.0001343077580476694</v>
       </c>
       <c r="C155" t="n">
-        <v>4.671854401345823e-06</v>
+        <v>4.39552554589972e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>1.990394384581275</v>
+        <v>2.021762680843897</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9205799051791979</v>
+        <v>0.9176862422560118</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3317323974302125</v>
+        <v>0.3369604468073162</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +3478,19 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001330309108666605</v>
+        <v>0.0001306305572380193</v>
       </c>
       <c r="C156" t="n">
-        <v>4.401090424948918e-06</v>
+        <v>4.177601662958708e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>1.848368863929156</v>
+        <v>0.9136471470133016</v>
       </c>
       <c r="E156" t="n">
-        <v>0.933102367716611</v>
+        <v>0.9886749576567146</v>
       </c>
       <c r="F156" t="n">
-        <v>0.3080614773215261</v>
+        <v>0.1522745245022169</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +3498,19 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.000120452265323605</v>
+        <v>0.0001195063604869374</v>
       </c>
       <c r="C157" t="n">
-        <v>3.635552259806317e-06</v>
+        <v>3.497003586335694e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>4.085655978326279</v>
+        <v>5.447318629179025</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6650858930405752</v>
+        <v>0.487846694295358</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6809426630543798</v>
+        <v>0.9078864381965041</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +3518,19 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001053118725019144</v>
+        <v>0.0001047826777417869</v>
       </c>
       <c r="C158" t="n">
-        <v>3.465569143781251e-06</v>
+        <v>3.246985730817616e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>3.61959842486193</v>
+        <v>3.368892351391589</v>
       </c>
       <c r="E158" t="n">
-        <v>0.7279956084960738</v>
+        <v>0.7613233252712049</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6032664041436551</v>
+        <v>0.5614820585652649</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +3538,19 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>9.870043559026998e-05</v>
+        <v>9.836618228397722e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>2.860149166616436e-06</v>
+        <v>2.682197470244301e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>1.828464832697402</v>
+        <v>1.989436428566699</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9347792405694627</v>
+        <v>0.9206675628992071</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3047441387829004</v>
+        <v>0.3315727380944498</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +3558,19 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>9.788551550530323e-05</v>
+        <v>9.836086813773465e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>3.102190142290278e-06</v>
+        <v>2.910248640149699e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>4.189075011111747</v>
+        <v>4.643442626689527</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6511065036174737</v>
+        <v>0.59028698949862</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6981791685186245</v>
+        <v>0.7739071044482545</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +3578,19 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001184180378436969</v>
+        <v>0.0001185938778235938</v>
       </c>
       <c r="C161" t="n">
-        <v>3.009916395493827e-06</v>
+        <v>2.926689013089987e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>2.43777120474333</v>
+        <v>2.050829468362768</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8753660181512235</v>
+        <v>0.914964926054098</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4062952007905549</v>
+        <v>0.3418049113937947</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +3598,19 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002049177464226251</v>
+        <v>0.0002036017546435771</v>
       </c>
       <c r="C162" t="n">
-        <v>4.699012997636939e-06</v>
+        <v>4.573846368055209e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>4.741803343142973</v>
+        <v>8.22783903222126</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5773292887458621</v>
+        <v>0.2218819881433</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7903005571904954</v>
+        <v>1.37130650537021</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +3618,19 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002486792985577897</v>
+        <v>0.0002487667451034157</v>
       </c>
       <c r="C163" t="n">
-        <v>5.403037223971979e-06</v>
+        <v>5.317344866020658e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>1.263448393946374</v>
+        <v>1.905839047292562</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9736349016589821</v>
+        <v>0.9281515550648847</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2105747323243956</v>
+        <v>0.317639841215427</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +3638,19 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002670342456417807</v>
+        <v>0.0002664890602355359</v>
       </c>
       <c r="C164" t="n">
-        <v>5.714225337454307e-06</v>
+        <v>5.652045364766134e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>2.441335254860767</v>
+        <v>2.809513533074308</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8749745448841526</v>
+        <v>0.8323470259077862</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4068892091434611</v>
+        <v>0.4682522555123847</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +3658,19 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002697747298129857</v>
+        <v>0.0002693399633122656</v>
       </c>
       <c r="C165" t="n">
-        <v>5.812684870300758e-06</v>
+        <v>5.730037488381754e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>1.11272686394457</v>
+        <v>2.020409074805898</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9809759094275021</v>
+        <v>0.9178120387695826</v>
       </c>
       <c r="F165" t="n">
-        <v>0.185454477324095</v>
+        <v>0.3367348458009831</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +3678,19 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002811472433857926</v>
+        <v>0.0002814792343033024</v>
       </c>
       <c r="C166" t="n">
-        <v>6.206833985967613e-06</v>
+        <v>6.121524716475728e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>5.934372622570543</v>
+        <v>8.062144903350989</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4305817747698889</v>
+        <v>0.2335856862354928</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9890621037617572</v>
+        <v>1.343690817225165</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +3698,19 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002782863082688067</v>
+        <v>0.0002792190134845349</v>
       </c>
       <c r="C167" t="n">
-        <v>5.83821203126029e-06</v>
+        <v>5.782058876833399e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>1.280302853584127</v>
+        <v>1.26613464506121</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9727327087418575</v>
+        <v>0.9734922034518693</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2133838089306878</v>
+        <v>0.2110224408435349</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +3718,19 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002689886961739037</v>
+        <v>0.000270425622242512</v>
       </c>
       <c r="C168" t="n">
-        <v>5.589522122359576e-06</v>
+        <v>5.557208892090433e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>2.326542194708391</v>
+        <v>2.647962573786145</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8873529186741453</v>
+        <v>0.8515546695925279</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3877570324513984</v>
+        <v>0.4413270956310241</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +3738,19 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002494619889728343</v>
+        <v>0.0002513302588486151</v>
       </c>
       <c r="C169" t="n">
-        <v>5.119324002338097e-06</v>
+        <v>5.108834153024904e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>4.310446873769272</v>
+        <v>4.858205619157663</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6347430909912553</v>
+        <v>0.5621239022513138</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7184078122948786</v>
+        <v>0.8097009365262772</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +3758,19 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001581833205268917</v>
+        <v>0.0001586194296074077</v>
       </c>
       <c r="C170" t="n">
-        <v>3.522865888881487e-06</v>
+        <v>3.475427559868864e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>9.869127883694942</v>
+        <v>11.74631854748938</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1302726233685171</v>
+        <v>0.06787338453986561</v>
       </c>
       <c r="F170" t="n">
-        <v>1.64485464728249</v>
+        <v>1.957719757914896</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +3778,19 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001040769470036972</v>
+        <v>0.0001049632191671439</v>
       </c>
       <c r="C171" t="n">
-        <v>2.275990888221484e-06</v>
+        <v>2.24326642353768e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>10.41632818818028</v>
+        <v>12.75425344088763</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1081792675242698</v>
+        <v>0.04710871333686693</v>
       </c>
       <c r="F171" t="n">
-        <v>1.736054698030047</v>
+        <v>2.125708906814605</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +3798,19 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>9.586003549824144e-05</v>
+        <v>9.582943160978075e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.197414840371266e-06</v>
+        <v>2.135490268190704e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>6.022752102660004</v>
+        <v>8.418428298973906</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4206462084571039</v>
+        <v>0.2090222526692736</v>
       </c>
       <c r="F172" t="n">
-        <v>1.003792017110001</v>
+        <v>1.403071383162318</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +3818,19 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001105160288173804</v>
+        <v>0.0001110112445915978</v>
       </c>
       <c r="C173" t="n">
-        <v>2.810943482582846e-06</v>
+        <v>2.740158807592451e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>9.612912896929824</v>
+        <v>10.58115564703445</v>
       </c>
       <c r="E173" t="n">
-        <v>0.141928256020466</v>
+        <v>0.1022164786918889</v>
       </c>
       <c r="F173" t="n">
-        <v>1.602152149488304</v>
+        <v>1.763525941172408</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +3838,19 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001524422348793211</v>
+        <v>0.0001523100218605891</v>
       </c>
       <c r="C174" t="n">
-        <v>3.401942824545673e-06</v>
+        <v>3.340020278913358e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>3.668508620193118</v>
+        <v>5.388215949946048</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7214319447537179</v>
+        <v>0.4950689263024916</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6114181033655196</v>
+        <v>0.8980359916576747</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +3858,19 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001712008221992248</v>
+        <v>0.0001709391816934746</v>
       </c>
       <c r="C175" t="n">
-        <v>4.251066085549903e-06</v>
+        <v>4.129763169153455e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>5.49141456423128</v>
+        <v>5.493638794674999</v>
       </c>
       <c r="E175" t="n">
-        <v>0.4824949783082576</v>
+        <v>0.4822258761816545</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9152357607052134</v>
+        <v>0.9156064657791666</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +3878,19 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002560403106202186</v>
+        <v>0.0002555579623504737</v>
       </c>
       <c r="C176" t="n">
-        <v>6.302542056791376e-06</v>
+        <v>6.1342882192717e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>2.776949355357111</v>
+        <v>5.465144688296094</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8362760749832757</v>
+        <v>0.4856794142741291</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4628248925595186</v>
+        <v>0.9108574480493491</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +3898,19 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003454822977747901</v>
+        <v>0.0003504250761455569</v>
       </c>
       <c r="C177" t="n">
-        <v>8.150185722957417e-06</v>
+        <v>8.102830916875456e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>16.49588273089877</v>
+        <v>12.82028745813285</v>
       </c>
       <c r="E177" t="n">
-        <v>0.01132591444057599</v>
+        <v>0.04598024003153429</v>
       </c>
       <c r="F177" t="n">
-        <v>2.749313788483128</v>
+        <v>2.136714576355475</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +3918,19 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003524919447541343</v>
+        <v>0.0003531001172847012</v>
       </c>
       <c r="C178" t="n">
-        <v>8.879741815775212e-06</v>
+        <v>8.662946682463582e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>1.438029950669897</v>
+        <v>2.065391401791555</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9635042329718768</v>
+        <v>0.9135873282317276</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2396716584449829</v>
+        <v>0.3442319002985925</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +3938,19 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000343283054621392</v>
+        <v>0.0003430096133345951</v>
       </c>
       <c r="C179" t="n">
-        <v>8.915037392303021e-06</v>
+        <v>8.667427203500973e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>4.389215419547631</v>
+        <v>4.219751110751154</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6241600098988429</v>
+        <v>0.6469654362319028</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7315359032579384</v>
+        <v>0.703291851791859</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +3958,19 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003085508923106667</v>
+        <v>0.0003082344788732087</v>
       </c>
       <c r="C180" t="n">
-        <v>5.696587341925487e-06</v>
+        <v>5.536702866042547e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>9.019567381313388</v>
+        <v>10.35733288463774</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7714640991951166</v>
+        <v>0.6644853927097845</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6938128754856453</v>
+        <v>0.7967179142029029</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +3978,19 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002697087735982228</v>
+        <v>0.0002684674822867442</v>
       </c>
       <c r="C181" t="n">
-        <v>8.899901619994504e-06</v>
+        <v>8.649365491298954e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>3.162698802379276</v>
+        <v>2.686357761405965</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7881668802972143</v>
+        <v>0.8470560144886061</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5271164670632127</v>
+        <v>0.4477262935676609</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +3998,19 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002363485581729605</v>
+        <v>0.0002372727050593117</v>
       </c>
       <c r="C182" t="n">
-        <v>9.281140232765739e-06</v>
+        <v>8.801433490967749e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>4.500101240669673</v>
+        <v>4.020186627088162</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6093257619466614</v>
+        <v>0.6739444764231932</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7500168734449456</v>
+        <v>0.6700311045146936</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +4018,19 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002148680334211835</v>
+        <v>0.0002128016040245371</v>
       </c>
       <c r="C183" t="n">
-        <v>8.02097564980245e-06</v>
+        <v>7.514243188707182e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>2.065895501948944</v>
+        <v>3.105798460974068</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9135394697635247</v>
+        <v>0.7954557053463261</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3443159169914907</v>
+        <v>0.5176330768290113</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +4038,19 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.000221871896308845</v>
+        <v>0.000215616695104821</v>
       </c>
       <c r="C184" t="n">
-        <v>8.870525309171275e-06</v>
+        <v>8.247440087563707e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>4.061867360666298</v>
+        <v>4.604920408790273</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6683042419000098</v>
+        <v>0.5953865224262969</v>
       </c>
       <c r="F184" t="n">
-        <v>0.676977893444383</v>
+        <v>0.7674867347983788</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +4058,19 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002100725879997631</v>
+        <v>0.0001953461830856091</v>
       </c>
       <c r="C185" t="n">
-        <v>7.180156818592294e-06</v>
+        <v>6.787959069427593e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>11.64597043276353</v>
+        <v>22.57773825196301</v>
       </c>
       <c r="E185" t="n">
-        <v>0.07034913140759493</v>
+        <v>0.0009509695397020346</v>
       </c>
       <c r="F185" t="n">
-        <v>1.940995072127255</v>
+        <v>3.762956375327169</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +4078,19 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002056037075185684</v>
+        <v>0.000204332907834223</v>
       </c>
       <c r="C186" t="n">
-        <v>7.332622999954707e-06</v>
+        <v>7.057220705031899e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>3.550946514566865</v>
+        <v>2.193909634534529</v>
       </c>
       <c r="E186" t="n">
-        <v>0.7371796104370386</v>
+        <v>0.9010287767307283</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5918244190944776</v>
+        <v>0.3656516057557548</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +4098,19 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.000204766051244123</v>
+        <v>0.0002061795892100667</v>
       </c>
       <c r="C187" t="n">
-        <v>7.350611634117514e-06</v>
+        <v>7.24477526887555e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>10.92916568276331</v>
+        <v>12.47592976232923</v>
       </c>
       <c r="E187" t="n">
-        <v>0.09059047861916968</v>
+        <v>0.05215561047929534</v>
       </c>
       <c r="F187" t="n">
-        <v>1.821527613793886</v>
+        <v>2.079321627054872</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +4118,19 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002215402477013763</v>
+        <v>0.0002127295323803422</v>
       </c>
       <c r="C188" t="n">
-        <v>6.311229321659535e-06</v>
+        <v>6.1228217931047e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>5.628058085838017</v>
+        <v>19.54280948977675</v>
       </c>
       <c r="E188" t="n">
-        <v>0.4661162252288776</v>
+        <v>0.003338678997365118</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9380096809730029</v>
+        <v>3.257134914962791</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +4138,19 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002574866864794649</v>
+        <v>0.0002549639187627183</v>
       </c>
       <c r="C189" t="n">
-        <v>6.960048107407267e-06</v>
+        <v>6.731302578550014e-06</v>
       </c>
       <c r="D189" t="n">
-        <v>5.521405962514313</v>
+        <v>6.214866310683466</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4788732881051412</v>
+        <v>0.3995562790969696</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9202343270857188</v>
+        <v>1.035811051780578</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +4158,19 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002866692230268982</v>
+        <v>0.0002849062641614585</v>
       </c>
       <c r="C190" t="n">
-        <v>7.185656433686162e-06</v>
+        <v>7.028030296830251e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>7.389373449442205</v>
+        <v>7.674248292763975</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2863333899918025</v>
+        <v>0.2629530994079791</v>
       </c>
       <c r="F190" t="n">
-        <v>1.231562241573701</v>
+        <v>1.279041382127329</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +4178,19 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003280727536898204</v>
+        <v>0.000326208244469633</v>
       </c>
       <c r="C191" t="n">
-        <v>7.601280619314479e-06</v>
+        <v>7.429146814517562e-06</v>
       </c>
       <c r="D191" t="n">
-        <v>8.225650840284146</v>
+        <v>7.863759952910098</v>
       </c>
       <c r="E191" t="n">
-        <v>0.2220333465453758</v>
+        <v>0.2482555291111843</v>
       </c>
       <c r="F191" t="n">
-        <v>1.370941806714024</v>
+        <v>1.31062665881835</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +4198,19 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003802644244402175</v>
+        <v>0.0003791779851060981</v>
       </c>
       <c r="C192" t="n">
-        <v>8.454228789996292e-06</v>
+        <v>8.35106300502314e-06</v>
       </c>
       <c r="D192" t="n">
-        <v>9.421200698180435</v>
+        <v>8.438135063743973</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1512387698010158</v>
+        <v>0.2077286657733273</v>
       </c>
       <c r="F192" t="n">
-        <v>1.570200116363406</v>
+        <v>1.406355843957329</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +4218,19 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004191018797332874</v>
+        <v>0.0004195337060920058</v>
       </c>
       <c r="C193" t="n">
-        <v>6.412176398015774e-06</v>
+        <v>6.350119365202585e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>17.43334361738442</v>
+        <v>16.31837779618541</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1802436100734959</v>
+        <v>0.2323641883474309</v>
       </c>
       <c r="F193" t="n">
-        <v>1.341026432106494</v>
+        <v>1.255259830475801</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +4238,19 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004097215827893064</v>
+        <v>0.0004092362009889021</v>
       </c>
       <c r="C194" t="n">
-        <v>8.496133195660776e-06</v>
+        <v>8.432440340210499e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>6.864297761255055</v>
+        <v>7.27481006771885</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3335794977109798</v>
+        <v>0.2961789756586826</v>
       </c>
       <c r="F194" t="n">
-        <v>1.144049626875842</v>
+        <v>1.212468344619808</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +4258,19 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003702616300149115</v>
+        <v>0.0003713199664970822</v>
       </c>
       <c r="C195" t="n">
-        <v>7.708248573556049e-06</v>
+        <v>7.662127608739804e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>4.866009650554017</v>
+        <v>4.787649918256074</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5611098628733391</v>
+        <v>0.5713229123375188</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8110016084256695</v>
+        <v>0.7979416530426789</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +4278,19 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000366107306886024</v>
+        <v>0.0003677923111752517</v>
       </c>
       <c r="C196" t="n">
-        <v>7.51552262246138e-06</v>
+        <v>7.498024583651085e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>7.97321667627586</v>
+        <v>8.33779919670623</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2400720969314225</v>
+        <v>0.2143849679619864</v>
       </c>
       <c r="F196" t="n">
-        <v>1.328869446045977</v>
+        <v>1.389633199451038</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +4298,19 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003231218493671825</v>
+        <v>0.0003251537405285913</v>
       </c>
       <c r="C197" t="n">
-        <v>6.648017016751891e-06</v>
+        <v>6.638042694131686e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>5.48163236777187</v>
+        <v>5.309913485968022</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4836794573037716</v>
+        <v>0.5047221087431391</v>
       </c>
       <c r="F197" t="n">
-        <v>0.913605394628645</v>
+        <v>0.8849855809946704</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +4318,19 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003124924446854828</v>
+        <v>0.0003130319104102271</v>
       </c>
       <c r="C198" t="n">
-        <v>6.353622451013883e-06</v>
+        <v>6.31760021086021e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>7.04081550984082</v>
+        <v>7.567481199180527</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3170891024713666</v>
+        <v>0.2715329698467175</v>
       </c>
       <c r="F198" t="n">
-        <v>1.173469251640137</v>
+        <v>1.261246866530088</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +4338,19 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0003030446780836189</v>
+        <v>0.0003039065144301331</v>
       </c>
       <c r="C199" t="n">
-        <v>6.138678183043573e-06</v>
+        <v>6.11267881524154e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>4.096754604804524</v>
+        <v>3.922889575564239</v>
       </c>
       <c r="E199" t="n">
-        <v>0.6635846272431336</v>
+        <v>0.6871108721216915</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6827924341340874</v>
+        <v>0.6538149292607065</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +4358,19 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003840377428351056</v>
+        <v>0.0003858648626453335</v>
       </c>
       <c r="C200" t="n">
-        <v>8.117694902290753e-06</v>
+        <v>8.046453649887035e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>3.498929068159612</v>
+        <v>3.557971563332115</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7441121727933577</v>
+        <v>0.7362415403724807</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5831548446932687</v>
+        <v>0.5929952605553526</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +4378,19 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003391988290759974</v>
+        <v>0.0003400916482506305</v>
       </c>
       <c r="C201" t="n">
-        <v>6.762410726931719e-06</v>
+        <v>6.7476071093545e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>6.561642158855974</v>
+        <v>7.050172254344028</v>
       </c>
       <c r="E201" t="n">
-        <v>0.363292690158121</v>
+        <v>0.3162322261835444</v>
       </c>
       <c r="F201" t="n">
-        <v>1.093607026475996</v>
+        <v>1.175028709057338</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +4398,19 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003551292967108512</v>
+        <v>0.0003570684846641739</v>
       </c>
       <c r="C202" t="n">
-        <v>7.708521964160678e-06</v>
+        <v>7.65207336418631e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>2.495926936064965</v>
+        <v>3.005774361222691</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8689232274560735</v>
+        <v>0.8081217383701707</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4159878226774942</v>
+        <v>0.5009623935371152</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +4418,19 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003241480272262512</v>
+        <v>0.0003259881009847223</v>
       </c>
       <c r="C203" t="n">
-        <v>7.13202348866622e-06</v>
+        <v>7.040385272746361e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>2.16341457472293</v>
+        <v>3.157396035876178</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9040724263128059</v>
+        <v>0.7888485500904026</v>
       </c>
       <c r="F203" t="n">
-        <v>0.360569095787155</v>
+        <v>0.5262326726460297</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +4438,19 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003063215667101665</v>
+        <v>0.0003076333906051083</v>
       </c>
       <c r="C204" t="n">
-        <v>6.774883729029863e-06</v>
+        <v>6.711558162691994e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>4.699373480983073</v>
+        <v>4.367638257756748</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5829072876772108</v>
+        <v>0.6270556618448264</v>
       </c>
       <c r="F204" t="n">
-        <v>0.7832289134971787</v>
+        <v>0.7279397096261246</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +4458,19 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002920042008811232</v>
+        <v>0.0002923401859596524</v>
       </c>
       <c r="C205" t="n">
-        <v>6.483841510190856e-06</v>
+        <v>6.393598542297684e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>5.286266564139675</v>
+        <v>5.111080778161875</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5076558857449078</v>
+        <v>0.5296472732531061</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8810444273566125</v>
+        <v>0.8518467963603125</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +4478,19 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002707707438887486</v>
+        <v>0.0002721349149125394</v>
       </c>
       <c r="C206" t="n">
-        <v>6.167910520921105e-06</v>
+        <v>6.087500616585145e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>3.053056315875962</v>
+        <v>2.775092646334866</v>
       </c>
       <c r="E206" t="n">
-        <v>0.8021588576892431</v>
+        <v>0.8364992594912222</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5088427193126603</v>
+        <v>0.462515441055811</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +4498,19 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002523827307562353</v>
+        <v>0.0002534026590586353</v>
       </c>
       <c r="C207" t="n">
-        <v>5.371861043735716e-06</v>
+        <v>5.322620414614336e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>3.325043479297405</v>
+        <v>3.110792433075655</v>
       </c>
       <c r="E207" t="n">
-        <v>0.7670823747962899</v>
+        <v>0.7948183041867061</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5541739132162341</v>
+        <v>0.5184654055126091</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +4518,19 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002559280945629433</v>
+        <v>0.0002574148298895712</v>
       </c>
       <c r="C208" t="n">
-        <v>5.736103033518283e-06</v>
+        <v>5.599760124491309e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>1.917180514240092</v>
+        <v>3.502813680751817</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9271556392164501</v>
+        <v>0.7435953098014713</v>
       </c>
       <c r="F208" t="n">
-        <v>0.319530085706682</v>
+        <v>0.5838022801253029</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +4538,19 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001347575912140641</v>
+        <v>0.0001352589517794675</v>
       </c>
       <c r="C209" t="n">
-        <v>2.973326311571359e-06</v>
+        <v>2.9266502789895e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>5.571134978409241</v>
+        <v>5.325644274442581</v>
       </c>
       <c r="E209" t="n">
-        <v>0.472901112058003</v>
+        <v>0.5027751811573702</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9285224964015403</v>
+        <v>0.8876073790737635</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +4558,19 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>5.673501111831767e-05</v>
+        <v>5.82069906464618e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.482987822508957e-06</v>
+        <v>1.437682205800161e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>5.662218909713395</v>
+        <v>6.390569571463661</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4620711143551756</v>
+        <v>0.3808886878348578</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9437031516188991</v>
+        <v>1.065094928577277</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +4578,19 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>3.404656723914431e-05</v>
+        <v>3.490888364597905e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>9.81790442122313e-07</v>
+        <v>9.403311432630625e-07</v>
       </c>
       <c r="D211" t="n">
-        <v>2.089206742805542</v>
+        <v>3.870683378304615</v>
       </c>
       <c r="E211" t="n">
-        <v>0.911314050198443</v>
+        <v>0.6941713220424897</v>
       </c>
       <c r="F211" t="n">
-        <v>0.3482011238009237</v>
+        <v>0.6451138963841024</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +4598,19 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>4.990741730521078e-05</v>
+        <v>5.07659096644439e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.243997729500097e-06</v>
+        <v>1.212484405677099e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>8.103882772593513</v>
+        <v>8.481836004038223</v>
       </c>
       <c r="E212" t="n">
-        <v>0.2305909827468728</v>
+        <v>0.2048838839914708</v>
       </c>
       <c r="F212" t="n">
-        <v>1.350647128765585</v>
+        <v>1.413639334006371</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +4618,19 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.06895868017562e-05</v>
+        <v>3.159329278257482e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>8.535058535192132e-07</v>
+        <v>8.224393320179163e-07</v>
       </c>
       <c r="D213" t="n">
-        <v>2.412301804118166</v>
+        <v>1.953721467843851</v>
       </c>
       <c r="E213" t="n">
-        <v>0.8781504882762342</v>
+        <v>0.9239052124774034</v>
       </c>
       <c r="F213" t="n">
-        <v>0.402050300686361</v>
+        <v>0.3256202446406418</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +4638,19 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.50233053583423e-05</v>
+        <v>2.589278570142891e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>7.295042260243644e-07</v>
+        <v>6.988671341639331e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>7.355518663244811</v>
+        <v>7.946132022917796</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2892162084988139</v>
+        <v>0.2420764442406112</v>
       </c>
       <c r="F214" t="n">
-        <v>1.225919777207469</v>
+        <v>1.324355337152966</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +4658,19 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.111494732770719e-05</v>
+        <v>2.178705109727999e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>5.978822442711572e-07</v>
+        <v>5.708417955113968e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>6.19904388817699</v>
+        <v>8.341704328996702</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4012666367514113</v>
+        <v>0.2141226258920749</v>
       </c>
       <c r="F215" t="n">
-        <v>1.033173981362832</v>
+        <v>1.390284054832784</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +4678,19 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.154075293680848e-05</v>
+        <v>1.845885801179612e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>6.388029595870559e-07</v>
+        <v>4.902924190129122e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>14.3235754881884</v>
+        <v>171.0101511413705</v>
       </c>
       <c r="E216" t="n">
-        <v>0.02622326359840625</v>
+        <v>2.746178240135031e-34</v>
       </c>
       <c r="F216" t="n">
-        <v>2.387262581364733</v>
+        <v>28.50169185689508</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +4698,19 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>3.1984242622845e-05</v>
+        <v>3.136722313994315e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>8.193901137510186e-07</v>
+        <v>7.267345514191162e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>16.09951965927503</v>
+        <v>83.54390721599216</v>
       </c>
       <c r="E217" t="n">
-        <v>0.01322965698207967</v>
+        <v>6.609925360409116e-16</v>
       </c>
       <c r="F217" t="n">
-        <v>2.683253276545838</v>
+        <v>13.92398453599869</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +4718,19 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>5.859829382120951e-05</v>
+        <v>5.780682959701644e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.316059779994293e-06</v>
+        <v>1.238477277861714e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>7.390206103189403</v>
+        <v>43.77831207124557</v>
       </c>
       <c r="E218" t="n">
-        <v>0.2862627686174746</v>
+        <v>8.179335776027275e-08</v>
       </c>
       <c r="F218" t="n">
-        <v>1.231701017198234</v>
+        <v>7.296385345207594</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +4738,19 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>6.581789295067088e-05</v>
+        <v>6.647276451053143e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.47147744051849e-06</v>
+        <v>1.44250184672433e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>9.355004458717842</v>
+        <v>9.764146531868375</v>
       </c>
       <c r="E219" t="n">
-        <v>0.1545751316452094</v>
+        <v>0.1349421767071677</v>
       </c>
       <c r="F219" t="n">
-        <v>1.559167409786307</v>
+        <v>1.627357755311396</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +4758,19 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>5.758241393630223e-05</v>
+        <v>5.84902526873928e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1.258352570326182e-06</v>
+        <v>1.246191752273484e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>11.86646648161372</v>
+        <v>10.53082139101858</v>
       </c>
       <c r="E220" t="n">
-        <v>0.06501493847598144</v>
+        <v>0.1040051943351862</v>
       </c>
       <c r="F220" t="n">
-        <v>1.977744413602287</v>
+        <v>1.755136898503097</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +4778,19 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>5.148823289599588e-05</v>
+        <v>5.23947929620705e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.196057078098346e-06</v>
+        <v>1.162976785674871e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>7.814428908127949</v>
+        <v>7.833427220606131</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2520164621658504</v>
+        <v>0.2505626760212743</v>
       </c>
       <c r="F221" t="n">
-        <v>1.302404818021325</v>
+        <v>1.305571203434355</v>
       </c>
     </row>
   </sheetData>
